--- a/dataset/lg/bhaskara.xlsx
+++ b/dataset/lg/bhaskara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F110"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +434,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>padyam</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>padyam</t>
+          <t>class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>satakam</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>satakam</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>lg</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
         <is>
           <t>శ్రీగల భాగ్యశాలి కడఁజేరఁగ వత్తురు తారు దారె దూ
 రాగమన ప్రయాసమున కాదట నోర్చియునైన నిల్వ ను
@@ -477,32 +474,29 @@
 సాగరుఁ జేరుటెల్ల ముని సన్నుత! మద్గురుమూర్తి! భాస్కరా!</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('గ', '|'), ('ల', '|'), ('భా', 'U'), ('గ్య', '|'), ('శా', 'U'), ('లి', '|'), ('క', '|'), ('డ', '|'), ('జే', 'U'), ('ర', '|'), ('గ', '|'), ('వ', 'U'), ('త్తు', '|'), ('రు', '|'), ('తా', 'U'), ('రు', '|'), ('దా', 'U'), ('రె', '|'), ('దూ', 'U'), ('రా', 'U'), ('గ', '|'), ('మ', '|'), ('న', 'U'), ('ప్ర', '|'), ('యా', 'U'), ('స', '|'), ('ము', '|'), ('న', '|'), ('కా', 'U'), ('ద', '|'), ('ట', '|'), ('నో', 'U'), ('ర్చి', '|'), ('యు', '|'), ('నై', 'U'), ('న', '|'), ('ని', 'U'), ('ల్వ', '|'), ('ను', 'U'), ('ద్యో', 'U'), ('గ', '|'), ('ము', '|'), ('చే', 'U'), ('సి', '|'), ('ర', 'U'), ('త్న', '|'), ('ని', '|'), ('ల', '|'), ('యుం', 'U'), ('డ', '|'), ('ని', '|'), ('కా', 'U'), ('దె', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('వా', 'U'), ('హి', '|'), ('నుల్', 'U'), ('సా', 'U'), ('గ', '|'), ('రు', '|'), ('జే', 'U'), ('రు', '|'), ('టె', 'U'), ('ల్ల', '|'), ('ము', '|'), ('ని', '|'), ('స', 'U'), ('న్ను', '|'), ('త', '|'), ('మ', 'U'), ('ద్గు', '|'), ('రు', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
         <is>
           <t>అంగన నమ్మరాదు తన యంకెకు రాని మహాబలాఢ్యు వే
 భంగుల మాయలొడ్డి చెఱుపం దలపెట్టు! వివేకియైన సా
@@ -510,32 +504,29 @@
 త్రాంగి యనేకముల్‌ నుడువరాని కుయుక్తులు పన్ని భాస్కరా!</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>[('అం', 'U'), ('గ', '|'), ('న', '|'), ('న', 'U'), ('మ్మ', '|'), ('రా', 'U'), ('దు', '|'), ('త', '|'), ('న', '|'), ('యం', 'U'), ('కె', '|'), ('కు', '|'), ('రా', 'U'), ('ని', '|'), ('మ', '|'), ('హా', 'U'), ('బ', '|'), ('లా', 'U'), ('ఢ్యు', '|'), ('వే', 'U'), ('భం', 'U'), ('గు', '|'), ('ల', '|'), ('మా', 'U'), ('య', '|'), ('లొ', 'U'), ('డ్డి', '|'), ('చె', '|'), ('ఱు', '|'), ('పం', 'U'), ('ద', '|'), ('ల', '|'), ('పె', 'U'), ('ట్టు', '|'), ('వి', '|'), ('వే', 'U'), ('కి', '|'), ('యై', 'U'), ('న', '|'), ('సా', 'U'), ('రం', 'U'), ('గ', '|'), ('ధ', '|'), ('రుం', 'U'), ('బ', '|'), ('దం', 'U'), ('బు', '|'), ('లు', '|'), ('క', '|'), ('రం', 'U'), ('బు', '|'), ('లు', '|'), ('గో', 'U'), ('య', '|'), ('గ', '|'), ('జే', 'U'), ('సె', '|'), ('దొ', 'U'), ('ల్లి', '|'), ('చి', 'U'), ('త్రాం', 'U'), ('గి', '|'), ('య', '|'), ('నే', 'U'), ('క', '|'), ('ముల్', 'U'), ('ను', '|'), ('డు', '|'), ('వ', '|'), ('రా', 'U'), ('ని', '|'), ('కు', '|'), ('యు', 'U'), ('క్తు', '|'), ('లు', '|'), ('ప', 'U'), ('న్ని', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>అక్కరపాటు వచ్చు సమయంబునఁ జుట్టము లొక్కరొక్కరి
 న్మక్కువ నుద్ధరించుటలు మైత్రికిఁ జూడఁగ యుక్తమే సుమీ
@@ -543,32 +534,29 @@
 దక్కక వచ్చుచుండుట నిదానము గాదె తలంప భాస్కరా!</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('క్క', '|'), ('ర', '|'), ('పా', 'U'), ('టు', '|'), ('వ', 'U'), ('చ్చు', '|'), ('స', '|'), ('మ', '|'), ('యం', 'U'), ('బు', '|'), ('న', '|'), ('జు', 'U'), ('ట్ట', '|'), ('ము', '|'), ('లొ', 'U'), ('క్క', '|'), ('రొ', 'U'), ('క్క', '|'), ('రి', 'U'), ('న్మ', 'U'), ('క్కు', '|'), ('వ', '|'), ('ను', 'U'), ('ద్ధ', '|'), ('రిం', 'U'), ('చు', '|'), ('ట', '|'), ('లు', '|'), ('మై', 'U'), ('త్రి', '|'), ('కి', '|'), ('జూ', 'U'), ('డ', '|'), ('గ', '|'), ('యు', 'U'), ('క్త', '|'), ('మే', 'U'), ('సు', '|'), ('మీ', 'U'), ('యొ', 'U'), ('క్క', '|'), ('ట', '|'), ('నీ', 'U'), ('టి', '|'), ('లో', 'U'), ('మె', '|'), ('ర', '|'), ('క', '|'), ('నో', 'U'), ('డ', '|'), ('ల', '|'), ('బం', 'U'), ('డ్లు', '|'), ('ను', '|'), ('బం', 'U'), ('డ్ల', '|'), ('నో', 'U'), ('డ', '|'), ('లున్', 'U'), ('ద', 'U'), ('క్క', '|'), ('క', '|'), ('వ', 'U'), ('చ్చు', '|'), ('చుం', 'U'), ('డు', '|'), ('ట', '|'), ('ని', '|'), ('దా', 'U'), ('న', '|'), ('ము', '|'), ('గా', 'U'), ('దె', '|'), ('త', '|'), ('లం', 'U'), ('ప', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
         <is>
           <t>అడిగినయట్టి యాచకుల యాశలెఱుంగక లోభవర్తియై
 కడపిన ధర్మదేవత యొకానొక యప్పుడు నీదు వాని కె
@@ -576,32 +564,29 @@
 గుడువఁగ నీనిచోఁ గెరలి గోవులు తన్నునుగాక భాస్కరా!</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('డి', '|'), ('గి', '|'), ('న', '|'), ('య', 'U'), ('ట్టి', '|'), ('యా', 'U'), ('చ', '|'), ('కు', '|'), ('ల', '|'), ('యా', 'U'), ('శ', '|'), ('లె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('క', '|'), ('లో', 'U'), ('భ', '|'), ('వ', 'U'), ('ర్తి', '|'), ('యై', 'U'), ('క', '|'), ('డ', '|'), ('పి', '|'), ('న', '|'), ('ధ', '|'), ('ర్మ', '|'), ('దే', 'U'), ('వ', '|'), ('త', '|'), ('యొ', '|'), ('కా', 'U'), ('నొ', '|'), ('క', '|'), ('య', 'U'), ('ప్పు', '|'), ('డు', '|'), ('నీ', 'U'), ('దు', '|'), ('వా', 'U'), ('ని', '|'), ('కె', 'U'), ('య్యె', '|'), ('డ', '|'), ('ల', '|'), ('న', '|'), ('దె', 'U'), ('ట్లు', '|'), ('పా', 'U'), ('లు', '|'), ('త', '|'), ('మ', '|'), ('కి', 'U'), ('చ్చు', '|'), ('నె', '|'), ('యె', 'U'), ('చ్చ', '|'), ('ట', '|'), ('నై', 'U'), ('న', '|'), ('లే', 'U'), ('గ', '|'), ('లన్', 'U'), ('గు', '|'), ('డు', '|'), ('వ', '|'), ('గ', '|'), ('నీ', 'U'), ('ని', '|'), ('చో', 'U'), ('గె', '|'), ('ర', '|'), ('లి', '|'), ('గో', 'U'), ('వు', '|'), ('లు', '|'), ('త', 'U'), ('న్ను', '|'), ('ను', '|'), ('గా', 'U'), ('క', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
         <is>
           <t>అతిగుణహీన లోభికిఁ బదార్థము గల్గిన లేకయుండినన్‌
 మితముగఁ గాని కల్మిగల మీఁదట నైన భుజింపఁడింపుగా
@@ -609,32 +594,29 @@
 గతుకఁగ జూచుఁ గుక్క తన కట్టడ మీఱక యెందు భాస్కరా!</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('తి', '|'), ('గు', '|'), ('ణ', '|'), ('హీ', 'U'), ('న', '|'), ('లో', 'U'), ('భి', '|'), ('కి', '|'), ('బ', '|'), ('దా', 'U'), ('ర్థ', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('లే', 'U'), ('క', '|'), ('యుం', 'U'), ('డి', '|'), ('నన్', 'U'), ('మి', '|'), ('త', '|'), ('ము', '|'), ('గ', '|'), ('గా', 'U'), ('ని', '|'), ('క', 'U'), ('ల్మి', '|'), ('గ', '|'), ('ల', '|'), ('మీ', 'U'), ('ద', '|'), ('ట', '|'), ('నై', 'U'), ('న', '|'), ('భు', '|'), ('జిం', 'U'), ('ప', '|'), ('డిం', 'U'), ('పు', '|'), ('గా', 'U'), ('స', '|'), ('త', '|'), ('మ', '|'), ('ని', '|'), ('న', 'U'), ('మ్ము', '|'), ('దే', 'U'), ('హ', '|'), ('ము', '|'), ('ను', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('నే', 'U'), ('ఱు', '|'), ('లు', '|'), ('నిం', 'U'), ('డి', '|'), ('పా', 'U'), ('ఱి', '|'), ('నన్', 'U'), ('గ', '|'), ('తు', '|'), ('క', '|'), ('గ', '|'), ('జూ', 'U'), ('చు', '|'), ('గు', 'U'), ('క్క', '|'), ('త', '|'), ('న', '|'), ('క', 'U'), ('ట్ట', '|'), ('డ', '|'), ('మీ', 'U'), ('ఱ', '|'), ('క', '|'), ('యెం', 'U'), ('దు', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
         <is>
           <t>అదను దలంచి కూర్చి ప్రజ నాదరమొప్ప విభుండు కోరినన్‌
 గదిసి పదార్థమిత్తురటు కానగ వేగమె కొట్టి తెండనన్‌
@@ -642,32 +624,29 @@
 పిదికినఁ గాక భూమిఁ బశుబృందము నెవ్వరికైన భాస్కరా!</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ద', '|'), ('ను', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('కూ', 'U'), ('ర్చి', 'U'), ('ప్ర', '|'), ('జ', '|'), ('నా', 'U'), ('ద', '|'), ('ర', '|'), ('మొ', 'U'), ('ప్ప', '|'), ('వి', '|'), ('భుం', 'U'), ('డు', '|'), ('కో', 'U'), ('రి', '|'), ('నన్', 'U'), ('గ', '|'), ('ది', '|'), ('సి', '|'), ('ప', '|'), ('దా', 'U'), ('ర్థ', '|'), ('మి', 'U'), ('త్తు', '|'), ('ర', '|'), ('టు', '|'), ('కా', 'U'), ('న', '|'), ('గ', '|'), ('వే', 'U'), ('గ', '|'), ('మె', '|'), ('కొ', 'U'), ('ట్టి', '|'), ('తెం', 'U'), ('డ', '|'), ('నన్', 'U'), ('మొ', '|'), ('ద', '|'), ('టి', '|'), ('కి', '|'), ('మో', 'U'), ('స', '|'), ('మౌ', 'U'), ('బొ', '|'), ('దు', '|'), ('గు', '|'), ('మూ', 'U'), ('ల', '|'), ('ము', '|'), ('గో', 'U'), ('సి', '|'), ('న', '|'), ('బా', 'U'), ('లు', '|'), ('గ', 'U'), ('ల్గు', '|'), ('నే', 'U'), ('పి', '|'), ('ది', '|'), ('కి', '|'), ('న', '|'), ('గా', 'U'), ('క', '|'), ('భూ', 'U'), ('మి', '|'), ('బ', '|'), ('శు', '|'), ('బృం', 'U'), ('ద', '|'), ('ము', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('కై', 'U'), ('న', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>అనఘుని కైనఁ జేకుఱు ననర్హునిఁ గూడి చరించునంతలో
 మన మెరియంగ నప్పుడవమానము కీడు ధరిత్రియందు నే
@@ -675,32 +654,29 @@
 నినుమును గూర్చి యగ్ని నలయింపదె సమ్మెటపెట్టు భాస్కరా!</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('న', '|'), ('ఘు', '|'), ('ని', '|'), ('కై', 'U'), ('న', '|'), ('జే', 'U'), ('కు', '|'), ('ఱు', '|'), ('న', '|'), ('న', 'U'), ('ర్హు', '|'), ('ని', '|'), ('గూ', 'U'), ('డి', '|'), ('చ', '|'), ('రిం', 'U'), ('చు', '|'), ('నం', 'U'), ('త', '|'), ('లో', 'U'), ('మ', '|'), ('న', '|'), ('మె', '|'), ('రి', '|'), ('యం', 'U'), ('గ', '|'), ('న', 'U'), ('ప్పు', '|'), ('డ', '|'), ('వ', '|'), ('మా', 'U'), ('న', '|'), ('ము', '|'), ('కీ', 'U'), ('డు', '|'), ('ధ', '|'), ('రి', 'U'), ('త్రి', '|'), ('యం', 'U'), ('దు', '|'), ('నే', 'U'), ('య', '|'), ('ను', '|'), ('వు', '|'), ('న', '|'), ('నై', 'U'), ('న', '|'), ('ద', 'U'), ('ప్ప', '|'), ('వు', '|'), ('య', '|'), ('దా', 'U'), ('ర్థ', '|'), ('ము', '|'), ('తా', 'U'), ('న', '|'), ('ది', '|'), ('యె', 'U'), ('ట్టు', '|'), ('ల', 'U'), ('న్న', '|'), ('చో', 'U'), ('ని', '|'), ('ను', '|'), ('ము', '|'), ('ను', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('య', 'U'), ('గ్ని', '|'), ('న', '|'), ('ల', '|'), ('యిం', 'U'), ('ప', '|'), ('దె', '|'), ('స', 'U'), ('మ్మె', '|'), ('ట', '|'), ('పె', 'U'), ('ట్టు', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
         <is>
           <t>అలఘుగుణ ప్రసిద్ధుఁడగు నట్టి ఘనుండొకఁ డిష్టుఁడై తనున్‌
 వలచి యొకించు కేమిడినవానికి మిక్కిలి మేలుచేయుఁగా;
@@ -708,32 +684,29 @@
 ఫలదుఁడు కృష్ణుఁడత్యధిక భాగ్యములాతని కీఁడె? భాస్కరా!</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ల', '|'), ('ఘు', '|'), ('గు', '|'), ('ణ', 'U'), ('ప్ర', '|'), ('సి', 'U'), ('ద్ధు', '|'), ('డ', '|'), ('గు', '|'), ('న', 'U'), ('ట్టి', '|'), ('ఘ', '|'), ('నుం', 'U'), ('డొ', '|'), ('క', '|'), ('డి', 'U'), ('ష్టు', '|'), ('డై', 'U'), ('త', '|'), ('నున్', 'U'), ('వ', '|'), ('ల', '|'), ('చి', '|'), ('యొ', '|'), ('కిం', 'U'), ('చు', '|'), ('కే', 'U'), ('మి', '|'), ('డి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('కి', '|'), ('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('మే', 'U'), ('లు', '|'), ('చే', 'U'), ('యు', '|'), ('గా', 'U'), ('తె', '|'), ('లి', '|'), ('సి', '|'), ('కు', '|'), ('చే', 'U'), ('లు', '|'), ('డొ', 'U'), ('క్క', '|'), ('కొ', '|'), ('ణి', '|'), ('దెం', 'U'), ('డ', '|'), ('డు', '|'), ('కుల్', 'U'), ('ద', '|'), ('న', '|'), ('కి', 'U'), ('చ్చి', '|'), ('నన్', 'U'), ('మ', '|'), ('హా', 'U'), ('ఫ', '|'), ('ల', '|'), ('దు', '|'), ('డు', '|'), ('కృ', 'U'), ('ష్ణు', '|'), ('డ', 'U'), ('త్య', '|'), ('ధి', '|'), ('క', '|'), ('భా', 'U'), ('గ్య', '|'), ('ము', '|'), ('లా', 'U'), ('త', '|'), ('ని', '|'), ('కీ', 'U'), ('డె', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">	అవనివిభుండు నేరుపరియై చరియించినఁ గొల్చువార లె
 ట్లవగుణు లైననేమి? పనులన్నియుఁ జేకుఱు వారిచేతనే;
@@ -741,32 +714,29 @@
 తవిలి యొనర్పవే జలధి దాఁటి సురారులఁ ద్రుంచి భాస్కరా!</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('వ', '|'), ('ని', '|'), ('వి', '|'), ('భుం', 'U'), ('డు', '|'), ('నే', 'U'), ('రు', '|'), ('ప', '|'), ('రి', '|'), ('యై', 'U'), ('చ', '|'), ('రి', '|'), ('యిం', 'U'), ('చి', '|'), ('న', '|'), ('గొ', 'U'), ('ల్చు', '|'), ('వా', 'U'), ('ర', '|'), ('లె', 'U'), ('ట్ల', '|'), ('వ', '|'), ('గు', '|'), ('ణు', '|'), ('లై', 'U'), ('న', '|'), ('నే', 'U'), ('మి', '|'), ('ప', '|'), ('ను', '|'), ('ల', 'U'), ('న్ని', '|'), ('యు', '|'), ('జే', 'U'), ('కు', '|'), ('ఱు', '|'), ('వా', 'U'), ('రి', '|'), ('చే', 'U'), ('త', '|'), ('నే', 'U'), ('ప్ర', '|'), ('వి', '|'), ('మ', '|'), ('ల', '|'), ('నీ', 'U'), ('తి', '|'), ('శా', 'U'), ('లి', '|'), ('య', '|'), ('గు', '|'), ('రా', 'U'), ('ము', '|'), ('ని', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('మ', 'U'), ('ర్క', '|'), ('టం', 'U'), ('బు', '|'), ('లే', 'U'), ('త', '|'), ('వి', '|'), ('లి', '|'), ('యొ', '|'), ('న', 'U'), ('ర్ప', '|'), ('వే', 'U'), ('జ', '|'), ('ల', '|'), ('ధి', '|'), ('దా', 'U'), ('టి', '|'), ('సు', '|'), ('రా', 'U'), ('రు', '|'), ('ల', '|'), ('ద్రుం', 'U'), ('చి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
         <is>
           <t>ఆదరమింత లేక నరుఁడాత్మబలోన్నతి మంచివారికిన్‌
 భేదము చేయుటం దనదు పేర్మికిఁ గీడగు మూలమె; ట్లమ
@@ -774,32 +744,29 @@
 హ్లాదున కెగ్గుచేసి ప్రళయంబును బొందఁడె మున్ను భాస్కరా!</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('ద', '|'), ('ర', '|'), ('మిం', 'U'), ('త', '|'), ('లే', 'U'), ('క', '|'), ('న', '|'), ('రు', '|'), ('డా', 'U'), ('త్మ', '|'), ('బ', '|'), ('లో', 'U'), ('న్న', '|'), ('తి', '|'), ('మం', 'U'), ('చి', '|'), ('వా', 'U'), ('రి', '|'), ('కిన్', 'U'), ('భే', 'U'), ('ద', '|'), ('ము', '|'), ('చే', 'U'), ('యు', '|'), ('టం', 'U'), ('ద', '|'), ('న', '|'), ('దు', '|'), ('పే', 'U'), ('ర్మి', '|'), ('కి', '|'), ('గీ', 'U'), ('డ', '|'), ('గు', '|'), ('మూ', 'U'), ('ల', '|'), ('మె', 'U'), ('ట్ల', '|'), ('మ', 'U'), ('ర్యా', 'U'), ('ద', '|'), ('హి', '|'), ('ర', 'U'), ('ణ్య', '|'), ('పూ', 'U'), ('ర్వ', '|'), ('క', '|'), ('శి', '|'), ('పన్', 'U'), ('ద', '|'), ('ను', '|'), ('జుం', 'U'), ('డు', '|'), ('గు', '|'), ('ణా', 'U'), ('ఢ్యు', '|'), ('డై', 'U'), ('న', 'U'), ('ప్ర', 'U'), ('హ్లా', 'U'), ('దు', '|'), ('న', '|'), ('కె', 'U'), ('గ్గు', '|'), ('చే', 'U'), ('సి', 'U'), ('ప్ర', '|'), ('ళ', '|'), ('యం', 'U'), ('బు', '|'), ('ను', '|'), ('బొం', 'U'), ('ద', '|'), ('డె', '|'), ('ము', 'U'), ('న్ను', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
         <is>
           <t>ఆరయ నెంత నేరుపరియై చరియించిన వాని దాపునన్న్‌
 గౌరవమొప్పఁగూర్చు నుపకారి మనుష్యుఁడు లేక మేలు చే
@@ -807,32 +774,29 @@
 గారములోన నైన వెలిగారము కూడక యున్న భాస్కరా!</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('ర', '|'), ('య', '|'), ('నెం', 'U'), ('త', '|'), ('నే', 'U'), ('రు', '|'), ('ప', '|'), ('రి', '|'), ('యై', 'U'), ('చ', '|'), ('రి', '|'), ('యిం', 'U'), ('చి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('దా', 'U'), ('పు', '|'), ('నన్', 'U'), ('న్గౌ', 'U'), ('ర', '|'), ('వ', '|'), ('మొ', 'U'), ('ప్ప', '|'), ('గూ', 'U'), ('ర్చు', '|'), ('ను', '|'), ('ప', '|'), ('కా', 'U'), ('రి', '|'), ('మ', '|'), ('ను', 'U'), ('ష్యు', '|'), ('డు', '|'), ('లే', 'U'), ('క', '|'), ('మే', 'U'), ('లు', '|'), ('చే', 'U'), ('కూ', 'U'), ('ర', '|'), ('ద', '|'), ('దె', 'U'), ('ట్లు', '|'), ('హ', 'U'), ('త్తు', '|'), ('గ', '|'), ('డ', '|'), ('గూ', 'U'), ('డు', '|'), ('నె', '|'), ('చూ', 'U'), ('డ', '|'), ('బ', '|'), ('దా', 'U'), ('ఱు', '|'), ('వ', 'U'), ('న్నె', '|'), ('బం', 'U'), ('గా', 'U'), ('ర', '|'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('నై', 'U'), ('న', '|'), ('వె', '|'), ('లి', '|'), ('గా', 'U'), ('ర', '|'), ('ము', '|'), ('కూ', 'U'), ('డ', '|'), ('క', '|'), ('యు', 'U'), ('న్న', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
         <is>
           <t>ఈ క్షితినర్థకాంక్ష మదినెప్పుడు పాయక లోకులెల్ల సం
 రక్షకుఁడైన సత్ప్రభుని రాకలు గోరుదు రెందుఁ; జంద్రికా
@@ -840,32 +804,29 @@
 బక్షులు చూడవే యెదు రపార ముదంబును బూని భాస్కరా!</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
           <t>[('ఈ', 'U'), ('క్షి', '|'), ('తి', '|'), ('న', 'U'), ('ర్థ', '|'), ('కాం', 'U'), ('క్ష', '|'), ('మ', '|'), ('ది', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('పా', 'U'), ('య', '|'), ('క', '|'), ('లో', 'U'), ('కు', '|'), ('లె', 'U'), ('ల్ల', '|'), ('సం', 'U'), ('ర', 'U'), ('క్ష', '|'), ('కు', '|'), ('డై', 'U'), ('న', '|'), ('స', 'U'), ('త్ప్ర', '|'), ('భు', '|'), ('ని', '|'), ('రా', 'U'), ('క', '|'), ('లు', '|'), ('గో', 'U'), ('రు', '|'), ('దు', '|'), ('రెం', 'U'), ('దు', '|'), ('జం', 'U'), ('ద్రి', '|'), ('కా', 'U'), ('పే', 'U'), ('క్ష', '|'), ('జె', '|'), ('లం', 'U'), ('గి', '|'), ('చం', 'U'), ('ద్రు', '|'), ('డు', '|'), ('ద', '|'), ('యిం', 'U'), ('చు', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('న', '|'), ('కై', 'U'), ('చ', '|'), ('కో', 'U'), ('ర', '|'), ('పుం', 'U'), ('బ', 'U'), ('క్షు', '|'), ('లు', '|'), ('చూ', 'U'), ('డ', '|'), ('వే', 'U'), ('యె', '|'), ('దు', '|'), ('ర', '|'), ('పా', 'U'), ('ర', '|'), ('ము', '|'), ('దం', 'U'), ('బు', '|'), ('ను', '|'), ('బూ', 'U'), ('ని', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
         <is>
           <t>ఈ జగమందు దా మనుజుఁడెంత మహాత్మకుఁడైన దైవమా
 తేజము తప్పఁ జూచు నెడఁ ద్రిమ్మరి కోల్పడు; నెట్లన న్మహా
@@ -873,32 +834,29 @@
 భోజనమై తగన్వనికిఁ బోయి చరింపఁడె మున్ను భాస్కరా!</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
           <t>[('ఈ', 'U'), ('జ', '|'), ('గ', '|'), ('మం', 'U'), ('దు', '|'), ('దా', 'U'), ('మ', '|'), ('ను', '|'), ('జు', '|'), ('డెం', 'U'), ('త', '|'), ('మ', '|'), ('హా', 'U'), ('త్మ', '|'), ('కు', '|'), ('డై', 'U'), ('న', '|'), ('దై', 'U'), ('వ', '|'), ('మా', 'U'), ('తే', 'U'), ('జ', '|'), ('ము', '|'), ('త', 'U'), ('ప్ప', '|'), ('జూ', 'U'), ('చు', '|'), ('నె', '|'), ('డ', '|'), ('ద్రి', 'U'), ('మ్మ', '|'), ('రి', '|'), ('కో', 'U'), ('ల్ప', '|'), ('డు', '|'), ('నె', 'U'), ('ట్ల', '|'), ('న', 'U'), ('న్మ', '|'), ('హా', 'U'), ('రా', 'U'), ('జ', '|'), ('కు', '|'), ('మా', 'U'), ('రు', '|'), ('డై', 'U'), ('న', '|'), ('ర', '|'), ('ఘు', '|'), ('రా', 'U'), ('ము', '|'), ('డు', '|'), ('గా', 'U'), ('ల్న', '|'), ('డ', '|'), ('గా', 'U'), ('య', '|'), ('లా', 'U'), ('కు', '|'), ('లున్', 'U'), ('భో', 'U'), ('జ', '|'), ('న', '|'), ('మై', 'U'), ('త', '|'), ('గ', 'U'), ('న్వ', '|'), ('ని', '|'), ('కి', '|'), ('బో', 'U'), ('యి', '|'), ('చ', '|'), ('రిం', 'U'), ('ప', '|'), ('డె', '|'), ('ము', 'U'), ('న్ను', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
         <is>
           <t>ఉరుకరుణాయుతుండు సమయోచిత మాత్మ దలంచి యుగ్రవా
 క్పరుషత జూపినన్‌ ఫలము గల్గుట తథ్యముగాదె; యంబుదం
@@ -906,32 +864,29 @@
 స్థిరతరపౌరుషంబున నశేషజనంబు లెఱుంగ భాస్కరా!</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
           <t>[('ఉ', '|'), ('రు', '|'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('యు', '|'), ('తుం', 'U'), ('డు', '|'), ('స', '|'), ('మ', '|'), ('యో', 'U'), ('చి', '|'), ('త', '|'), ('మా', 'U'), ('త్మ', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('యు', 'U'), ('గ్ర', '|'), ('వా', 'U'), ('క్ప', '|'), ('రు', '|'), ('ష', '|'), ('త', '|'), ('జూ', 'U'), ('పి', '|'), ('నన్', 'U'), ('ఫ', '|'), ('ల', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గు', '|'), ('ట', '|'), ('త', 'U'), ('థ్య', '|'), ('ము', '|'), ('గా', 'U'), ('దె', '|'), ('యం', 'U'), ('బు', '|'), ('దం', 'U'), ('బు', '|'), ('రి', '|'), ('మి', '|'), ('న', '|'), ('యం', 'U'), ('త', '|'), ('నే', 'U'), ('కు', '|'), ('రి', '|'), ('య', '|'), ('కుం', 'U'), ('డు', '|'), ('నె', '|'), ('వ', 'U'), ('ర్ష', '|'), ('ము', '|'), ('లో', 'U'), ('క', '|'), ('ర', 'U'), ('క్ష', '|'), ('ణ', 'U'), ('స్థి', '|'), ('ర', '|'), ('త', '|'), ('ర', '|'), ('పౌ', 'U'), ('రు', '|'), ('షం', 'U'), ('బు', '|'), ('న', '|'), ('న', '|'), ('శే', 'U'), ('ష', '|'), ('జ', '|'), ('నం', 'U'), ('బు', '|'), ('లె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
         <is>
           <t>ఉరుగుణవంతుఁడొడ్లు తనకొం డపకారము చేయునప్పుడుం
 బరహితమే యొనర్చు నొకపట్టున నైనను గీడుఁ జేయగా నెఱు
@@ -939,32 +894,29 @@
 దరువఁగఁ జొచ్చినం బెరుగుతాలిమి నీయదె వెన్న? భాస్కరా!</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
           <t>[('ఉ', '|'), ('రు', '|'), ('గు', '|'), ('ణ', '|'), ('వం', 'U'), ('తు', '|'), ('డొ', 'U'), ('డ్లు', '|'), ('త', '|'), ('న', '|'), ('కొం', 'U'), ('డ', '|'), ('ప', '|'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('చే', 'U'), ('యు', '|'), ('న', 'U'), ('ప్పు', '|'), ('డుం', 'U'), ('బ', '|'), ('ర', '|'), ('హి', '|'), ('త', '|'), ('మే', 'U'), ('యొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('నొ', '|'), ('క', '|'), ('ప', 'U'), ('ట్టు', '|'), ('న', '|'), ('నై', 'U'), ('న', '|'), ('ను', '|'), ('గీ', 'U'), ('డు', '|'), ('జే', 'U'), ('య', '|'), ('గా', 'U'), ('నె', '|'), ('ఱు', '|'), ('గ', '|'), ('డు', '|'), ('ని', 'U'), ('క్క', '|'), ('మే', 'U'), ('క', '|'), ('ద', '|'), ('య', '|'), ('దె', 'U'), ('ట్ల', '|'), ('న', '|'), ('గ', 'U'), ('వ్వ', '|'), ('ము', '|'), ('బ', 'U'), ('ట్టి', '|'), ('యం', 'U'), ('త', '|'), ('యుం', 'U'), ('ద', '|'), ('రు', '|'), ('వ', '|'), ('గ', '|'), ('జొ', 'U'), ('చ్చి', '|'), ('నం', 'U'), ('బె', '|'), ('రు', '|'), ('గు', '|'), ('తా', 'U'), ('లి', '|'), ('మి', '|'), ('నీ', 'U'), ('య', '|'), ('దె', '|'), ('వె', 'U'), ('న్న', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
         <is>
           <t>ఉరుబలశాలి నంచుఁ దను నొల్లని యన్య [పతివ్రతాంగనా
 సురతము గోరెనేని కడసుమ్మది భూతికిఁ బ్రాణహాని యౌ;
@@ -972,32 +924,29 @@
 యెఱుఁగక సీత కాసపడి యిష్టుల భృత్యులఁ గూడి భాస్కరా!</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
           <t>[('ఉ', '|'), ('రు', '|'), ('బ', '|'), ('ల', '|'), ('శా', 'U'), ('లి', '|'), ('నం', 'U'), ('చు', '|'), ('ద', '|'), ('ను', '|'), ('నొ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('య', 'U'), ('న్య', '|'), ('ప', '|'), ('తి', 'U'), ('వ్ర', '|'), ('తాం', 'U'), ('గ', '|'), ('నా', 'U'), ('సు', '|'), ('ర', '|'), ('త', '|'), ('ము', '|'), ('గో', 'U'), ('రె', '|'), ('నే', 'U'), ('ని', '|'), ('క', '|'), ('డ', '|'), ('సు', 'U'), ('మ్మ', '|'), ('ది', '|'), ('భూ', 'U'), ('తి', '|'), ('కి', 'U'), ('బ్రా', 'U'), ('ణ', '|'), ('హా', 'U'), ('ని', '|'), ('యౌ', 'U'), ('శి', '|'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('గూ', 'U'), ('ల', '|'), ('రా', 'U'), ('ఘ', '|'), ('వు', '|'), ('ని', '|'), ('చే', 'U'), ('ద', '|'), ('శ', '|'), ('కం', 'U'), ('ఠు', '|'), ('డు', '|'), ('ద్రుం', 'U'), ('గి', '|'), ('పో', 'U'), ('వ', '|'), ('డే', 'U'), ('యె', '|'), ('ఱు', '|'), ('గ', '|'), ('క', '|'), ('సీ', 'U'), ('త', '|'), ('కా', 'U'), ('స', '|'), ('ప', '|'), ('డి', '|'), ('యి', 'U'), ('ష్టు', '|'), ('ల', '|'), ('భృ', 'U'), ('త్యు', '|'), ('ల', '|'), ('గూ', 'U'), ('డి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
         <is>
           <t>ఊరక వచ్చుఁ బాటు పడకుండిననైన ఫలం బదృష్ట మే
 పారఁగఁ గల్గువానికిఁ బ్రయాసము నొందిన దేవదానవుల్‌
@@ -1005,32 +954,29 @@
 గారపుఁ బ్రోవు లక్ష్మియును గౌస్తుభరత్నము రెండు భాస్కరా!</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
           <t>[('ఊ', 'U'), ('ర', '|'), ('క', '|'), ('వ', 'U'), ('చ్చు', '|'), ('బా', 'U'), ('టు', '|'), ('ప', '|'), ('డ', '|'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('నై', 'U'), ('న', '|'), ('ఫ', '|'), ('లం', 'U'), ('బ', '|'), ('దృ', 'U'), ('ష్ట', '|'), ('మే', 'U'), ('పా', 'U'), ('ర', '|'), ('గ', '|'), ('గ', 'U'), ('ల్గు', '|'), ('వా', 'U'), ('ని', '|'), ('కి', 'U'), ('బ్ర', '|'), ('యా', 'U'), ('స', '|'), ('ము', '|'), ('నొం', 'U'), ('ది', '|'), ('న', '|'), ('దే', 'U'), ('వ', '|'), ('దా', 'U'), ('న', '|'), ('వుల్', 'U'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('టుం', 'U'), ('డ', '|'), ('గా', 'U'), ('న', '|'), ('డు', '|'), ('మ', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('శౌ', 'U'), ('రి', '|'), ('కి', '|'), ('గ', 'U'), ('ల్గె', '|'), ('గా', 'U'), ('దె', '|'), ('సృం', 'U'), ('గా', 'U'), ('ర', '|'), ('పు', 'U'), ('బ్రో', 'U'), ('వు', '|'), ('ల', 'U'), ('క్ష్మి', '|'), ('యు', '|'), ('ను', '|'), ('గౌ', 'U'), ('స్తు', '|'), ('భ', '|'), ('ర', 'U'), ('త్న', '|'), ('ము', '|'), ('రెం', 'U'), ('డు', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
         <is>
           <t>ఊరక సజ్జనుండొదిఁగి యుండిననైన దురాత్మకుండు ని
 ష్కారణమోర్వలేక యపకారము చేయుట వాని విద్యగా;
@@ -1038,32 +984,29 @@
 జేరి చినింగిపోఁ గొఱుకు చిమ్మట కేమి ఫలంబు? భాస్కరా!</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
           <t>[('ఊ', 'U'), ('ర', '|'), ('క', '|'), ('స', 'U'), ('జ్జ', '|'), ('నుం', 'U'), ('డొ', '|'), ('ది', '|'), ('గి', '|'), ('యుం', 'U'), ('డి', '|'), ('న', '|'), ('నై', 'U'), ('న', '|'), ('దు', '|'), ('రా', 'U'), ('త్మ', '|'), ('కుం', 'U'), ('డు', '|'), ('ని', 'U'), ('ష్కా', 'U'), ('ర', '|'), ('ణ', '|'), ('మో', 'U'), ('ర్వ', '|'), ('లే', 'U'), ('క', '|'), ('య', '|'), ('ప', '|'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('చే', 'U'), ('యు', '|'), ('ట', '|'), ('వా', 'U'), ('ని', '|'), ('వి', 'U'), ('ద్య', '|'), ('గా', 'U'), ('చీ', 'U'), ('ర', '|'), ('లు', '|'), ('నూ', 'U'), ('రు', '|'), ('టం', 'U'), ('క', '|'), ('ము', '|'), ('లు', '|'), ('చే', 'U'), ('సె', '|'), ('డి', '|'), ('వై', 'U'), ('న', '|'), ('ను', '|'), ('బె', 'U'), ('ట్టె', '|'), ('నుం', 'U'), ('డ', '|'), ('గా', 'U'), ('జే', 'U'), ('రి', '|'), ('చి', '|'), ('నిం', 'U'), ('గి', '|'), ('పో', 'U'), ('గొ', '|'), ('ఱు', '|'), ('కు', '|'), ('చి', 'U'), ('మ్మ', '|'), ('ట', '|'), ('కే', 'U'), ('మి', '|'), ('ఫ', '|'), ('లం', 'U'), ('బు', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
         <is>
           <t>ఎట్టుగఁ బాటుపడ్డ నొక యించుక ప్రాప్తము లేక వస్తువుల్‌
 పట్టుపడంగ నేరవు; నిబద్ధి సురావళిఁ గూడి రాక్షసుల్‌
@@ -1071,32 +1014,29 @@
 వెట్టియె గాక యేమనుభవించిరి వారమృతంబు భాస్కరా!</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
           <t>[('ఎ', 'U'), ('ట్టు', '|'), ('గ', '|'), ('బా', 'U'), ('టు', '|'), ('ప', 'U'), ('డ్డ', '|'), ('నొ', '|'), ('క', '|'), ('యిం', 'U'), ('చు', '|'), ('క', 'U'), ('ప్రా', 'U'), ('ప్త', '|'), ('ము', '|'), ('లే', 'U'), ('క', '|'), ('వ', 'U'), ('స్తు', '|'), ('వుల్', 'U'), ('ప', 'U'), ('ట్టు', '|'), ('ప', '|'), ('డం', 'U'), ('గ', '|'), ('నే', 'U'), ('ర', '|'), ('వు', '|'), ('ని', '|'), ('బ', 'U'), ('ద్ధి', '|'), ('సు', '|'), ('రా', 'U'), ('వ', '|'), ('ళి', '|'), ('గూ', 'U'), ('డి', '|'), ('రా', 'U'), ('క్ష', '|'), ('సుల్', 'U'), ('గ', 'U'), ('ట్టు', '|'), ('పె', '|'), ('క', 'U'), ('ల్చి', '|'), ('పా', 'U'), ('ల్క', '|'), ('డ', '|'), ('లి', '|'), ('గ', 'U'), ('వ్వ', '|'), ('ము', '|'), ('చే', 'U'), ('సి', '|'), ('మ', '|'), ('థిం', 'U'), ('చి', '|'), ('రం', 'U'), ('త', '|'), ('యున్', 'U'), ('వె', 'U'), ('ట్టి', '|'), ('యె', '|'), ('గా', 'U'), ('క', '|'), ('యే', 'U'), ('మ', '|'), ('ను', '|'), ('భ', '|'), ('విం', 'U'), ('చి', '|'), ('రి', '|'), ('వా', 'U'), ('ర', '|'), ('మృ', '|'), ('తం', 'U'), ('బు', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
         <is>
           <t>ఎడపక దుర్జనుండొరుల కెంతయుఁ గీడొనరించుఁ గాని యే
 యెడలను మేలు సేయఁడొక యించుకయైనను; జీడపుర్వు దాఁ
@@ -1104,32 +1044,29 @@
 పొడవగుచున్న పుష్పఫల భూరుహ మొక్కటినైన భాస్కరా!</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
           <t>[('ఎ', '|'), ('డ', '|'), ('ప', '|'), ('క', '|'), ('దు', 'U'), ('ర్జ', '|'), ('నుం', 'U'), ('డొ', '|'), ('రు', '|'), ('ల', '|'), ('కెం', 'U'), ('త', '|'), ('యు', '|'), ('గీ', 'U'), ('డొ', '|'), ('న', '|'), ('రిం', 'U'), ('చు', '|'), ('గా', 'U'), ('ని', '|'), ('యే', 'U'), ('యె', '|'), ('డ', '|'), ('ల', '|'), ('ను', '|'), ('మే', 'U'), ('లు', '|'), ('సే', 'U'), ('య', '|'), ('డొ', '|'), ('క', '|'), ('యిం', 'U'), ('చు', '|'), ('క', '|'), ('యై', 'U'), ('న', '|'), ('ను', '|'), ('జీ', 'U'), ('డ', '|'), ('పు', 'U'), ('ర్వు', '|'), ('దా', 'U'), ('జె', '|'), ('డ', '|'), ('ది', '|'), ('ను', '|'), ('నెం', 'U'), ('తె', '|'), ('కా', 'U'), ('క', '|'), ('పు', '|'), ('డు', '|'), ('సెం', 'U'), ('డు', '|'), ('జ', '|'), ('లం', 'U'), ('బి', '|'), ('డి', '|'), ('పెం', 'U'), ('ప', '|'), ('నే', 'U'), ('ర్చు', '|'), ('నే', 'U'), ('పొ', '|'), ('డ', '|'), ('వ', '|'), ('గు', '|'), ('చు', 'U'), ('న్న', '|'), ('పు', 'U'), ('ష్ప', '|'), ('ఫ', '|'), ('ల', '|'), ('భూ', 'U'), ('రు', '|'), ('హ', '|'), ('మొ', 'U'), ('క్క', '|'), ('టి', '|'), ('నై', 'U'), ('న', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
         <is>
           <t>ఎడ్డె మనుష్యుఁడే మెఱుఁగు నిన్నె దినంబులు గూడి యుండినన్‌
 దొడ్డ గుణాఢ్యునందుఁ గల తోరపు వర్తనలెల్ల బ్రజ్ఞఁ బే
@@ -1137,32 +1074,29 @@
 తెడ్డది కూరలోఁ గలయఁ ద్రిమ్మరుచుండిననైన భాస్కరా!</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
           <t>[('ఎ', 'U'), ('డ్డె', '|'), ('మ', '|'), ('ను', 'U'), ('ష్యు', '|'), ('డే', 'U'), ('మె', '|'), ('ఱు', '|'), ('గు', '|'), ('ని', 'U'), ('న్నె', '|'), ('ది', '|'), ('నం', 'U'), ('బు', '|'), ('లు', '|'), ('గూ', 'U'), ('డి', '|'), ('యుం', 'U'), ('డి', '|'), ('నన్', 'U'), ('దొ', 'U'), ('డ్డ', '|'), ('గు', '|'), ('ణా', 'U'), ('ఢ్యు', '|'), ('నం', 'U'), ('దు', '|'), ('గ', '|'), ('ల', '|'), ('తో', 'U'), ('ర', '|'), ('పు', '|'), ('వ', 'U'), ('ర్త', '|'), ('న', '|'), ('లె', 'U'), ('ల్ల', 'U'), ('బ్ర', 'U'), ('జ్ఞ', '|'), ('బే', 'U'), ('ర్వ', 'U'), ('డ్డ', '|'), ('వి', '|'), ('వే', 'U'), ('కి', '|'), ('రీ', 'U'), ('తి', '|'), ('రు', '|'), ('చి', '|'), ('పా', 'U'), ('క', '|'), ('ము', '|'), ('నా', 'U'), ('లు', '|'), ('క', '|'), ('గా', 'U'), ('కె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('నే', 'U'), ('తె', 'U'), ('డ్డ', '|'), ('ది', '|'), ('కూ', 'U'), ('ర', '|'), ('లో', 'U'), ('గ', '|'), ('ల', '|'), ('య', '|'), ('ద్రి', 'U'), ('మ్మ', '|'), ('రు', '|'), ('చుం', 'U'), ('డి', '|'), ('న', '|'), ('నై', 'U'), ('న', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
         <is>
           <t>ఎప్పుడదృష్టతా మహిమ యించుక పాటిలు నప్పుడింపు సొం
 పొప్పుచు నుండుఁగాక యది యొప్పని రూపుమాయుఁగా
@@ -1170,32 +1104,29 @@
 దప్పిన నట్టి బొగ్గునకు దా నలుపెంతయుఁ బుట్టు భాస్కరా!</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
           <t>[('ఎ', 'U'), ('ప్పు', '|'), ('డ', '|'), ('దృ', 'U'), ('ష్ట', '|'), ('తా', 'U'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('యిం', 'U'), ('చు', '|'), ('క', '|'), ('పా', 'U'), ('టి', '|'), ('లు', '|'), ('న', 'U'), ('ప్పు', '|'), ('డిం', 'U'), ('పు', '|'), ('సొం', 'U'), ('పొ', 'U'), ('ప్పు', '|'), ('చు', '|'), ('నుం', 'U'), ('డు', '|'), ('గా', 'U'), ('క', '|'), ('య', '|'), ('ది', '|'), ('యొ', 'U'), ('ప్ప', '|'), ('ని', '|'), ('రూ', 'U'), ('పు', '|'), ('మా', 'U'), ('యు', '|'), ('గా', 'U'), ('ని', 'U'), ('ప్పు', '|'), ('న', '|'), ('నం', 'U'), ('టి', '|'), ('యు', 'U'), ('న్న', '|'), ('య', '|'), ('తి', '|'), ('ని', '|'), ('ర్మ', '|'), ('లి', '|'), ('నా', 'U'), ('గ్ని', '|'), ('గు', '|'), ('రు', 'U'), ('ప్ర', '|'), ('కా', 'U'), ('శ', '|'), ('ముల్', 'U'), ('ద', 'U'), ('ప్పి', '|'), ('న', '|'), ('న', 'U'), ('ట్టి', '|'), ('బొ', 'U'), ('గ్గు', '|'), ('న', '|'), ('కు', '|'), ('దా', 'U'), ('న', '|'), ('లు', '|'), ('పెం', 'U'), ('త', '|'), ('యు', '|'), ('బు', 'U'), ('ట్టు', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
         <is>
           <t>ఏగతిఁ బాటుపడ్డఁ గలదే భువి నల్పునకు\న్‌ సమగ్రతా
 భోగము భాగ్యరేఖగల పుణ్యునకుంబలె; భూరి సత్త్వసం
@@ -1203,32 +1134,29 @@
 లాగు ఘటించు! సింహము దలంచినఁ జేకురు గాక భాస్కరా!</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>[('ఏ', 'U'), ('గ', '|'), ('తి', '|'), ('బా', 'U'), ('టు', '|'), ('ప', 'U'), ('డ్డ', '|'), ('గ', '|'), ('ల', '|'), ('దే', 'U'), ('భు', '|'), ('వి', '|'), ('న', 'U'), ('ల్పు', '|'), ('న', '|'), ('కున్', 'U'), ('స', '|'), ('మ', 'U'), ('గ్ర', '|'), ('తా', 'U'), ('భో', 'U'), ('గ', '|'), ('ము', '|'), ('భా', 'U'), ('గ్య', '|'), ('రే', 'U'), ('ఖ', '|'), ('గ', '|'), ('ల', '|'), ('పు', 'U'), ('ణ్యు', '|'), ('న', '|'), ('కుం', 'U'), ('బ', '|'), ('లె', '|'), ('భూ', 'U'), ('రి', '|'), ('స', 'U'), ('త్త్వ', '|'), ('సం', 'U'), ('యో', 'U'), ('గ', '|'), ('మ', '|'), ('దే', 'U'), ('భ', '|'), ('కుం', 'U'), ('భ', '|'), ('యు', '|'), ('గ', '|'), ('ళో', 'U'), ('త్థి', '|'), ('త', '|'), ('మాం', 'U'), ('స', '|'), ('ము', '|'), ('న', 'U'), ('క్క', '|'), ('కూ', 'U'), ('న', '|'), ('కే', 'U'), ('లా', 'U'), ('గు', '|'), ('ఘ', '|'), ('టిం', 'U'), ('చు', '|'), ('సిం', 'U'), ('హ', '|'), ('ము', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('న', '|'), ('జే', 'U'), ('కు', '|'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
         <is>
           <t>ఏడ ననర్హుఁడుండు నటకేఁగు ననర్హుఁడు నర్హుఁడున్నచోఁ
 జూడగఁ నొల్లడెట్లన; నశుద్ధగుణస్థితి నీఁగ పూయముం
@@ -1236,32 +1164,29 @@
 సూడిదఁ బెట్టు నెన్నుదుటి చొక్కపుఁ గస్తురి మీఁద భాస్కరా!</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
           <t>[('ఏ', 'U'), ('డ', '|'), ('న', '|'), ('న', 'U'), ('ర్హు', '|'), ('డుం', 'U'), ('డు', '|'), ('న', '|'), ('ట', '|'), ('కే', 'U'), ('గు', '|'), ('న', '|'), ('న', 'U'), ('ర్హు', '|'), ('డు', '|'), ('న', 'U'), ('ర్హు', '|'), ('డు', 'U'), ('న్న', '|'), ('చో', 'U'), ('జూ', 'U'), ('డ', '|'), ('గ', '|'), ('నొ', 'U'), ('ల్ల', '|'), ('డె', 'U'), ('ట్ల', '|'), ('న', '|'), ('న', '|'), ('శు', 'U'), ('ద్ధ', '|'), ('గు', '|'), ('ణ', 'U'), ('స్థి', '|'), ('తి', '|'), ('నీ', 'U'), ('గ', '|'), ('పూ', 'U'), ('య', '|'), ('ముం', 'U'), ('గూ', 'U'), ('డి', '|'), ('న', '|'), ('పుం', 'U'), ('టి', '|'), ('పై', 'U'), ('ని', '|'), ('లు', '|'), ('వ', '|'), ('గో', 'U'), ('రి', '|'), ('న', '|'), ('య', 'U'), ('ట్టు', '|'), ('లు', '|'), ('ని', 'U'), ('ల్వ', '|'), ('నే', 'U'), ('ర్చు', '|'), ('నే', 'U'), ('సూ', 'U'), ('డి', '|'), ('ద', '|'), ('బె', 'U'), ('ట్టు', '|'), ('నె', 'U'), ('న్ను', '|'), ('దు', '|'), ('టి', '|'), ('చొ', 'U'), ('క్క', '|'), ('పు', '|'), ('గ', 'U'), ('స్తు', '|'), ('రి', '|'), ('మీ', 'U'), ('ద', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
         <is>
           <t>ఏల సమస్త విద్యల నొకించుక భాగ్యము గల్గియుండినన్‌
 జాలు, ననేక మార్గముల సన్నుతికెక్క నదెట్లొకో యనన్‌
@@ -1269,32 +1194,29 @@
 వ్రాలి నమస్కరించి ప్రసవంబులు పెట్టరె మీఁద భాస్కరా!</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
           <t>[('ఏ', 'U'), ('ల', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('వి', 'U'), ('ద్య', '|'), ('ల', '|'), ('నొ', '|'), ('కిం', 'U'), ('చు', '|'), ('క', '|'), ('భా', 'U'), ('గ్య', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గి', '|'), ('యుం', 'U'), ('డి', '|'), ('నన్', 'U'), ('జా', 'U'), ('లు', '|'), ('న', '|'), ('నే', 'U'), ('క', '|'), ('మా', 'U'), ('ర్గ', '|'), ('ము', '|'), ('ల', '|'), ('స', 'U'), ('న్ను', '|'), ('తి', '|'), ('కె', 'U'), ('క్క', '|'), ('న', '|'), ('దె', 'U'), ('ట్లొ', '|'), ('కో', 'U'), ('య', '|'), ('నన్', 'U'), ('రా', 'U'), ('ల', '|'), ('కు', '|'), ('నే', 'U'), ('డ', '|'), ('వి', 'U'), ('ద్య', '|'), ('లు', '|'), ('తి', '|'), ('రం', 'U'), ('బు', '|'), ('గ', '|'), ('దే', 'U'), ('వ', '|'), ('ర', '|'), ('రూ', 'U'), ('పు', '|'), ('చే', 'U'), ('సి', '|'), ('నన్', 'U'), ('వ్రా', 'U'), ('లి', '|'), ('న', '|'), ('మ', 'U'), ('స్క', '|'), ('రిం', 'U'), ('చి', 'U'), ('ప్ర', '|'), ('స', '|'), ('వం', 'U'), ('బు', '|'), ('లు', '|'), ('పె', 'U'), ('ట్ట', '|'), ('రె', '|'), ('మీ', 'U'), ('ద', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
         <is>
           <t>ఒక్కఁడె చాలు నిశ్చల బలోన్నతుఁ డెంతటి కార్యమైనఁ దాఁ
 జక్క నొనర్పఁ; గౌరవులసంఖ్యులు పట్టిన ధేనుకోటలం
@@ -1302,32 +1224,29 @@
 మొక్కపడంగఁ జేసి తుదముట్టఁడె యొక్కకిరీటి భాస్కరా!</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
           <t>[('ఒ', 'U'), ('క్క', '|'), ('డె', '|'), ('చా', 'U'), ('లు', '|'), ('ని', 'U'), ('శ్చ', '|'), ('ల', '|'), ('బ', '|'), ('లో', 'U'), ('న్న', '|'), ('తు', '|'), ('డెం', 'U'), ('త', '|'), ('టి', '|'), ('కా', 'U'), ('ర్య', '|'), ('మై', 'U'), ('న', '|'), ('దా', 'U'), ('జ', 'U'), ('క్క', '|'), ('నొ', '|'), ('న', 'U'), ('ర్ప', '|'), ('గౌ', 'U'), ('ర', '|'), ('వు', '|'), ('ల', '|'), ('సం', 'U'), ('ఖ్యు', '|'), ('లు', '|'), ('ప', 'U'), ('ట్టి', '|'), ('న', '|'), ('ధే', 'U'), ('ను', '|'), ('కో', 'U'), ('ట', '|'), ('లం', 'U'), ('జి', 'U'), ('క్క', '|'), ('గ', '|'), ('నీ', 'U'), ('క', '|'), ('త', 'U'), ('త్ప్ర', '|'), ('బ', '|'), ('ల', '|'), ('సే', 'U'), ('న', '|'), ('న', '|'), ('నే', 'U'), ('క', '|'), ('శి', '|'), ('లీ', 'U'), ('ము', '|'), ('ఖం', 'U'), ('బు', '|'), ('లన్', 'U'), ('మొ', 'U'), ('క్క', '|'), ('ప', '|'), ('డం', 'U'), ('గ', '|'), ('జే', 'U'), ('సి', '|'), ('తు', '|'), ('ద', '|'), ('ము', 'U'), ('ట్ట', '|'), ('డె', '|'), ('యొ', 'U'), ('క్క', '|'), ('కి', '|'), ('రీ', 'U'), ('టి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
         <is>
           <t>కట్టడ దప్పి తాము చెడు కార్యముఁ జేయుచు నుండిరేని దోఁ
 బుట్టిన వారినైన విడిపోవుట కార్యము; దౌర్మదాంధ్యముం
@@ -1335,32 +1254,29 @@
 పట్టున రాముఁ జేరి చిరపట్టము గట్టుకొనండె భాస్కరా!</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
           <t>[('క', 'U'), ('ట్ట', '|'), ('డ', '|'), ('ద', 'U'), ('ప్పి', '|'), ('తా', 'U'), ('ము', '|'), ('చె', '|'), ('డు', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('జే', 'U'), ('యు', '|'), ('చు', '|'), ('నుం', 'U'), ('డి', '|'), ('రే', 'U'), ('ని', '|'), ('దో', 'U'), ('బు', 'U'), ('ట్టి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('నై', 'U'), ('న', '|'), ('వి', '|'), ('డి', '|'), ('పో', 'U'), ('వు', '|'), ('ట', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('దౌ', 'U'), ('ర్మ', '|'), ('దాం', 'U'), ('ధ్య', '|'), ('ముం', 'U'), ('దొ', 'U'), ('ట్టి', '|'), ('న', '|'), ('రా', 'U'), ('వ', '|'), ('ణా', 'U'), ('సు', '|'), ('రు', '|'), ('ని', '|'), ('తో', 'U'), ('నె', '|'), ('డ', '|'), ('బా', 'U'), ('సి', '|'), ('వి', '|'), ('భీ', 'U'), ('ష', '|'), ('ణా', 'U'), ('ఖ్యు', '|'), ('డా', 'U'), ('ప', 'U'), ('ట్టు', '|'), ('న', '|'), ('రా', 'U'), ('ము', '|'), ('జే', 'U'), ('రి', '|'), ('చి', '|'), ('ర', '|'), ('ప', 'U'), ('ట్ట', '|'), ('ము', '|'), ('గ', 'U'), ('ట్టు', '|'), ('కొ', '|'), ('నం', 'U'), ('డె', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
         <is>
           <t>కట్టడ యైనయట్టి నిజకర్మము చుట్టుచు వచ్చి యే గతం
 బెట్టునొ పెట్టినయట్లనుభవింపక తీఱదు; కాళ్ళు మీఁదుగాఁ
@@ -1368,32 +1284,29 @@
 చెట్టున గబ్బిలంబులకుఁ జేసిన కర్మముగాక భాస్కరా!</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
           <t>[('క', 'U'), ('ట్ట', '|'), ('డ', '|'), ('యై', 'U'), ('న', '|'), ('య', 'U'), ('ట్టి', '|'), ('ని', '|'), ('జ', '|'), ('క', '|'), ('ర్మ', '|'), ('ము', '|'), ('చు', 'U'), ('ట్టు', '|'), ('చు', '|'), ('వ', 'U'), ('చ్చి', '|'), ('యే', 'U'), ('గ', '|'), ('తం', 'U'), ('బె', 'U'), ('ట్టు', '|'), ('నొ', '|'), ('పె', 'U'), ('ట్టి', '|'), ('న', '|'), ('య', 'U'), ('ట్ల', '|'), ('ను', '|'), ('భ', '|'), ('విం', 'U'), ('ప', '|'), ('క', '|'), ('తీ', 'U'), ('ఱ', '|'), ('దు', '|'), ('కా', 'U'), ('ళ్ళు', '|'), ('మీ', 'U'), ('దు', '|'), ('గా', 'U'), ('గ', 'U'), ('ట్టు', '|'), ('క', 'U'), ('వ్రే', 'U'), ('లు', '|'), ('డం', 'U'), ('చు', '|'), ('ద', '|'), ('ల', 'U'), ('క్రిం', 'U'), ('దు', '|'), ('గ', '|'), ('గ', 'U'), ('ట్టి', '|'), ('రె', '|'), ('యె', 'U'), ('వ్వ', '|'), ('రై', 'U'), ('న', '|'), ('నా', 'U'), ('చె', 'U'), ('ట్టు', '|'), ('న', '|'), ('గ', 'U'), ('బ్బి', '|'), ('లం', 'U'), ('బు', '|'), ('ల', '|'), ('కు', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('క', '|'), ('ర్మ', '|'), ('ము', '|'), ('గా', 'U'), ('క', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
         <is>
           <t>కట్టడ లేని కాలమున గాదు శుభం బొరులెంతవారు చే
 పట్టిననైన మర్త్యునకు భాగ్యము రాదనుటెల్లఁ గల్లకా
@@ -1401,32 +1314,29 @@
 బట్టము కట్టఁ గోరి రది పాయక చేకుఱెనోటు భాస్కరా!</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
           <t>[('క', 'U'), ('ట్ట', '|'), ('డ', '|'), ('లే', 'U'), ('ని', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('గా', 'U'), ('దు', '|'), ('శు', '|'), ('భం', 'U'), ('బొ', '|'), ('రు', '|'), ('లెం', 'U'), ('త', '|'), ('వా', 'U'), ('రు', '|'), ('చే', 'U'), ('ప', 'U'), ('ట్టి', '|'), ('న', '|'), ('నై', 'U'), ('న', '|'), ('మ', 'U'), ('ర్త్యు', '|'), ('న', '|'), ('కు', '|'), ('భా', 'U'), ('గ్య', '|'), ('ము', '|'), ('రా', 'U'), ('ద', '|'), ('ను', '|'), ('టె', 'U'), ('ల్ల', '|'), ('గ', 'U'), ('ల్ల', '|'), ('కా', 'U'), ('దె', 'U'), ('ట్ట', '|'), ('ని', '|'), ('ప', 'U'), ('ల్కి', '|'), ('న', 'U'), ('న్ద', '|'), ('శ', '|'), ('ర', '|'), ('థే', 'U'), ('శ', '|'), ('వ', '|'), ('సి', 'U'), ('ష్ఠు', '|'), ('లు', '|'), ('రా', 'U'), ('మ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('కిన్', 'U'), ('బ', 'U'), ('ట్ట', '|'), ('ము', '|'), ('క', 'U'), ('ట్ట', '|'), ('గో', 'U'), ('రి', '|'), ('ర', '|'), ('ది', '|'), ('పా', 'U'), ('య', '|'), ('క', '|'), ('చే', 'U'), ('కు', '|'), ('ఱె', '|'), ('నో', 'U'), ('టు', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
         <is>
           <t>కానగ చేరఁ బోలఁ డతికర్ముఁడు నమ్మిక లెన్ని చేసినం
 దానది నమ్మి వానికడ డాయఁగ బోయిన హాని వచ్చు న
@@ -1434,32 +1344,29 @@
 బోనని కానకాసపడి పోవుచుఁ గూలదెఁ గొక్కు భాస్కరా!</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('న', '|'), ('గ', '|'), ('చే', 'U'), ('ర', '|'), ('బో', 'U'), ('ల', '|'), ('డ', '|'), ('తి', '|'), ('క', '|'), ('ర్ము', '|'), ('డు', '|'), ('న', 'U'), ('మ్మి', '|'), ('క', '|'), ('లె', 'U'), ('న్ని', '|'), ('చే', 'U'), ('సి', '|'), ('నం', 'U'), ('దా', 'U'), ('న', '|'), ('ది', '|'), ('న', 'U'), ('మ్మి', '|'), ('వా', 'U'), ('ని', '|'), ('క', '|'), ('డ', '|'), ('డా', 'U'), ('య', '|'), ('గ', '|'), ('బో', 'U'), ('యి', '|'), ('న', '|'), ('హా', 'U'), ('ని', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', 'U'), ('చ్చో', 'U'), ('న', '|'), ('ది', '|'), ('యె', 'U'), ('ట్ల', '|'), ('నం', 'U'), ('గొ', '|'), ('ఱ', '|'), ('కు', '|'), ('చూ', 'U'), ('పు', '|'), ('చు', '|'), ('నొ', 'U'), ('డ్డి', '|'), ('న', '|'), ('బో', 'U'), ('ను', '|'), ('మే', 'U'), ('లు', '|'), ('గా', 'U'), ('బో', 'U'), ('న', '|'), ('ని', '|'), ('కా', 'U'), ('న', '|'), ('కా', 'U'), ('స', '|'), ('ప', '|'), ('డి', '|'), ('పో', 'U'), ('వు', '|'), ('చు', '|'), ('గూ', 'U'), ('ల', '|'), ('దె', '|'), ('గొ', 'U'), ('క్కు', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
         <is>
           <t>కాని ప్రయోజనంబు సమకట్టదు తా భువి నెంత విద్యవాఁ
 డైనను దొడ్డరాజు కొడుకైన నదెట్లు; మహేశుపట్టి వి
@@ -1467,32 +1374,29 @@
 నేనుఁగు రీతి నుండియు నదేమిటి కాడఁడు పెండ్లి? భాస్కరా!</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('ని', 'U'), ('ప్ర', '|'), ('యో', 'U'), ('జ', '|'), ('నం', 'U'), ('బు', '|'), ('స', '|'), ('మ', '|'), ('క', 'U'), ('ట్ట', '|'), ('దు', '|'), ('తా', 'U'), ('భు', '|'), ('వి', '|'), ('నెం', 'U'), ('త', '|'), ('వి', 'U'), ('ద్య', '|'), ('వా', 'U'), ('డై', 'U'), ('న', '|'), ('ను', '|'), ('దొ', 'U'), ('డ్డ', '|'), ('రా', 'U'), ('జు', '|'), ('కొ', '|'), ('డు', '|'), ('కై', 'U'), ('న', '|'), ('న', '|'), ('దె', 'U'), ('ట్లు', '|'), ('మ', '|'), ('హే', 'U'), ('శు', '|'), ('ప', 'U'), ('ట్టి', '|'), ('వి', 'U'), ('ద్యా', 'U'), ('ని', '|'), ('ధి', '|'), ('స', 'U'), ('ర్వ', '|'), ('వి', 'U'), ('ద్య', '|'), ('ల', '|'), ('కు', '|'), ('దా', 'U'), ('నె', '|'), ('గు', '|'), ('రుం', 'U'), ('డు', '|'), ('వి', '|'), ('నా', 'U'), ('య', '|'), ('కుం', 'U'), ('డు', '|'), ('దా', 'U'), ('నే', 'U'), ('ను', '|'), ('గు', '|'), ('రీ', 'U'), ('తి', '|'), ('నుం', 'U'), ('డి', '|'), ('యు', '|'), ('న', '|'), ('దే', 'U'), ('మి', '|'), ('టి', '|'), ('కా', 'U'), ('డ', '|'), ('డు', '|'), ('పెం', 'U'), ('డ్లి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
         <is>
           <t>కామిత వస్తుసంపదలు గల్గు ఫలం బొరు లాసపడ్డచో
 నేమియుఁ బెట్టఁడేని సిరి యేటికి నిష్ఫలమున్నఁ బోయినన్‌
@@ -1500,32 +1404,29 @@
 నేమి ఫలంబు చేఁదు విడదెన్నటికైన ముసిండి భాస్కరా!</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('మి', '|'), ('త', '|'), ('వ', 'U'), ('స్తు', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('లు', '|'), ('గ', 'U'), ('ల్గు', '|'), ('ఫ', '|'), ('లం', 'U'), ('బొ', '|'), ('రు', '|'), ('లా', 'U'), ('స', '|'), ('ప', 'U'), ('డ్డ', '|'), ('చో', 'U'), ('నే', 'U'), ('మి', '|'), ('యు', '|'), ('బె', 'U'), ('ట్ట', '|'), ('డే', 'U'), ('ని', '|'), ('సి', '|'), ('రి', '|'), ('యే', 'U'), ('టి', '|'), ('కి', '|'), ('ని', 'U'), ('ష్ఫ', '|'), ('ల', '|'), ('ము', 'U'), ('న్న', '|'), ('బో', 'U'), ('యి', '|'), ('నన్', 'U'), ('బ్రా', 'U'), ('మి', '|'), ('క', '|'), ('ప', 'U'), ('డ్డ', '|'), ('లో', 'U'), ('కు', '|'), ('ల', '|'), ('కు', '|'), ('బం', 'U'), ('డ', '|'), ('గ', '|'), ('నే', 'U'), ('మ', '|'), ('ది', '|'), ('యెం', 'U'), ('డి', '|'), ('పో', 'U'), ('వ', '|'), ('గా', 'U'), ('నే', 'U'), ('మి', '|'), ('ఫ', '|'), ('లం', 'U'), ('బు', '|'), ('చే', 'U'), ('దు', '|'), ('వి', '|'), ('డ', '|'), ('దె', 'U'), ('న్న', '|'), ('టి', '|'), ('కై', 'U'), ('న', '|'), ('ము', '|'), ('సిం', 'U'), ('డి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
         <is>
           <t>కారణమైన కర్మములు కాక దిగంబడ వెన్ని గొందులం
 దూఱిన నెంతవారలకుఁ; దొల్లి పరీక్షితు శాపభీతుఁడై
@@ -1533,32 +1434,29 @@
 గ్రూరభుజంగ దంతహతిఁ గూలడె లోకులెఱుంగ భాస్కరా!</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('ర', '|'), ('ణ', '|'), ('మై', 'U'), ('న', '|'), ('క', '|'), ('ర్మ', '|'), ('ము', '|'), ('లు', '|'), ('కా', 'U'), ('క', '|'), ('ది', '|'), ('గం', 'U'), ('బ', '|'), ('డ', '|'), ('వె', 'U'), ('న్ని', '|'), ('గొం', 'U'), ('దు', '|'), ('లం', 'U'), ('దూ', 'U'), ('ఱి', '|'), ('న', '|'), ('నెం', 'U'), ('త', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('కు', '|'), ('దొ', 'U'), ('ల్లి', '|'), ('ప', '|'), ('రీ', 'U'), ('క్షి', '|'), ('తు', '|'), ('శా', 'U'), ('ప', '|'), ('భీ', 'U'), ('తు', '|'), ('డై', 'U'), ('వా', 'U'), ('రి', '|'), ('ధి', '|'), ('నొ', 'U'), ('ప్పు', '|'), ('ను', 'U'), ('ప్ప', '|'), ('రి', '|'), ('గ', '|'), ('పై', 'U'), ('బ', '|'), ('ది', '|'), ('లం', 'U'), ('బు', '|'), ('గ', '|'), ('దా', 'U'), ('గి', '|'), ('యుం', 'U'), ('డి', '|'), ('నం', 'U'), ('గ్రూ', 'U'), ('ర', '|'), ('భు', '|'), ('జం', 'U'), ('గ', '|'), ('దం', 'U'), ('త', '|'), ('హ', '|'), ('తి', '|'), ('గూ', 'U'), ('ల', '|'), ('డె', '|'), ('లో', 'U'), ('కు', '|'), ('లె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
         <is>
           <t>కులమున నక్కడక్కడ నకుంఠిత ధార్మికుఁడొక్కఁడొక్కఁడే
 కలిగెడుఁగాక పెందఱుచు గల్గగ నేరరు; చెట్టు చెట్టునన్‌
@@ -1566,32 +1464,29 @@
 పలరఁగ నొక్కటొక్కటి నయంబునఁ జేకురుఁగాక భాస్కరా!</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
           <t>[('కు', '|'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('న', 'U'), ('క్క', '|'), ('డ', 'U'), ('క్క', '|'), ('డ', '|'), ('న', '|'), ('కుం', 'U'), ('ఠి', '|'), ('త', '|'), ('ధా', 'U'), ('ర్మి', '|'), ('కు', '|'), ('డొ', 'U'), ('క్క', '|'), ('డొ', 'U'), ('క్క', '|'), ('డే', 'U'), ('క', '|'), ('లి', '|'), ('గె', '|'), ('డు', '|'), ('గా', 'U'), ('క', '|'), ('పెం', 'U'), ('ద', '|'), ('ఱు', '|'), ('చు', '|'), ('గ', 'U'), ('ల్గ', '|'), ('గ', '|'), ('నే', 'U'), ('ర', '|'), ('రు', '|'), ('చె', 'U'), ('ట్టు', '|'), ('చె', 'U'), ('ట్టు', '|'), ('నన్', 'U'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('గ', '|'), ('నే', 'U'), ('ర్చు', '|'), ('నే', 'U'), ('గొ', '|'), ('డు', '|'), ('గు', '|'), ('కా', 'U'), ('మ', '|'), ('లు', '|'), ('చూ', 'U'), ('డ', '|'), ('గ', '|'), ('నా', 'U'), ('డ', '|'), ('నా', 'U'), ('డ', '|'), ('నిం', 'U'), ('ప', '|'), ('ల', '|'), ('ర', '|'), ('గ', '|'), ('నొ', 'U'), ('క్క', '|'), ('టొ', 'U'), ('క్క', '|'), ('టి', '|'), ('న', '|'), ('యం', 'U'), ('బు', '|'), ('న', '|'), ('జే', 'U'), ('కు', '|'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
         <is>
           <t>క్రూర మనస్కులౌ పతులఁ గొల్చి వసించిన మంచివారికిన్‌
 వారి గుణంబె పట్టి, చెడు వర్తన వాటిలు; మాధురీజలో
@@ -1599,32 +1494,29 @@
 క్షారముఁ జెందవే మొదలి కట్టడ లన్నియుఁ దప్పి భాస్కరా!</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
           <t>[('క్రూ', 'U'), ('ర', '|'), ('మ', '|'), ('న', 'U'), ('స్కు', '|'), ('లౌ', 'U'), ('ప', '|'), ('తు', '|'), ('ల', '|'), ('గొ', 'U'), ('ల్చి', '|'), ('వ', '|'), ('సిం', 'U'), ('చి', '|'), ('న', '|'), ('మం', 'U'), ('చి', '|'), ('వా', 'U'), ('రి', '|'), ('కిన్', 'U'), ('వా', 'U'), ('రి', '|'), ('గు', '|'), ('ణం', 'U'), ('బె', '|'), ('ప', 'U'), ('ట్టి', '|'), ('చె', '|'), ('డు', '|'), ('వ', 'U'), ('ర్త', '|'), ('న', '|'), ('వా', 'U'), ('టి', '|'), ('లు', '|'), ('మా', 'U'), ('ధు', '|'), ('రీ', 'U'), ('జ', '|'), ('లో', 'U'), ('దా', 'U'), ('ర', '|'), ('లు', '|'), ('గౌ', 'U'), ('త', '|'), ('మీ', 'U'), ('ము', '|'), ('ఖ', '|'), ('మ', '|'), ('హా', 'U'), ('న', '|'), ('దు', '|'), ('లం', 'U'), ('బు', '|'), ('ధి', '|'), ('గూ', 'U'), ('డి', '|'), ('నం', 'U'), ('త', '|'), ('నే', 'U'), ('క్షా', 'U'), ('ర', '|'), ('ము', '|'), ('జెం', 'U'), ('ద', '|'), ('వే', 'U'), ('మొ', '|'), ('ద', '|'), ('లి', '|'), ('క', 'U'), ('ట్ట', '|'), ('డ', '|'), ('ల', 'U'), ('న్ని', '|'), ('యు', '|'), ('ద', 'U'), ('ప్పి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
         <is>
           <t>గిట్టుట కేడఁ గట్టడ లిఖించిన నచ్చటఁ గాని యెండుచోఁ
 బుట్టదు చావు; జానువుల పున్కల నూడిచి కాశిఁ జావఁగా
@@ -1632,32 +1524,29 @@
 పట్టునఁ గొంచు మఱ్ఱికడఁ బ్రాణము దీసెగదయ్య! భాస్కరా!</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
           <t>[('గి', 'U'), ('ట్టు', '|'), ('ట', '|'), ('కే', 'U'), ('డ', '|'), ('గ', 'U'), ('ట్ట', '|'), ('డ', '|'), ('లి', '|'), ('ఖిం', 'U'), ('చి', '|'), ('న', '|'), ('న', 'U'), ('చ్చ', '|'), ('ట', '|'), ('గా', 'U'), ('ని', '|'), ('యెం', 'U'), ('డు', '|'), ('చో', 'U'), ('బు', 'U'), ('ట్ట', '|'), ('దు', '|'), ('చా', 'U'), ('వు', '|'), ('జా', 'U'), ('ను', '|'), ('వు', '|'), ('ల', '|'), ('పు', 'U'), ('న్క', '|'), ('ల', '|'), ('నూ', 'U'), ('డి', '|'), ('చి', '|'), ('కా', 'U'), ('శి', '|'), ('జా', 'U'), ('వ', '|'), ('గా', 'U'), ('ల్గ', 'U'), ('ట్టి', '|'), ('న', '|'), ('శూ', 'U'), ('ద్ర', '|'), ('కున్', 'U'), ('భ్ర', '|'), ('మ', '|'), ('ల', '|'), ('గ', 'U'), ('ప్పు', '|'), ('చు', '|'), ('ద', 'U'), ('ద్వి', '|'), ('ధి', '|'), ('గు', 'U'), ('ఱ్ఱ', '|'), ('మౌ', 'U'), ('చు', '|'), ('నా', 'U'), ('ప', 'U'), ('ట్టు', '|'), ('న', '|'), ('గొం', 'U'), ('చు', '|'), ('మ', 'U'), ('ఱ్ఱి', '|'), ('క', '|'), ('డ', 'U'), ('బ్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('దీ', 'U'), ('సె', '|'), ('గ', '|'), ('ద', 'U'), ('య్య', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
         <is>
           <t>ఘనబలసత్త్వ మచ్చుపడఁ గల్గిన వానికి హాని లేనిచోఁ
 దనదగు సత్త్వమే చెరచుఁ దన్ను; నదెట్లన నీరు మిక్కిలిన్‌
@@ -1665,32 +1554,29 @@
 గనుమలు పెట్టి నట్టనడి గండి తెగంబడకున్నె భాస్కరా!</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
           <t>[('ఘ', '|'), ('న', '|'), ('బ', '|'), ('ల', '|'), ('స', 'U'), ('త్త్వ', '|'), ('మ', 'U'), ('చ్చు', '|'), ('ప', '|'), ('డ', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('కి', '|'), ('హా', 'U'), ('ని', '|'), ('లే', 'U'), ('ని', '|'), ('చో', 'U'), ('ద', '|'), ('న', '|'), ('ద', '|'), ('గు', '|'), ('స', 'U'), ('త్త్వ', '|'), ('మే', 'U'), ('చె', '|'), ('ర', '|'), ('చు', '|'), ('ద', 'U'), ('న్ను', '|'), ('న', '|'), ('దె', 'U'), ('ట్ల', '|'), ('న', '|'), ('నీ', 'U'), ('రు', '|'), ('మి', 'U'), ('క్కి', '|'), ('లిన్', 'U'), ('గి', '|'), ('ను', '|'), ('క', '|'), ('వ', '|'), ('సిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('జె', '|'), ('ఱు', '|'), ('వు', '|'), ('క', 'U'), ('ట్ట', '|'), ('కు', '|'), ('స', 'U'), ('త్వ', '|'), ('ము', '|'), ('చా', 'U'), ('ల', '|'), ('కు', 'U'), ('న్న', '|'), ('చో', 'U'), ('గ', '|'), ('ను', '|'), ('మ', '|'), ('లు', '|'), ('పె', 'U'), ('ట్టి', '|'), ('న', 'U'), ('ట్ట', '|'), ('న', '|'), ('డి', '|'), ('గం', 'U'), ('డి', '|'), ('తె', '|'), ('గం', 'U'), ('బ', '|'), ('డ', '|'), ('కు', 'U'), ('న్నె', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
         <is>
           <t>ఘనుఁడగు నట్టివాఁడు నిజకార్య సముద్ధరణార్థమై మహిం
 బనివడి యల్పమానవునిఁ బ్రార్థనఁ జేయుట తప్పుగాదుగా;
@@ -1698,32 +1584,29 @@
 గనుఁగొని గాలిగాని కడ కాళ్ళకు మ్రొక్కఁడె నాఁడు భాస్కరా!</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
           <t>[('ఘ', '|'), ('ను', '|'), ('డ', '|'), ('గు', '|'), ('న', 'U'), ('ట్టి', '|'), ('వా', 'U'), ('డు', '|'), ('ని', '|'), ('జ', '|'), ('కా', 'U'), ('ర్య', '|'), ('స', '|'), ('ము', 'U'), ('ద్ధ', '|'), ('ర', '|'), ('ణా', 'U'), ('ర్థ', '|'), ('మై', 'U'), ('మ', '|'), ('హిం', 'U'), ('బ', '|'), ('ని', '|'), ('వ', '|'), ('డి', '|'), ('య', 'U'), ('ల్ప', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('ని', 'U'), ('బ్రా', 'U'), ('ర్థ', '|'), ('న', '|'), ('జే', 'U'), ('యు', '|'), ('ట', '|'), ('త', 'U'), ('ప్పు', '|'), ('గా', 'U'), ('దు', '|'), ('గా', 'U'), ('య', '|'), ('న', '|'), ('ఘ', '|'), ('త', '|'), ('గృ', 'U'), ('ష్ణ', '|'), ('జ', 'U'), ('న్మ', '|'), ('ము', '|'), ('న', '|'), ('నా', 'U'), ('వ', '|'), ('సు', '|'), ('దే', 'U'), ('వు', '|'), ('డు', '|'), ('మీ', 'U'), ('ద', '|'), ('టె', 'U'), ('త్తు', '|'), ('గా', 'U'), ('గ', '|'), ('ను', '|'), ('గొ', '|'), ('ని', '|'), ('గా', 'U'), ('లి', '|'), ('గా', 'U'), ('ని', '|'), ('క', '|'), ('డ', '|'), ('కా', 'U'), ('ళ్ళ', '|'), ('కు', '|'), ('మ్రొ', 'U'), ('క్క', '|'), ('డె', '|'), ('నా', 'U'), ('డు', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">ఘనుఁడొకవేళ గీడ్పడిన గ్రమ్మఱ నాతని లేమిఁ బాపఁగా
 గనుగొన నొక్క సత్ప్రభువుఁగాక నరాధము లోపరెందరుం;
@@ -1731,32 +1614,29 @@
 దనుపఁ దుషారముల్‌ శతశతంబులు చాలునటయ్య భాస్కరా!	</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
           <t>[('ఘ', '|'), ('ను', '|'), ('డొ', '|'), ('క', '|'), ('వే', 'U'), ('ళ', '|'), ('గీ', 'U'), ('డ్ప', '|'), ('డి', '|'), ('న', 'U'), ('గ్ర', 'U'), ('మ్మ', '|'), ('ఱ', '|'), ('నా', 'U'), ('త', '|'), ('ని', '|'), ('లే', 'U'), ('మి', '|'), ('బా', 'U'), ('ప', '|'), ('గా', 'U'), ('గ', '|'), ('ను', '|'), ('గొ', '|'), ('న', '|'), ('నొ', 'U'), ('క్క', '|'), ('స', 'U'), ('త్ప్ర', '|'), ('భు', '|'), ('వు', '|'), ('గా', 'U'), ('క', '|'), ('న', '|'), ('రా', 'U'), ('ధ', '|'), ('ము', '|'), ('లో', 'U'), ('ప', '|'), ('రెం', 'U'), ('ద', '|'), ('రుం', 'U'), ('బె', '|'), ('ను', '|'), ('జె', '|'), ('ఱు', '|'), ('వెం', 'U'), ('డి', '|'), ('న', 'U'), ('ట్టి', '|'), ('త', '|'), ('ఱి', '|'), ('బె', 'U'), ('ల్లు', '|'), ('న', '|'), ('మే', 'U'), ('ఘు', '|'), ('డు', '|'), ('గా', 'U'), ('క', '|'), ('నీ', 'U'), ('టి', '|'), ('తో', 'U'), ('ద', '|'), ('ను', '|'), ('ప', '|'), ('దు', '|'), ('షా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('శ', '|'), ('త', '|'), ('శ', '|'), ('తం', 'U'), ('బు', '|'), ('లు', '|'), ('చా', 'U'), ('లు', '|'), ('న', '|'), ('ట', 'U'), ('య్య', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
         <is>
           <t>చంద్రకళావతంసు కృపచాలనినాఁడు మహాత్ముఁడైనఁ దా
 సాంద్రవిభూతిఁ బాసి యొక జాతివిహీనునిఁ గొల్చియుంట యో
@@ -1764,32 +1644,29 @@
 శ్చంద్రుఁడు వీరబాహుని నిజంబుగఁ గొల్వఁడె నాఁడు భాస్కరా!</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
           <t>[('చం', 'U'), ('ద్ర', '|'), ('క', '|'), ('ళా', 'U'), ('వ', '|'), ('తం', 'U'), ('సు', '|'), ('కృ', '|'), ('ప', '|'), ('చా', 'U'), ('ల', '|'), ('ని', '|'), ('నా', 'U'), ('డు', '|'), ('మ', '|'), ('హా', 'U'), ('త్ము', '|'), ('డై', 'U'), ('న', '|'), ('దా', 'U'), ('సాం', 'U'), ('ద్ర', '|'), ('వి', '|'), ('భూ', 'U'), ('తి', '|'), ('బా', 'U'), ('సి', '|'), ('యొ', '|'), ('క', '|'), ('జా', 'U'), ('తి', '|'), ('వి', '|'), ('హీ', 'U'), ('ను', '|'), ('ని', '|'), ('గొ', 'U'), ('ల్చి', '|'), ('యుం', 'U'), ('ట', '|'), ('యో', 'U'), ('గీం', 'U'), ('ద్ర', '|'), ('ను', '|'), ('తాం', 'U'), ('ఘ్రి', '|'), ('ప', 'U'), ('ద్మ', '|'), ('మ', '|'), ('తి', '|'), ('హీ', 'U'), ('న', '|'), ('త', '|'), ('నొం', 'U'), ('దు', '|'), ('ట', '|'), ('కా', 'U'), ('దు', '|'), ('గా', 'U'), ('హ', '|'), ('రి', 'U'), ('శ్చం', 'U'), ('ద్రు', '|'), ('డు', '|'), ('వీ', 'U'), ('ర', '|'), ('బా', 'U'), ('హు', '|'), ('ని', '|'), ('ని', '|'), ('జం', 'U'), ('బు', '|'), ('గ', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('డె', '|'), ('నా', 'U'), ('డు', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
         <is>
           <t>చక్కఁదలంపఁగా విధివశంబున నల్పుని చేతనైనఁ దా;
 జిక్కి యవస్థలం బొరలుఁ జెప్పఁగరాని మహాబలాఢ్యుఁడున్‌
@@ -1797,32 +1674,29 @@
 డెక్కి యదల్చి కొట్టి కుదియించిన నుండదె యోర్చి భాస్కరా!</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
           <t>[('చ', 'U'), ('క్క', '|'), ('ద', '|'), ('లం', 'U'), ('ప', '|'), ('గా', 'U'), ('వి', '|'), ('ధి', '|'), ('వ', '|'), ('శం', 'U'), ('బు', '|'), ('న', '|'), ('న', 'U'), ('ల్పు', '|'), ('ని', '|'), ('చే', 'U'), ('త', '|'), ('నై', 'U'), ('న', '|'), ('దా', 'U'), ('జి', 'U'), ('క్కి', '|'), ('య', '|'), ('వ', 'U'), ('స్థ', '|'), ('లం', 'U'), ('బొ', '|'), ('ర', '|'), ('లు', '|'), ('జె', 'U'), ('ప్ప', '|'), ('గ', '|'), ('రా', 'U'), ('ని', '|'), ('మ', '|'), ('హా', 'U'), ('బ', '|'), ('లా', 'U'), ('ఢ్యు', '|'), ('డున్', 'U'), ('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('స', 'U'), ('త్త్వ', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('ల', '|'), ('మీ', 'U'), ('ఱి', '|'), ('న', '|'), ('గం', 'U'), ('ధ', '|'), ('గ', '|'), ('జం', 'U'), ('బు', '|'), ('మా', 'U'), ('వ', '|'), ('టీ', 'U'), ('డె', 'U'), ('క్కి', '|'), ('య', '|'), ('ద', 'U'), ('ల్చి', '|'), ('కొ', 'U'), ('ట్టి', '|'), ('కు', '|'), ('ది', '|'), ('యిం', 'U'), ('చి', '|'), ('న', '|'), ('నుం', 'U'), ('డ', '|'), ('దె', '|'), ('యో', 'U'), ('ర్చి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
         <is>
           <t>చదువది యెంత గల్గిన రసజ్ఞత యించుక చాలకున్న నా
 చదువు నిరర్థకంబు, గుణ సంయుతులెవ్వరు మెచ్చ రెచ్చటం;
@@ -1830,32 +1704,29 @@
 పొదవెడు నుప్పు లేక రుచి పుట్టఁగ నేర్చు నటయ్య భాస్కరా!</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
           <t>[('చ', '|'), ('దు', '|'), ('వ', '|'), ('ది', '|'), ('యెం', 'U'), ('త', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('ర', '|'), ('స', 'U'), ('జ్ఞ', '|'), ('త', '|'), ('యిం', 'U'), ('చు', '|'), ('క', '|'), ('చా', 'U'), ('ల', '|'), ('కు', 'U'), ('న్న', '|'), ('నా', 'U'), ('చ', '|'), ('దు', '|'), ('వు', '|'), ('ని', '|'), ('ర', 'U'), ('ర్థ', '|'), ('కం', 'U'), ('బు', '|'), ('గు', '|'), ('ణ', '|'), ('సం', 'U'), ('యు', '|'), ('తు', '|'), ('లె', 'U'), ('వ్వ', '|'), ('రు', '|'), ('మె', 'U'), ('చ్చ', '|'), ('రె', 'U'), ('చ్చ', '|'), ('టం', 'U'), ('బ', '|'), ('ద', '|'), ('ను', '|'), ('గ', '|'), ('మం', 'U'), ('చి', '|'), ('కూ', 'U'), ('ర', '|'), ('న', '|'), ('ల', '|'), ('పా', 'U'), ('క', '|'), ('ము', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('నై', 'U'), ('న', '|'), ('నం', 'U'), ('దు', '|'), ('నిం', 'U'), ('పొ', '|'), ('ద', '|'), ('వె', '|'), ('డు', '|'), ('ను', 'U'), ('ప్పు', '|'), ('లే', 'U'), ('క', '|'), ('రు', '|'), ('చి', '|'), ('పు', 'U'), ('ట్ట', '|'), ('గ', '|'), ('నే', 'U'), ('ర్చు', '|'), ('న', '|'), ('ట', 'U'), ('య్య', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
         <is>
           <t>చాలఁ బవిత్రవంశమున సంజనితుండగునేని యెట్టి దు
 శ్శీలునినైనఁ దత్కుల విశేషముచే నొక పుణ్యుఁడెంతయుం
@@ -1863,32 +1734,29 @@
 హాలాహలానలంబు గళమందు ధరించుట పూని భాస్కరా!</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
           <t>[('చా', 'U'), ('ల', '|'), ('బ', '|'), ('వి', 'U'), ('త్ర', '|'), ('వం', 'U'), ('శ', '|'), ('ము', '|'), ('న', '|'), ('సం', 'U'), ('జ', '|'), ('ని', '|'), ('తుం', 'U'), ('డ', '|'), ('గు', '|'), ('నే', 'U'), ('ని', '|'), ('యె', 'U'), ('ట్టి', '|'), ('దు', 'U'), ('శ్శీ', 'U'), ('లు', '|'), ('ని', '|'), ('నై', 'U'), ('న', '|'), ('ద', 'U'), ('త్కు', '|'), ('ల', '|'), ('వి', '|'), ('శే', 'U'), ('ష', '|'), ('ము', '|'), ('చే', 'U'), ('నొ', '|'), ('క', '|'), ('పు', 'U'), ('ణ్యు', '|'), ('డెం', 'U'), ('త', '|'), ('యుం', 'U'), ('దా', 'U'), ('లి', '|'), ('మి', '|'), ('ను', 'U'), ('ద్ధ', '|'), ('రిం', 'U'), ('చు', '|'), ('ను', '|'), ('సు', '|'), ('ధా', 'U'), ('ని', '|'), ('ధి', '|'), ('బు', 'U'), ('ట్ట', '|'), ('గ', '|'), ('గా', 'U'), ('దె', '|'), ('శం', 'U'), ('భు', '|'), ('డా', 'U'), ('హా', 'U'), ('లా', 'U'), ('హ', '|'), ('లా', 'U'), ('న', '|'), ('లం', 'U'), ('బు', '|'), ('గ', '|'), ('ళ', '|'), ('మం', 'U'), ('దు', '|'), ('ధ', '|'), ('రిం', 'U'), ('చు', '|'), ('ట', '|'), ('పూ', 'U'), ('ని', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
         <is>
           <t>చేరి బలాధిపుం డెరిఁగి చెప్పిన కార్యము చేయకుండినన్‌
 బారము ముట్టలేఁడొక నెపంబున దాఁజెడు నెట్టి ధన్యుఁడున్‌
@@ -1896,32 +1764,29 @@
 సారిని గాకుచేసి చెడఁడాయెనె కౌరవభర్త భాస్కరా!</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
           <t>[('చే', 'U'), ('రి', '|'), ('బ', '|'), ('లా', 'U'), ('ధి', '|'), ('పుం', 'U'), ('డె', '|'), ('రి', '|'), ('గి', '|'), ('చె', 'U'), ('ప్పి', '|'), ('న', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('చే', 'U'), ('య', '|'), ('కుం', 'U'), ('డి', '|'), ('నన్', 'U'), ('బా', 'U'), ('ర', '|'), ('ము', '|'), ('ము', 'U'), ('ట్ట', '|'), ('లే', 'U'), ('డొ', '|'), ('క', '|'), ('నె', '|'), ('పం', 'U'), ('బు', '|'), ('న', '|'), ('దా', 'U'), ('జె', '|'), ('డు', '|'), ('నె', 'U'), ('ట్టి', '|'), ('ధ', 'U'), ('న్యు', '|'), ('డున్', 'U'), ('బో', 'U'), ('ర', '|'), ('క', '|'), ('పాం', 'U'), ('డు', '|'), ('పు', 'U'), ('త్రు', '|'), ('ల', '|'), ('కు', '|'), ('భూ', 'U'), ('స్థ', '|'), ('లి', '|'), ('భా', 'U'), ('గ', '|'), ('ము', '|'), ('పె', 'U'), ('ట్టు', '|'), ('మ', 'U'), ('న్న', '|'), ('కం', 'U'), ('సా', 'U'), ('రి', '|'), ('ని', '|'), ('గా', 'U'), ('కు', '|'), ('చే', 'U'), ('సి', '|'), ('చె', '|'), ('డ', '|'), ('డా', 'U'), ('యె', '|'), ('నె', '|'), ('కౌ', 'U'), ('ర', '|'), ('వ', '|'), ('భ', 'U'), ('ర్త', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
         <is>
           <t>చేసిన దుష్టచేష్ట నది చెప్పక నేర్పునఁ గప్పిపుచ్చి తా
 మూసిన యంతటన్‌ బయలు ముట్టక యుండ దదెట్లు; రాగిపైఁ
@@ -1929,32 +1794,29 @@
 దాసిన రాగి గానఁబడ దా జనులెల్ల రెఱుంగ భాస్కరా!</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
           <t>[('చే', 'U'), ('సి', '|'), ('న', '|'), ('దు', 'U'), ('ష్ట', '|'), ('చే', 'U'), ('ష్ట', '|'), ('న', '|'), ('ది', '|'), ('చె', 'U'), ('ప్ప', '|'), ('క', '|'), ('నే', 'U'), ('ర్పు', '|'), ('న', '|'), ('గ', 'U'), ('ప్పి', '|'), ('పు', 'U'), ('చ్చి', '|'), ('తా', 'U'), ('మూ', 'U'), ('సి', '|'), ('న', '|'), ('యం', 'U'), ('త', '|'), ('టన్', 'U'), ('బ', '|'), ('య', '|'), ('లు', '|'), ('ము', 'U'), ('ట్ట', '|'), ('క', '|'), ('యుం', 'U'), ('డ', '|'), ('ద', '|'), ('దె', 'U'), ('ట్లు', '|'), ('రా', 'U'), ('గి', '|'), ('పై', 'U'), ('బూ', 'U'), ('సి', '|'), ('న', '|'), ('బం', 'U'), ('గ', '|'), ('రుం', 'U'), ('జె', '|'), ('ద', '|'), ('రి', '|'), ('పో', 'U'), ('వ', '|'), ('గ', '|'), ('డం', 'U'), ('గి', '|'), ('న', '|'), ('నా', 'U'), ('డు', '|'), ('నా', 'U'), ('టి', '|'), ('కిన్', 'U'), ('దా', 'U'), ('సి', '|'), ('న', '|'), ('రా', 'U'), ('గి', '|'), ('గా', 'U'), ('న', '|'), ('బ', '|'), ('డ', '|'), ('దా', 'U'), ('జ', '|'), ('ను', '|'), ('లె', 'U'), ('ల్ల', '|'), ('రె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
         <is>
           <t>తగిలి మదంబుచే నెదిరిఁ దన్ను నెఱుంగక దొడ్డవానితో
 బగఁగొని పోరుటెల్ల నతిపామరుడై చెడుటింతెగాక తా
@@ -1962,32 +1824,29 @@
 దెగి యొక కొండతో దగరు ఢీకొని తాఁకిన నేమి భాస్కరా!</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('గి', '|'), ('లి', '|'), ('మ', '|'), ('దం', 'U'), ('బు', '|'), ('చే', 'U'), ('నె', '|'), ('ది', '|'), ('రి', '|'), ('ద', 'U'), ('న్ను', '|'), ('నె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('క', '|'), ('దొ', 'U'), ('డ్డ', '|'), ('వా', 'U'), ('ని', '|'), ('తో', 'U'), ('బ', '|'), ('గ', '|'), ('గొ', '|'), ('ని', '|'), ('పో', 'U'), ('రు', '|'), ('టె', 'U'), ('ల్ల', '|'), ('న', '|'), ('తి', '|'), ('పా', 'U'), ('మ', '|'), ('రు', '|'), ('డై', 'U'), ('చె', '|'), ('డు', '|'), ('టిం', 'U'), ('తె', '|'), ('గా', 'U'), ('క', '|'), ('తా', 'U'), ('నె', '|'), ('గ', '|'), ('డి', '|'), ('జ', '|'), ('యిం', 'U'), ('ప', '|'), ('నే', 'U'), ('ర', '|'), ('డ', '|'), ('ది', '|'), ('ని', 'U'), ('క్క', '|'), ('ము', '|'), ('త', 'U'), ('ప్ప', '|'), ('దు', '|'), ('ధా', 'U'), ('త్రి', '|'), ('లో', 'U'), ('ప', '|'), ('లన్', 'U'), ('దె', '|'), ('గి', '|'), ('యొ', '|'), ('క', '|'), ('కొం', 'U'), ('డ', '|'), ('తో', 'U'), ('ద', '|'), ('గ', '|'), ('రు', '|'), ('ఢీ', 'U'), ('కొ', '|'), ('ని', '|'), ('తా', 'U'), ('కి', '|'), ('న', '|'), ('నే', 'U'), ('మి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
         <is>
           <t>తడవగ రాదు దుష్టగుణుఁ దత్వ మెఱుంగక యెవ్వరైన నా
 చెడుగుణ మిట్లు వల్వదని చెప్పిన గ్రక్కున గోపచిత్తుఁడై
@@ -1995,32 +1854,29 @@
 బడునెడ నాక్షణంబెగసి భగ్గున మండక యున్నె భాస్కరా!</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('డ', '|'), ('వ', '|'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('దు', 'U'), ('ష్ట', '|'), ('గు', '|'), ('ణు', '|'), ('ద', 'U'), ('త్వ', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('క', '|'), ('యె', 'U'), ('వ్వ', '|'), ('రై', 'U'), ('న', '|'), ('నా', 'U'), ('చె', '|'), ('డు', '|'), ('గు', '|'), ('ణ', '|'), ('మి', 'U'), ('ట్లు', '|'), ('వ', 'U'), ('ల్వ', '|'), ('ద', '|'), ('ని', '|'), ('చె', 'U'), ('ప్పి', '|'), ('న', 'U'), ('గ్ర', 'U'), ('క్కు', '|'), ('న', '|'), ('గో', 'U'), ('ప', '|'), ('చి', 'U'), ('త్తు', '|'), ('డై', 'U'), ('క', '|'), ('డు', '|'), ('దె', '|'), ('గ', '|'), ('జూ', 'U'), ('చు', '|'), ('గా', 'U'), ('మ', '|'), ('ఱు', '|'), ('గ', '|'), ('గా', 'U'), ('గి', '|'), ('న', '|'), ('తై', 'U'), ('ల', '|'), ('ము', '|'), ('నీ', 'U'), ('టి', '|'), ('బొ', 'U'), ('ట్టు', '|'), ('పై', 'U'), ('బ', '|'), ('డు', '|'), ('నె', '|'), ('డ', '|'), ('నా', 'U'), ('క్ష', '|'), ('ణం', 'U'), ('బె', '|'), ('గ', '|'), ('సి', '|'), ('భ', 'U'), ('గ్గు', '|'), ('న', '|'), ('మం', 'U'), ('డ', '|'), ('క', '|'), ('యు', 'U'), ('న్నె', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
         <is>
           <t>తనకు ఫలంబు లేదని యెదం దలపోయఁడు కీర్తి గోరు నా
 ఘన గుణశాలి లోకహిత కార్యము మిక్కిలి భారమైన మే
@@ -2028,32 +1884,29 @@
 ననిశము మోవఁడే మఱి మహాభరమైన ధరిత్రి భాస్కరా!</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('కు', '|'), ('ఫ', '|'), ('లం', 'U'), ('బు', '|'), ('లే', 'U'), ('ద', '|'), ('ని', '|'), ('యె', '|'), ('దం', 'U'), ('ద', '|'), ('ల', '|'), ('పో', 'U'), ('య', '|'), ('డు', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('గో', 'U'), ('రు', '|'), ('నా', 'U'), ('ఘ', '|'), ('న', '|'), ('గు', '|'), ('ణ', '|'), ('శా', 'U'), ('లి', '|'), ('లో', 'U'), ('క', '|'), ('హి', '|'), ('త', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('భా', 'U'), ('ర', '|'), ('మై', 'U'), ('న', '|'), ('మే', 'U'), ('ల', '|'), ('ను', '|'), ('కొ', '|'), ('ని', '|'), ('పూ', 'U'), ('ను', '|'), ('శే', 'U'), ('షు', '|'), ('డు', '|'), ('స', '|'), ('హ', 'U'), ('స్ర', '|'), ('ము', '|'), ('ఖం', 'U'), ('బు', '|'), ('ల', '|'), ('గా', 'U'), ('లి', 'U'), ('గ్రో', 'U'), ('లి', '|'), ('తా', 'U'), ('న', '|'), ('ని', '|'), ('శ', '|'), ('ము', '|'), ('మో', 'U'), ('వ', '|'), ('డే', 'U'), ('మ', '|'), ('ఱి', '|'), ('మ', '|'), ('హా', 'U'), ('భ', '|'), ('ర', '|'), ('మై', 'U'), ('న', '|'), ('ధ', '|'), ('రి', 'U'), ('త్రి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
         <is>
           <t>తనకు నదృష్టరేఖ విశదంబుగఁ గల్గిన గాని లేనిచో
 జనునకు నెయ్యెడన్‌ బరుల సంపదవల్ల ఫలంబు లేదుగా;
@@ -2061,32 +1914,29 @@
 కనఁబడు నెట్లు వెన్నెలలుఁ గాయగ నందొక రూపు భాస్కరా!</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('కు', '|'), ('న', '|'), ('దృ', 'U'), ('ష్ట', '|'), ('రే', 'U'), ('ఖ', '|'), ('వి', '|'), ('శ', '|'), ('దం', 'U'), ('బు', '|'), ('గ', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('లే', 'U'), ('ని', '|'), ('చో', 'U'), ('జ', '|'), ('ను', '|'), ('న', '|'), ('కు', '|'), ('నె', 'U'), ('య్యె', '|'), ('డన్', 'U'), ('బ', '|'), ('రు', '|'), ('ల', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('వ', 'U'), ('ల్ల', '|'), ('ఫ', '|'), ('లం', 'U'), ('బు', '|'), ('లే', 'U'), ('దు', '|'), ('గా', 'U'), ('క', '|'), ('ను', '|'), ('గ', '|'), ('వ', '|'), ('లె', 'U'), ('స్స', '|'), ('గా', 'U'), ('దె', '|'), ('లి', '|'), ('వి', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('కి', '|'), ('గా', 'U'), ('క', 'U'), ('గ్రు', 'U'), ('డ్డి', '|'), ('కిన్', 'U'), ('క', '|'), ('న', '|'), ('బ', '|'), ('డు', '|'), ('నె', 'U'), ('ట్లు', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('లు', '|'), ('గా', 'U'), ('య', '|'), ('గ', '|'), ('నం', 'U'), ('దొ', '|'), ('క', '|'), ('రూ', 'U'), ('పు', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
         <is>
           <t>తాలిమితోడుతం దగవు దప్పక నేర్పరి యొప్పుదప్పులం
 బాలన సేయఁ గాకట నుపాయ విహీనుఁడు సేయనేర్చునే?
@@ -2094,32 +1944,29 @@
 ర్జాలమెఱుంగునే తదురు చారురసజ్ఞత బూన భాస్కరా!</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
           <t>[('తా', 'U'), ('లి', '|'), ('మి', '|'), ('తో', 'U'), ('డు', '|'), ('తం', 'U'), ('ద', '|'), ('గ', '|'), ('వు', '|'), ('ద', 'U'), ('ప్ప', '|'), ('క', '|'), ('నే', 'U'), ('ర్ప', '|'), ('రి', '|'), ('యొ', 'U'), ('ప్పు', '|'), ('ద', 'U'), ('ప్పు', '|'), ('లం', 'U'), ('బా', 'U'), ('ల', '|'), ('న', '|'), ('సే', 'U'), ('య', '|'), ('గా', 'U'), ('క', '|'), ('ట', '|'), ('ను', '|'), ('పా', 'U'), ('య', '|'), ('వి', '|'), ('హీ', 'U'), ('ను', '|'), ('డు', '|'), ('సే', 'U'), ('య', '|'), ('నే', 'U'), ('ర్చు', '|'), ('నే', 'U'), ('పా', 'U'), ('ల', '|'), ('ను', '|'), ('నీ', 'U'), ('రు', '|'), ('వే', 'U'), ('ఱు', '|'), ('ప', '|'), ('రు', '|'), ('పం', 'U'), ('గ', '|'), ('మ', '|'), ('రా', 'U'), ('ళ', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('గా', 'U'), ('ని', '|'), ('మా', 'U'), ('ర్జా', 'U'), ('ల', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('నే', 'U'), ('త', '|'), ('దు', '|'), ('రు', '|'), ('చా', 'U'), ('రు', '|'), ('ర', '|'), ('స', 'U'), ('జ్ఞ', '|'), ('త', '|'), ('బూ', 'U'), ('న', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
         <is>
           <t>తాలిమితోఁడ గూరిమిఁ గృతఘ్నునకెయ్యెడ నుత్తమోత్తముల్‌
 మేలొనరించినన్‌ గుణము మిక్కిలి కీడగుఁ, బాముపిల్లకున్‌
@@ -2127,32 +1974,29 @@
 జాలఁగ నంతకంత కొక చాయను, హెచ్చును గాక భాస్కరా!</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
           <t>[('తా', 'U'), ('లి', '|'), ('మి', '|'), ('తో', 'U'), ('డ', '|'), ('గూ', 'U'), ('రి', '|'), ('మి', '|'), ('గృ', '|'), ('త', 'U'), ('ఘ్ను', '|'), ('న', '|'), ('కె', 'U'), ('య్యె', '|'), ('డ', '|'), ('ను', 'U'), ('త్త', '|'), ('మో', 'U'), ('త్త', '|'), ('ముల్', 'U'), ('మే', 'U'), ('లొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('కీ', 'U'), ('డ', '|'), ('గు', '|'), ('బా', 'U'), ('ము', '|'), ('పి', 'U'), ('ల్ల', '|'), ('కున్', 'U'), ('బా', 'U'), ('లి', '|'), ('డి', '|'), ('పెం', 'U'), ('చి', '|'), ('న', 'U'), ('న్వి', '|'), ('ష', '|'), ('ము', '|'), ('పా', 'U'), ('య', '|'), ('గ', '|'), ('నే', 'U'), ('ర్చు', '|'), ('నె', '|'), ('దా', 'U'), ('ని', '|'), ('కో', 'U'), ('ఱ', '|'), ('లం', 'U'), ('జా', 'U'), ('ల', '|'), ('గ', '|'), ('నం', 'U'), ('త', '|'), ('కం', 'U'), ('త', '|'), ('కొ', '|'), ('క', '|'), ('చా', 'U'), ('య', '|'), ('ను', '|'), ('హె', 'U'), ('చ్చు', '|'), ('ను', '|'), ('గా', 'U'), ('క', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
         <is>
           <t>తెలియని కార్యమెల్లఁ గడతేర్చుట కొక్క వివేకిఁ జేకొనన్‌
 వలయు నటైన దిద్దుకొనవచ్చు ప్రయోజన మాంద్య మేమియుం
@@ -2160,32 +2004,29 @@
 గలిగినఁ జక్కఁ జేసికొనుఁ గాదె నరుండది చూచి భాస్కరా!</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
           <t>[('తె', '|'), ('లి', '|'), ('య', '|'), ('ని', '|'), ('కా', 'U'), ('ర్య', '|'), ('మె', 'U'), ('ల్ల', '|'), ('గ', '|'), ('డ', '|'), ('తే', 'U'), ('ర్చు', '|'), ('ట', '|'), ('కొ', 'U'), ('క్క', '|'), ('వి', '|'), ('వే', 'U'), ('కి', '|'), ('జే', 'U'), ('కొ', '|'), ('నన్', 'U'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('న', '|'), ('టై', 'U'), ('న', '|'), ('ది', 'U'), ('ద్దు', '|'), ('కొ', '|'), ('న', '|'), ('వ', 'U'), ('చ్చు', 'U'), ('ప్ర', '|'), ('యో', 'U'), ('జ', '|'), ('న', '|'), ('మాం', 'U'), ('ద్య', '|'), ('మే', 'U'), ('మి', '|'), ('యుం', 'U'), ('గ', '|'), ('ల', '|'), ('గ', '|'), ('దు', '|'), ('ఫా', 'U'), ('ల', '|'), ('మం', 'U'), ('దు', '|'), ('ది', '|'), ('ల', '|'), ('కం', 'U'), ('బి', '|'), ('డు', '|'), ('న', 'U'), ('ప్పు', '|'), ('డు', '|'), ('చే', 'U'), ('త', '|'), ('న', 'U'), ('ద్ద', '|'), ('ముం', 'U'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('న', '|'), ('జ', 'U'), ('క్క', '|'), ('జే', 'U'), ('సి', '|'), ('కొ', '|'), ('ను', '|'), ('గా', 'U'), ('దె', '|'), ('న', '|'), ('రుం', 'U'), ('డ', '|'), ('ది', '|'), ('చూ', 'U'), ('చి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
         <is>
           <t>దక్షుడు లేని యింటికిఁ బదార్థము వేఱొక చోటనుండి వే
 లక్షలు వచ్చుచుండినఁ బలాయనమై చనుఁ, గల్ల గాదు ప్ర
@@ -2193,32 +2034,29 @@
 అక్షయమైన గండి తెగినట్టి తటాకములోన భాస్కరా!</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
           <t>[('ద', 'U'), ('క్షు', '|'), ('డు', '|'), ('లే', 'U'), ('ని', '|'), ('యిం', 'U'), ('టి', '|'), ('కి', '|'), ('బ', '|'), ('దా', 'U'), ('ర్థ', '|'), ('ము', '|'), ('వే', 'U'), ('ఱొ', '|'), ('క', '|'), ('చో', 'U'), ('ట', '|'), ('నుం', 'U'), ('డి', '|'), ('వే', 'U'), ('ల', 'U'), ('క్ష', '|'), ('లు', '|'), ('వ', 'U'), ('చ్చు', '|'), ('చుం', 'U'), ('డి', '|'), ('న', '|'), ('బ', '|'), ('లా', 'U'), ('య', '|'), ('న', '|'), ('మై', 'U'), ('చ', '|'), ('ను', '|'), ('గ', 'U'), ('ల్ల', '|'), ('గా', 'U'), ('దు', 'U'), ('ప్ర', 'U'), ('త్య', 'U'), ('క్ష', '|'), ('ము', '|'), ('వా', 'U'), ('గు', '|'), ('లున్', 'U'), ('వ', '|'), ('ఱ', '|'), ('ద', '|'), ('ల', 'U'), ('న్ని', '|'), ('యు', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('నీ', 'U'), ('రు', '|'), ('ని', 'U'), ('ల్చు', '|'), ('నే', 'U'), ('అ', 'U'), ('క్ష', '|'), ('య', '|'), ('మై', 'U'), ('న', '|'), ('గం', 'U'), ('డి', '|'), ('తె', '|'), ('గి', '|'), ('న', 'U'), ('ట్టి', '|'), ('త', '|'), ('టా', 'U'), ('క', '|'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
         <is>
           <t>దానపరోపకారగుణ ధన్యత చిత్తములోన నెప్పుడున్‌
 లేని వివేకశూన్యునకు లేములు వచ్చినవేల సంపదల్‌
@@ -2226,32 +2064,29 @@
 దైననదేమి పట్టపగలైన నదేమియు లేదు భాస్కరా!</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
           <t>[('దా', 'U'), ('న', '|'), ('ప', '|'), ('రో', 'U'), ('ప', '|'), ('కా', 'U'), ('ర', '|'), ('గు', '|'), ('ణ', '|'), ('ధ', 'U'), ('న్య', '|'), ('త', '|'), ('చి', 'U'), ('త్త', '|'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డున్', 'U'), ('లే', 'U'), ('ని', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('శూ', 'U'), ('న్యు', '|'), ('న', '|'), ('కు', '|'), ('లే', 'U'), ('ము', '|'), ('లు', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('వే', 'U'), ('ల', '|'), ('సం', 'U'), ('ప', '|'), ('దల్', 'U'), ('పూ', 'U'), ('ని', '|'), ('న', '|'), ('వే', 'U'), ('ళ', '|'), ('నొ', 'U'), ('క్క', '|'), ('స', '|'), ('రి', '|'), ('పో', 'U'), ('లు', '|'), ('ను', '|'), ('జీ', 'U'), ('కు', '|'), ('న', '|'), ('క', 'U'), ('ర్థ', '|'), ('రా', 'U'), ('త్రి', '|'), ('యం', 'U'), ('దై', 'U'), ('న', '|'), ('న', '|'), ('దే', 'U'), ('మి', '|'), ('ప', 'U'), ('ట్ట', '|'), ('ప', '|'), ('గ', '|'), ('లై', 'U'), ('న', '|'), ('న', '|'), ('దే', 'U'), ('మి', '|'), ('యు', '|'), ('లే', 'U'), ('దు', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
         <is>
           <t>దానము సేయఁ గోరిన వదాన్యున కీయఁగ శక్తి లేనిచో
 నైనఁ బరోపకారమునకై యొక దిక్కునఁ దెచ్చి యైన నీఁ
@@ -2259,32 +2094,29 @@
 వాన సమస్త జీవులకు వాంఛిత మింపెసలార భాస్కరా!</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
           <t>[('దా', 'U'), ('న', '|'), ('ము', '|'), ('సే', 'U'), ('య', '|'), ('గో', 'U'), ('రి', '|'), ('న', '|'), ('వ', '|'), ('దా', 'U'), ('న్యు', '|'), ('న', '|'), ('కీ', 'U'), ('య', '|'), ('గ', '|'), ('శ', 'U'), ('క్తి', '|'), ('లే', 'U'), ('ని', '|'), ('చో', 'U'), ('నై', 'U'), ('న', '|'), ('బ', '|'), ('రో', 'U'), ('ప', '|'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('కై', 'U'), ('యొ', '|'), ('క', '|'), ('ది', 'U'), ('క్కు', '|'), ('న', '|'), ('దె', 'U'), ('చ్చి', '|'), ('యై', 'U'), ('న', '|'), ('నీ', 'U'), ('బూ', 'U'), ('ను', '|'), ('ను', '|'), ('మే', 'U'), ('ఘు', '|'), ('డం', 'U'), ('బు', '|'), ('ధి', '|'), ('కి', '|'), ('బో', 'U'), ('యి', '|'), ('జ', '|'), ('లం', 'U'), ('బు', '|'), ('ల', '|'), ('దె', 'U'), ('చ్చి', '|'), ('యీ', 'U'), ('య', '|'), ('డే', 'U'), ('వా', 'U'), ('న', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('జీ', 'U'), ('వు', '|'), ('ల', '|'), ('కు', '|'), ('వాం', 'U'), ('ఛి', '|'), ('త', '|'), ('మిం', 'U'), ('పె', '|'), ('స', '|'), ('లా', 'U'), ('ర', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
         <is>
           <t>దానముఁ జేయనేరని యధార్మికు సంపద యుండి యుండియున్‌
 దానె పలాయనంబగుట తథ్యము; బూరుగు మ్రాను గాచినన్‌,
@@ -2292,32 +2124,29 @@
 గానలలోన నేమిటికిఁగాక, యభోజ్యములౌట భాస్కరా!</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
           <t>[('దా', 'U'), ('న', '|'), ('ము', '|'), ('జే', 'U'), ('య', '|'), ('నే', 'U'), ('ర', '|'), ('ని', '|'), ('య', '|'), ('ధా', 'U'), ('ర్మి', '|'), ('కు', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('యుం', 'U'), ('డి', '|'), ('యుం', 'U'), ('డి', '|'), ('యున్', 'U'), ('దా', 'U'), ('నె', '|'), ('ప', '|'), ('లా', 'U'), ('య', '|'), ('నం', 'U'), ('బ', '|'), ('గు', '|'), ('ట', '|'), ('త', 'U'), ('థ్య', '|'), ('ము', '|'), ('బూ', 'U'), ('రు', '|'), ('గు', '|'), ('మ్రా', 'U'), ('ను', '|'), ('గా', 'U'), ('చి', '|'), ('న', 'U'), ('న్దా', 'U'), ('ని', '|'), ('ఫ', '|'), ('లం', 'U'), ('బు', '|'), ('లూ', 'U'), ('ర', '|'), ('క', '|'), ('వృ', '|'), ('థా', 'U'), ('ప', '|'), ('డి', '|'), ('పో', 'U'), ('వ', '|'), ('వె', '|'), ('యెం', 'U'), ('డి', '|'), ('గా', 'U'), ('లి', '|'), ('చే', 'U'), ('గా', 'U'), ('న', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('నే', 'U'), ('మి', '|'), ('టి', '|'), ('కి', '|'), ('గా', 'U'), ('క', '|'), ('య', '|'), ('భో', 'U'), ('జ్య', '|'), ('ము', '|'), ('లౌ', 'U'), ('ట', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
         <is>
           <t>నడవక చిక్కిలేమి యగునాఁడు నిజోదర పోషణార్థమై
 యడిగి భుజించుటల్‌ నరుల కారయ వ్యంగ్యముకాదు; పాండవుల్‌
@@ -2325,32 +2154,29 @@
 గుడువరె యేకచక్రపురిఁ గుంతియుఁ దారొకచోట భాస్కరా!</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('డ', '|'), ('వ', '|'), ('క', '|'), ('చి', 'U'), ('క్కి', '|'), ('లే', 'U'), ('మి', '|'), ('య', '|'), ('గు', '|'), ('నా', 'U'), ('డు', '|'), ('ని', '|'), ('జో', 'U'), ('ద', '|'), ('ర', '|'), ('పో', 'U'), ('ష', '|'), ('ణా', 'U'), ('ర్థ', '|'), ('మై', 'U'), ('య', '|'), ('డి', '|'), ('గి', '|'), ('భు', '|'), ('జిం', 'U'), ('చు', '|'), ('టల్', 'U'), ('న', '|'), ('రు', '|'), ('ల', '|'), ('కా', 'U'), ('ర', '|'), ('య', 'U'), ('వ్యం', 'U'), ('గ్య', '|'), ('ము', '|'), ('కా', 'U'), ('దు', '|'), ('పాం', 'U'), ('డ', '|'), ('వుల్', 'U'), ('గ', '|'), ('డు', '|'), ('బ', '|'), ('ల', '|'), ('శా', 'U'), ('లు', '|'), ('లే', 'U'), ('వు', '|'), ('రు', '|'), ('న', '|'), ('ఖం', 'U'), ('డ', '|'), ('వి', '|'), ('భూ', 'U'), ('తి', '|'), ('దొ', '|'), ('లం', 'U'), ('గి', '|'), ('భై', 'U'), ('క్ష్య', '|'), ('ముల్', 'U'), ('గు', '|'), ('డు', '|'), ('వ', '|'), ('రె', '|'), ('యే', 'U'), ('క', '|'), ('చ', 'U'), ('క్ర', '|'), ('పు', '|'), ('రి', '|'), ('గుం', 'U'), ('తి', '|'), ('యు', '|'), ('దా', 'U'), ('రొ', '|'), ('క', '|'), ('చో', 'U'), ('ట', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
         <is>
           <t>నుడువుల నేర్పు చాలని మనుష్యుఁడెఱుంగక తప్పనాడినం
 గడుఁ గృపతోఁ జెలంగుదురు కాని యదల్పరు తజ్ఞులెల్లఁ; ద
@@ -2358,32 +2184,29 @@
 దొడుగుదు రింతెకాని పడఁద్రోయుదురే యెవరైన భాస్కరా!</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
           <t>[('ను', '|'), ('డు', '|'), ('వు', '|'), ('ల', '|'), ('నే', 'U'), ('ర్పు', '|'), ('చా', 'U'), ('ల', '|'), ('ని', '|'), ('మ', '|'), ('ను', 'U'), ('ష్యు', '|'), ('డె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('క', '|'), ('త', 'U'), ('ప్ప', '|'), ('నా', 'U'), ('డి', '|'), ('నం', 'U'), ('గ', '|'), ('డు', '|'), ('గృ', '|'), ('ప', '|'), ('తో', 'U'), ('జె', '|'), ('లం', 'U'), ('గు', '|'), ('దు', '|'), ('రు', '|'), ('కా', 'U'), ('ని', '|'), ('య', '|'), ('ద', 'U'), ('ల్ప', '|'), ('రు', '|'), ('త', 'U'), ('జ్ఞు', '|'), ('లె', 'U'), ('ల్ల', '|'), ('ద', 'U'), ('ప్ప', '|'), ('ట', '|'), ('డు', '|'), ('గు', '|'), ('లు', '|'), ('వె', 'U'), ('ట్టు', '|'), ('చు', 'U'), ('న్న', '|'), ('డు', '|'), ('చు', '|'), ('న', 'U'), ('ప్పు', '|'), ('డు', '|'), ('బా', 'U'), ('లు', '|'), ('ని', '|'), ('ము', 'U'), ('ద్దు', '|'), ('చే', 'U'), ('య', '|'), ('గా', 'U'), ('దొ', '|'), ('డు', '|'), ('గు', '|'), ('దు', '|'), ('రిం', 'U'), ('తె', '|'), ('కా', 'U'), ('ని', '|'), ('ప', '|'), ('డ', '|'), ('ద్రో', 'U'), ('యు', '|'), ('దు', '|'), ('రే', 'U'), ('యె', '|'), ('వ', '|'), ('రై', 'U'), ('న', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
         <is>
           <t>నేరిచి బుద్ధిమంతుఁడతి నీతివివేకము దెల్పినం జెడం
 గారణమున్నవాని కది కైకొనఁగూడదు నిక్కమే; దురా
@@ -2391,32 +2214,29 @@
 జేరువయైననాఁడు నిరసించి విభీషణు బుద్ధి భాస్కరా!</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
           <t>[('నే', 'U'), ('రి', '|'), ('చి', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('మం', 'U'), ('తు', '|'), ('డ', '|'), ('తి', '|'), ('నీ', 'U'), ('తి', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('ము', '|'), ('దె', 'U'), ('ల్పి', '|'), ('నం', 'U'), ('జె', '|'), ('డం', 'U'), ('గా', 'U'), ('ర', '|'), ('ణ', '|'), ('ము', 'U'), ('న్న', '|'), ('వా', 'U'), ('ని', '|'), ('క', '|'), ('ది', '|'), ('కై', 'U'), ('కొ', '|'), ('న', '|'), ('గూ', 'U'), ('డ', '|'), ('దు', '|'), ('ని', 'U'), ('క్క', '|'), ('మే', 'U'), ('దు', '|'), ('రా', 'U'), ('చా', 'U'), ('రు', '|'), ('డు', '|'), ('రా', 'U'), ('వ', '|'), ('ణా', 'U'), ('సు', '|'), ('రు', '|'), ('డ', '|'), ('స', 'U'), ('హ్య', '|'), ('ము', '|'), ('నొం', 'U'), ('ద', '|'), ('డె', '|'), ('చే', 'U'), ('టు', '|'), ('కా', 'U'), ('ల', '|'), ('ముం', 'U'), ('జే', 'U'), ('రు', '|'), ('వ', '|'), ('యై', 'U'), ('న', '|'), ('నా', 'U'), ('డు', '|'), ('ని', '|'), ('ర', '|'), ('సిం', 'U'), ('చి', '|'), ('వి', '|'), ('భీ', 'U'), ('ష', '|'), ('ణు', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">నొగిలిన వేళ నెంతటి ఘనుండును దన్నొక రొక్క నేర్పుతో
 నగపడి ప్రోదిసేయక తనంతట బల్మికిరాడు నిక్కమే;
@@ -2424,32 +2244,29 @@
 బెగయగఁ ద్రోచి యూదక మఱెట్లు రవుల్కొన నేర్చు భాస్కరా!	</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
           <t>[('నొ', '|'), ('గి', '|'), ('లి', '|'), ('న', '|'), ('వే', 'U'), ('ళ', '|'), ('నెం', 'U'), ('త', '|'), ('టి', '|'), ('ఘ', '|'), ('నుం', 'U'), ('డు', '|'), ('ను', '|'), ('ద', 'U'), ('న్నొ', '|'), ('క', '|'), ('రొ', 'U'), ('క్క', '|'), ('నే', 'U'), ('ర్పు', '|'), ('తో', 'U'), ('న', '|'), ('గ', '|'), ('ప', '|'), ('డి', 'U'), ('ప్రో', 'U'), ('ది', '|'), ('సే', 'U'), ('య', '|'), ('క', '|'), ('త', '|'), ('నం', 'U'), ('త', '|'), ('ట', '|'), ('బ', 'U'), ('ల్మి', '|'), ('కి', '|'), ('రా', 'U'), ('డు', '|'), ('ని', 'U'), ('క్క', '|'), ('మే', 'U'), ('జ', '|'), ('గ', '|'), ('ము', '|'), ('న', '|'), ('న', 'U'), ('గ్ని', '|'), ('యై', 'U'), ('న', '|'), ('గ', '|'), ('డు', '|'), ('స', 'U'), ('న్న', '|'), ('గి', '|'), ('లం', 'U'), ('బ', '|'), ('డి', '|'), ('యు', 'U'), ('న్న', '|'), ('నిం', 'U'), ('ధ', '|'), ('నం', 'U'), ('బె', '|'), ('గ', '|'), ('య', '|'), ('గ', '|'), ('ద్రో', 'U'), ('చి', '|'), ('యూ', 'U'), ('ద', '|'), ('క', '|'), ('మ', '|'), ('ఱె', 'U'), ('ట్లు', '|'), ('ర', '|'), ('వు', 'U'), ('ల్కొ', '|'), ('న', '|'), ('నే', 'U'), ('ర్చు', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
         <is>
           <t>పండితులైనవారు దిగువం దగనుండగ, నల్పుఁ డొక్కడు
 ద్ధండతఁ బీఠమెక్కిన బుధ ప్రకరంబులకేమి యెగ్గగున్‌;
@@ -2457,32 +2274,29 @@
 రుండ మదేభ సింహనికురంబములుండవె చేరి భాస్కరా!</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
           <t>[('పం', 'U'), ('డి', '|'), ('తు', '|'), ('లై', 'U'), ('న', '|'), ('వా', 'U'), ('రు', '|'), ('ది', '|'), ('గు', '|'), ('వం', 'U'), ('ద', '|'), ('గ', '|'), ('నుం', 'U'), ('డ', '|'), ('గ', '|'), ('న', 'U'), ('ల్పు', '|'), ('డొ', 'U'), ('క్క', '|'), ('డు', 'U'), ('ద్ధం', 'U'), ('డ', '|'), ('త', '|'), ('బీ', 'U'), ('ఠ', '|'), ('మె', 'U'), ('క్కి', '|'), ('న', '|'), ('బు', '|'), ('ధ', 'U'), ('ప్ర', '|'), ('క', '|'), ('రం', 'U'), ('బు', '|'), ('ల', '|'), ('కే', 'U'), ('మి', '|'), ('యె', 'U'), ('గ్గ', '|'), ('గు', 'U'), ('న్కొం', 'U'), ('డొ', '|'), ('క', '|'), ('కో', 'U'), ('తి', '|'), ('జె', 'U'), ('ట్టు', '|'), ('కొ', '|'), ('న', '|'), ('కొ', 'U'), ('మ్మ', '|'), ('ల', '|'), ('నుం', 'U'), ('డ', '|'), ('గ', 'U'), ('గ్రిం', 'U'), ('ద', '|'), ('గం', 'U'), ('డ', '|'), ('భే', 'U'), ('రుం', 'U'), ('డ', '|'), ('మ', '|'), ('దే', 'U'), ('భ', '|'), ('సిం', 'U'), ('హ', '|'), ('ని', '|'), ('కు', '|'), ('రం', 'U'), ('బ', '|'), ('ము', '|'), ('లుం', 'U'), ('డ', '|'), ('వె', '|'), ('చే', 'U'), ('రి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
         <is>
           <t>పట్టుగ నిక్కుచున్‌ మదముఁ బట్టి మహాత్ములఁ దూలనాడినం
 బట్టిన కార్యముల్‌ చెడును బ్రాణమువోవు నిరర్థదోషముల్‌
@@ -2490,32 +2304,29 @@
 ముట్టక పోయి దక్షునికి మోసము వచ్చెఁగదయ్య భాస్కరా!</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
           <t>[('ప', 'U'), ('ట్టు', '|'), ('గ', '|'), ('ని', 'U'), ('క్కు', '|'), ('చున్', 'U'), ('మ', '|'), ('ద', '|'), ('ము', '|'), ('బ', 'U'), ('ట్టి', '|'), ('మ', '|'), ('హా', 'U'), ('త్ము', '|'), ('ల', '|'), ('దూ', 'U'), ('ల', '|'), ('నా', 'U'), ('డి', '|'), ('నం', 'U'), ('బ', 'U'), ('ట్టి', '|'), ('న', '|'), ('కా', 'U'), ('ర్య', '|'), ('ముల్', 'U'), ('చె', '|'), ('డు', '|'), ('ను', 'U'), ('బ్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('వో', 'U'), ('వు', '|'), ('ని', '|'), ('ర', 'U'), ('ర్థ', '|'), ('దో', 'U'), ('ష', '|'), ('ముల్', 'U'), ('పు', 'U'), ('ట్టు', '|'), ('మ', '|'), ('హే', 'U'), ('శు', '|'), ('గా', 'U'), ('ద', '|'), ('ని', '|'), ('కు', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('నొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('న', '|'), ('య', 'U'), ('జ్ఞ', '|'), ('తం', 'U'), ('త్ర', '|'), ('ముల్', 'U'), ('ము', 'U'), ('ట్ట', '|'), ('క', '|'), ('పో', 'U'), ('యి', '|'), ('ద', 'U'), ('క్షు', '|'), ('ని', '|'), ('కి', '|'), ('మో', 'U'), ('స', '|'), ('ము', '|'), ('వ', 'U'), ('చ్చె', '|'), ('గ', '|'), ('ద', 'U'), ('య్య', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
         <is>
           <t>పరహితమైన కార్య మతిభారము తోడిదియైనఁ బూను స
 త్పురుషుఁడు లోకముల్పొగడఁ బూర్వమునందొక ఱాలవర్షమున్‌
@@ -2523,32 +2334,29 @@
 గిరినొక కేల నెత్తెనట కృష్ణుఁడు ఛత్రము భాతి భాస్కరా!</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ర', '|'), ('హి', '|'), ('త', '|'), ('మై', 'U'), ('న', '|'), ('కా', 'U'), ('ర్య', '|'), ('మ', '|'), ('తి', '|'), ('భా', 'U'), ('ర', '|'), ('ము', '|'), ('తో', 'U'), ('డి', '|'), ('ది', '|'), ('యై', 'U'), ('న', '|'), ('బూ', 'U'), ('ను', '|'), ('స', 'U'), ('త్పు', '|'), ('రు', '|'), ('షు', '|'), ('డు', '|'), ('లో', 'U'), ('క', '|'), ('ము', 'U'), ('ల్పొ', '|'), ('గ', '|'), ('డ', '|'), ('బూ', 'U'), ('ర్వ', '|'), ('ము', '|'), ('నం', 'U'), ('దొ', '|'), ('క', '|'), ('ఱా', 'U'), ('ల', '|'), ('వ', 'U'), ('ర్ష', '|'), ('మున్', 'U'), ('గు', '|'), ('రి', '|'), ('య', '|'), ('గ', '|'), ('జొ', 'U'), ('చ్చి', '|'), ('నన్', 'U'), ('గ', '|'), ('ది', '|'), ('సి', '|'), ('గొ', 'U'), ('బ్బు', '|'), ('న', '|'), ('గో', 'U'), ('జ', '|'), ('న', '|'), ('ర', 'U'), ('క్ష', '|'), ('ణా', 'U'), ('ర్థ', '|'), ('మై', 'U'), ('గి', '|'), ('రి', '|'), ('నొ', '|'), ('క', '|'), ('కే', 'U'), ('ల', '|'), ('నె', 'U'), ('త్తె', '|'), ('న', '|'), ('ట', '|'), ('కృ', 'U'), ('ష్ణు', '|'), ('డు', '|'), ('ఛ', 'U'), ('త్ర', '|'), ('ము', '|'), ('భా', 'U'), ('తి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">పలుచని హీనమానవుఁడు పాటిఁదలంపక నిష్ఠురోక్తులం
 బలుకుచు నుండుఁగాని, మతి భాసురుఁడైన గుణప్రపూర్ణుఁడ
@@ -2556,32 +2364,29 @@
 దొలకుచునుండుఁ గాని మఱితొల్కునె నిండుఘటంబు భాస్కరా!	</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('లు', '|'), ('చ', '|'), ('ని', '|'), ('హీ', 'U'), ('న', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('డు', '|'), ('పా', 'U'), ('టి', '|'), ('ద', '|'), ('లం', 'U'), ('ప', '|'), ('క', '|'), ('ని', 'U'), ('ష్ఠు', '|'), ('రో', 'U'), ('క్తు', '|'), ('లం', 'U'), ('బ', '|'), ('లు', '|'), ('కు', '|'), ('చు', '|'), ('నుం', 'U'), ('డు', '|'), ('గా', 'U'), ('ని', '|'), ('మ', '|'), ('తి', '|'), ('భా', 'U'), ('సు', '|'), ('రు', '|'), ('డై', 'U'), ('న', '|'), ('గు', '|'), ('ణ', 'U'), ('ప్ర', '|'), ('పూ', 'U'), ('ర్ణు', '|'), ('డ', 'U'), ('ప్ప', '|'), ('లు', '|'), ('కు', '|'), ('ల', '|'), ('బ', 'U'), ('ల్క', '|'), ('బో', 'U'), ('వ', '|'), ('డు', '|'), ('ని', '|'), ('బ', 'U'), ('ద్ధి', '|'), ('గ', '|'), ('నె', 'U'), ('ట్ల', '|'), ('న', '|'), ('వె', 'U'), ('ల్తి', '|'), ('కుం', 'U'), ('డ', '|'), ('దా', 'U'), ('దొ', '|'), ('ల', '|'), ('కు', '|'), ('చు', '|'), ('నుం', 'U'), ('డు', '|'), ('గా', 'U'), ('ని', '|'), ('మ', '|'), ('ఱి', '|'), ('తొ', 'U'), ('ల్కు', '|'), ('నె', '|'), ('నిం', 'U'), ('డు', '|'), ('ఘ', '|'), ('టం', 'U'), ('బు', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
         <is>
           <t>పలుమఱు సజ్జనుండు ప్రియభాషలె పల్కుఁ గఠోరవాక్యముల్‌
 బలుకఁడొకానొకప్పుడు నవి పల్కినన్‌ఁ గీడును గాదు నిక్కమే;
@@ -2589,32 +2394,29 @@
 శిలలగు నోటు వేగిరమె శీతలనీరము గాక భాస్కరా!</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('లు', '|'), ('మ', '|'), ('ఱు', '|'), ('స', 'U'), ('జ్జ', '|'), ('నుం', 'U'), ('డు', 'U'), ('ప్రి', '|'), ('య', '|'), ('భా', 'U'), ('ష', '|'), ('లె', '|'), ('ప', 'U'), ('ల్కు', '|'), ('గ', '|'), ('ఠో', 'U'), ('ర', '|'), ('వా', 'U'), ('క్య', '|'), ('ముల్', 'U'), ('బ', '|'), ('లు', '|'), ('క', '|'), ('డొ', '|'), ('కా', 'U'), ('నొ', '|'), ('క', 'U'), ('ప్పు', '|'), ('డు', '|'), ('న', '|'), ('వి', '|'), ('ప', 'U'), ('ల్కి', '|'), ('నన్', 'U'), ('గీ', 'U'), ('డు', '|'), ('ను', '|'), ('గా', 'U'), ('దు', '|'), ('ని', 'U'), ('క్క', '|'), ('మే', 'U'), ('చ', '|'), ('లు', '|'), ('వ', '|'), ('కు', '|'), ('వ', 'U'), ('చ్చి', '|'), ('మే', 'U'), ('ఘు', '|'), ('డొ', '|'), ('క', '|'), ('జా', 'U'), ('డ', '|'), ('ను', '|'), ('దా', 'U'), ('వ', '|'), ('డ', '|'), ('గం', 'U'), ('డ్ల', '|'), ('రా', 'U'), ('ల్చి', '|'), ('నన్', 'U'), ('శి', '|'), ('ల', '|'), ('ల', '|'), ('గు', '|'), ('నో', 'U'), ('టు', '|'), ('వే', 'U'), ('గి', '|'), ('ర', '|'), ('మె', '|'), ('శీ', 'U'), ('త', '|'), ('ల', '|'), ('నీ', 'U'), ('ర', '|'), ('ము', '|'), ('గా', 'U'), ('క', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
         <is>
           <t>పాపపుఁ ద్రోవవాని కొకపట్టున మేను వికాసమొందినన్‌
 లోపల దుర్గుణంబె ప్రబలుం గద! నమ్మగఁ గూడ దాతనిన్‌;
@@ -2622,32 +2424,29 @@
 రూపున దానిలోఁగల విరుద్ధపుఁ జేదు నశించు భాస్కరా!</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
           <t>[('పా', 'U'), ('ప', '|'), ('పు', '|'), ('ద్రో', 'U'), ('వ', '|'), ('వా', 'U'), ('ని', '|'), ('కొ', '|'), ('క', '|'), ('ప', 'U'), ('ట్టు', '|'), ('న', '|'), ('మే', 'U'), ('ను', '|'), ('వి', '|'), ('కా', 'U'), ('స', '|'), ('మొం', 'U'), ('ది', '|'), ('నన్', 'U'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('దు', 'U'), ('ర్గు', '|'), ('ణం', 'U'), ('బె', 'U'), ('ప్ర', '|'), ('బ', '|'), ('లుం', 'U'), ('గ', '|'), ('ద', '|'), ('న', 'U'), ('మ్మ', '|'), ('గ', '|'), ('గూ', 'U'), ('డ', '|'), ('దా', 'U'), ('త', '|'), ('ని', 'U'), ('న్బా', 'U'), ('ప', '|'), ('ట', '|'), ('కా', 'U'), ('య', '|'), ('కున్', 'U'), ('ను', '|'), ('ను', '|'), ('పు', '|'), ('పై', 'U'), ('ప', '|'), ('యి', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('గ', 'U'), ('ల్గు', '|'), ('గా', 'U'), ('క', '|'), ('యే', 'U'), ('రూ', 'U'), ('పు', '|'), ('న', '|'), ('దా', 'U'), ('ని', '|'), ('లో', 'U'), ('గ', '|'), ('ల', '|'), ('వి', '|'), ('రు', 'U'), ('ద్ధ', '|'), ('పు', '|'), ('జే', 'U'), ('దు', '|'), ('న', '|'), ('శిం', 'U'), ('చు', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
         <is>
           <t>పూనిన భాగ్యరేఖ చెడిపోయిన పిమ్మట నెట్టిమానవుం
 డైనను వాని నెవ్వరుఁ బ్రియంబునఁ బల్కరు పిల్వరెచ్చటం
@@ -2655,32 +2454,29 @@
 హీనత నొంది యున్న యెడ నెవ్వరు ముట్టుదురయ్య భాస్కరా!</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
           <t>[('పూ', 'U'), ('ని', '|'), ('న', '|'), ('భా', 'U'), ('గ్య', '|'), ('రే', 'U'), ('ఖ', '|'), ('చె', '|'), ('డి', '|'), ('పో', 'U'), ('యి', '|'), ('న', '|'), ('పి', 'U'), ('మ్మ', '|'), ('ట', '|'), ('నె', 'U'), ('ట్టి', '|'), ('మా', 'U'), ('న', '|'), ('వుం', 'U'), ('డై', 'U'), ('న', '|'), ('ను', '|'), ('వా', 'U'), ('ని', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రు', 'U'), ('బ్రి', '|'), ('యం', 'U'), ('బు', '|'), ('న', '|'), ('బ', 'U'), ('ల్క', '|'), ('రు', '|'), ('పి', 'U'), ('ల్వ', '|'), ('రె', 'U'), ('చ్చ', '|'), ('టం', 'U'), ('దా', 'U'), ('న', '|'), ('ది', '|'), ('యె', 'U'), ('ట్లొ', '|'), ('కో', 'U'), ('య', '|'), ('ని', '|'), ('న', '|'), ('ద', 'U'), ('థ్య', '|'), ('ము', '|'), ('పు', 'U'), ('ష్ప', '|'), ('ము', '|'), ('వా', 'U'), ('డి', '|'), ('వా', 'U'), ('స', '|'), ('నా', 'U'), ('హీ', 'U'), ('న', '|'), ('త', '|'), ('నొం', 'U'), ('ది', '|'), ('యు', 'U'), ('న్న', '|'), ('యె', '|'), ('డ', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రు', '|'), ('ము', 'U'), ('ట్టు', '|'), ('దు', '|'), ('ర', 'U'), ('య్య', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
         <is>
           <t>పూరిత సద్గుణంబు గల పుణ్యున కించుక రూప సంపదల్‌
 దూరములైన వాని యెడ దొడ్డగఁ జూతురు బుద్ధిమంతు లె
@@ -2688,32 +2484,29 @@
 ర్జూర ఫలంబులం ప్రియము చొప్పడ లోకులు గొంట భాస్కరా!</t>
         </is>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
           <t>[('పూ', 'U'), ('రి', '|'), ('త', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణం', 'U'), ('బు', '|'), ('గ', '|'), ('ల', '|'), ('పు', 'U'), ('ణ్యు', '|'), ('న', '|'), ('కిం', 'U'), ('చు', '|'), ('క', '|'), ('రూ', 'U'), ('ప', '|'), ('సం', 'U'), ('ప', '|'), ('దల్', 'U'), ('దూ', 'U'), ('ర', '|'), ('ము', '|'), ('లై', 'U'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('యె', '|'), ('డ', '|'), ('దొ', 'U'), ('డ్డ', '|'), ('గ', '|'), ('జూ', 'U'), ('తు', '|'), ('రు', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('మం', 'U'), ('తు', '|'), ('లె', 'U'), ('ట్లా', 'U'), ('ర', '|'), ('య', '|'), ('గొ', 'U'), ('గ్గు', '|'), ('లై', 'U'), ('న', '|'), ('మ', '|'), ('ఱి', '|'), ('యం', 'U'), ('దు', '|'), ('ల', '|'), ('మా', 'U'), ('ధు', '|'), ('రి', '|'), ('చూ', 'U'), ('చి', '|'), ('కా', 'U'), ('దె', '|'), ('ఖ', 'U'), ('ర్జూ', 'U'), ('ర', '|'), ('ఫ', '|'), ('లం', 'U'), ('బు', '|'), ('లం', 'U'), ('ప్రి', '|'), ('య', '|'), ('ము', '|'), ('చొ', 'U'), ('ప్ప', '|'), ('డ', '|'), ('లో', 'U'), ('కు', '|'), ('లు', '|'), ('గొం', 'U'), ('ట', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
         <is>
           <t>ప్రల్లదనంబుచే నెఱుక పాటొక యింతయులేక యెచ్చటన్‌
 బల్లిదుఁడైన సత్ప్రభు నబద్ధములాడినఁ గ్రుంగిపోదు; రె
@@ -2721,32 +2514,29 @@
 గల్లలు గృష్ణునుం బలికి కాదె హతంబగుటెల్ల భాస్కరా!</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
           <t>[('ప్ర', 'U'), ('ల్ల', '|'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('చే', 'U'), ('నె', '|'), ('ఱు', '|'), ('క', '|'), ('పా', 'U'), ('టొ', '|'), ('క', '|'), ('యిం', 'U'), ('త', '|'), ('యు', '|'), ('లే', 'U'), ('క', '|'), ('యె', 'U'), ('చ్చ', '|'), ('టన్', 'U'), ('బ', 'U'), ('ల్లి', '|'), ('దు', '|'), ('డై', 'U'), ('న', '|'), ('స', 'U'), ('త్ప్ర', '|'), ('భు', '|'), ('న', '|'), ('బ', 'U'), ('ద్ధ', '|'), ('ము', '|'), ('లా', 'U'), ('డి', '|'), ('న', 'U'), ('గ్రుం', 'U'), ('గి', '|'), ('పో', 'U'), ('దు', '|'), ('రె', 'U'), ('ట్ల', 'U'), ('ల్ల', '|'), ('స', '|'), ('భా', 'U'), ('స్థ', '|'), ('లిం', 'U'), ('గు', '|'), ('మ', '|'), ('తు', '|'), ('లై', 'U'), ('శి', '|'), ('శు', '|'), ('పా', 'U'), ('లు', '|'), ('డు', '|'), ('దం', 'U'), ('త', '|'), ('వ', 'U'), ('క్త్రు', '|'), ('డుం', 'U'), ('గ', 'U'), ('ల్ల', '|'), ('లు', '|'), ('గృ', 'U'), ('ష్ణు', '|'), ('నుం', 'U'), ('బ', '|'), ('లి', '|'), ('కి', '|'), ('కా', 'U'), ('దె', '|'), ('హ', '|'), ('తం', 'U'), ('బ', '|'), ('గు', '|'), ('టె', 'U'), ('ల్ల', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
         <is>
           <t>ప్రేమను గూర్చి యల్పునకుఁ బెద్దతనంబును దొడ్డవానికిం
 దా మతితుచ్ఛపుంబని నెదం బరికింపగ యీయరాదుగా
@@ -2754,32 +2544,29 @@
 దోమఁగ వచ్చునే మిగులఁ దోఁచని చేఁతగు గాక భాస్కరా!</t>
         </is>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
           <t>[('ప్రే', 'U'), ('మ', '|'), ('ను', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('య', 'U'), ('ల్పు', '|'), ('న', '|'), ('కు', '|'), ('బె', 'U'), ('ద్ద', '|'), ('త', '|'), ('నం', 'U'), ('బు', '|'), ('ను', '|'), ('దొ', 'U'), ('డ్డ', '|'), ('వా', 'U'), ('ని', '|'), ('కిం', 'U'), ('దా', 'U'), ('మ', '|'), ('తి', '|'), ('తు', 'U'), ('చ్ఛ', '|'), ('పుం', 'U'), ('బ', '|'), ('ని', '|'), ('నె', '|'), ('దం', 'U'), ('బ', '|'), ('రి', '|'), ('కిం', 'U'), ('ప', '|'), ('గ', '|'), ('యీ', 'U'), ('య', '|'), ('రా', 'U'), ('దు', '|'), ('గా', 'U'), ('వా', 'U'), ('మ', '|'), ('క', '|'), ('రం', 'U'), ('బు', '|'), ('తో', 'U'), ('డ', '|'), ('గ', '|'), ('డు', '|'), ('వం', 'U'), ('గు', '|'), ('డి', '|'), ('చే', 'U'), ('త', '|'), ('న', '|'), ('పా', 'U'), ('న', '|'), ('మా', 'U'), ('ర్గ', '|'), ('ముం', 'U'), ('దో', 'U'), ('మ', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నే', 'U'), ('మి', '|'), ('గు', '|'), ('ల', '|'), ('దో', 'U'), ('చ', '|'), ('ని', '|'), ('చే', 'U'), ('త', '|'), ('గు', '|'), ('గా', 'U'), ('క', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
         <is>
           <t>ఫలమతి సూక్ష్మమైనను నృపాలుడు మంచిగుణాఢ్యుడైనచో
 నెలమి వివేకులాతని కపేక్షయొనర్తు; రదెట్లు చంద్రికా
@@ -2787,32 +2574,29 @@
 చలువ గలట్టివాఁడగుటఁ జందురు నెంతయుఁ గోరి భాస్కరా!</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
           <t>[('ఫ', '|'), ('ల', '|'), ('మ', '|'), ('తి', '|'), ('సూ', 'U'), ('క్ష్మ', '|'), ('మై', 'U'), ('న', '|'), ('ను', '|'), ('నృ', '|'), ('పా', 'U'), ('లు', '|'), ('డు', '|'), ('మం', 'U'), ('చి', '|'), ('గు', '|'), ('ణా', 'U'), ('ఢ్యు', '|'), ('డై', 'U'), ('న', '|'), ('చో', 'U'), ('నె', '|'), ('ల', '|'), ('మి', '|'), ('వి', '|'), ('వే', 'U'), ('కు', '|'), ('లా', 'U'), ('త', '|'), ('ని', '|'), ('క', '|'), ('పే', 'U'), ('క్ష', '|'), ('యొ', '|'), ('న', 'U'), ('ర్తు', '|'), ('ర', '|'), ('దె', 'U'), ('ట్లు', '|'), ('చం', 'U'), ('ద్రి', '|'), ('కా', 'U'), ('వి', '|'), ('ల', '|'), ('స', '|'), ('న', '|'), ('మై', 'U'), ('న', '|'), ('దా', 'U'), ('మ', '|'), ('ను', '|'), ('భ', '|'), ('విం', 'U'), ('ప', '|'), ('జ', '|'), ('కో', 'U'), ('ర', '|'), ('ము', '|'), ('లా', 'U'), ('స', '|'), ('జే', 'U'), ('ర', '|'), ('వే', 'U'), ('చ', '|'), ('లు', '|'), ('వ', '|'), ('గ', '|'), ('ల', 'U'), ('ట్టి', '|'), ('వా', 'U'), ('డ', '|'), ('గు', '|'), ('ట', '|'), ('జం', 'U'), ('దు', '|'), ('రు', '|'), ('నెం', 'U'), ('త', '|'), ('యు', '|'), ('గో', 'U'), ('రి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
         <is>
           <t>బంధుర సద్గుణాఖ్యుఁ డొక పట్టున లంపట నొందియైన దు
 స్సంధిఁ దలంపఁ డన్యులకుఁ జాల హితం బొనరించుఁ గాక, శ్రీ
@@ -2820,32 +2604,29 @@
 గంధములాత్మఁ బుట్టఁ దఱుఁగంబడి యుండుటలెల్ల భాస్కరా!</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
           <t>[('బం', 'U'), ('ధు', '|'), ('ర', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణా', 'U'), ('ఖ్యు', '|'), ('డొ', '|'), ('క', '|'), ('ప', 'U'), ('ట్టు', '|'), ('న', '|'), ('లం', 'U'), ('ప', '|'), ('ట', '|'), ('నొం', 'U'), ('ది', '|'), ('యై', 'U'), ('న', '|'), ('దు', 'U'), ('స్సం', 'U'), ('ధి', '|'), ('ద', '|'), ('లం', 'U'), ('ప', '|'), ('డ', 'U'), ('న్యు', '|'), ('ల', '|'), ('కు', '|'), ('జా', 'U'), ('ల', '|'), ('హి', '|'), ('తం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('చు', '|'), ('గా', 'U'), ('క', 'U'), ('శ్రీ', 'U'), ('గం', 'U'), ('ధ', '|'), ('పు', '|'), ('జె', 'U'), ('క్క', '|'), ('రా', 'U'), ('గి', '|'), ('లి', '|'), ('చు', '|'), ('గా', 'U'), ('దె', '|'), ('శ', '|'), ('రీ', 'U'), ('రు', '|'), ('ల', '|'), ('కు', 'U'), ('త్స', '|'), ('వా', 'U'), ('ర్థ', '|'), ('మై', 'U'), ('గం', 'U'), ('ధ', '|'), ('ము', '|'), ('లా', 'U'), ('త్మ', '|'), ('బు', 'U'), ('ట్ట', '|'), ('ద', '|'), ('ఱు', '|'), ('గం', 'U'), ('బ', '|'), ('డి', '|'), ('యుం', 'U'), ('డు', '|'), ('ట', '|'), ('లె', 'U'), ('ల్ల', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
         <is>
           <t>బలము దొలంగు కాలమునఁ బ్రాభవసంపదలెంత ధన్యుఁడున్‌
 నిలుపుకొనంగనోపఁ; డది నిశ్చయ మర్జునుఁడీశ్వరాదులం
@@ -2853,32 +2634,29 @@
 బలువుర నీయఁడే నిలువఁ బట్ట సమర్థుఁడు గాక భాస్కరా!</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
           <t>[('బ', '|'), ('ల', '|'), ('ము', '|'), ('దొ', '|'), ('లం', 'U'), ('గు', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('న', 'U'), ('బ్రా', 'U'), ('భ', '|'), ('వ', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('లెం', 'U'), ('త', '|'), ('ధ', 'U'), ('న్యు', '|'), ('డున్', 'U'), ('ని', '|'), ('లు', '|'), ('పు', '|'), ('కొ', '|'), ('నం', 'U'), ('గ', '|'), ('నో', 'U'), ('ప', '|'), ('డ', '|'), ('ది', '|'), ('ని', 'U'), ('శ్చ', '|'), ('య', '|'), ('మ', 'U'), ('ర్జు', '|'), ('ను', '|'), ('డీ', 'U'), ('శ్వ', '|'), ('రా', 'U'), ('దు', '|'), ('లం', 'U'), ('గె', '|'), ('లి', '|'), ('చి', '|'), ('న', '|'), ('వా', 'U'), ('డు', '|'), ('బో', 'U'), ('య', '|'), ('ల', '|'), ('కు', '|'), ('గీ', 'U'), ('డ్ప', '|'), ('డి', '|'), ('చూ', 'U'), ('చు', '|'), ('చు', '|'), ('గృ', 'U'), ('ష్ణ', '|'), ('భా', 'U'), ('ర్య', '|'), ('లు', '|'), ('బ', '|'), ('లు', '|'), ('వు', '|'), ('ర', '|'), ('నీ', 'U'), ('య', '|'), ('డే', 'U'), ('ని', '|'), ('లు', '|'), ('వ', '|'), ('బ', 'U'), ('ట్ట', '|'), ('స', '|'), ('మ', 'U'), ('ర్థు', '|'), ('డు', '|'), ('గా', 'U'), ('క', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
         <is>
           <t>బలయుతుఁ డైన వేళ నిజ బంధుఁడు తోడ్పడుఁ గాని యాతఁడే
 బలము తొలంగెనేని తన పాలిటి శత్రు; వదెట్లు పూర్ణుఁడై
@@ -2886,32 +2664,29 @@
 బలియుఁడు సూక్ష్మదీపమగు పట్టున నార్పదె గాలి భాస్కరా!</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
           <t>[('బ', '|'), ('ల', '|'), ('యు', '|'), ('తు', '|'), ('డై', 'U'), ('న', '|'), ('వే', 'U'), ('ళ', '|'), ('ని', '|'), ('జ', '|'), ('బం', 'U'), ('ధు', '|'), ('డు', '|'), ('తో', 'U'), ('డ్ప', '|'), ('డు', '|'), ('గా', 'U'), ('ని', '|'), ('యా', 'U'), ('త', '|'), ('డే', 'U'), ('బ', '|'), ('ల', '|'), ('ము', '|'), ('తొ', '|'), ('లం', 'U'), ('గె', '|'), ('నే', 'U'), ('ని', '|'), ('త', '|'), ('న', '|'), ('పా', 'U'), ('లి', '|'), ('టి', '|'), ('శ', 'U'), ('త్రు', '|'), ('వ', '|'), ('దె', 'U'), ('ట్లు', '|'), ('పూ', 'U'), ('ర్ణు', '|'), ('డై', 'U'), ('జ్వ', '|'), ('ల', '|'), ('ను', '|'), ('డు', '|'), ('కా', 'U'), ('న', '|'), ('గా', 'U'), ('ల్చు', '|'), ('త', '|'), ('ఱి', '|'), ('స', 'U'), ('ఖ్య', '|'), ('ము', '|'), ('జూ', 'U'), ('పు', '|'), ('ను', '|'), ('వా', 'U'), ('యు', '|'), ('దే', 'U'), ('వు', '|'), ('డా', 'U'), ('బ', '|'), ('లి', '|'), ('యు', '|'), ('డు', '|'), ('సూ', 'U'), ('క్ష్మ', '|'), ('దీ', 'U'), ('ప', '|'), ('మ', '|'), ('గు', '|'), ('ప', 'U'), ('ట్టు', '|'), ('న', '|'), ('నా', 'U'), ('ర్ప', '|'), ('దె', '|'), ('గా', 'U'), ('లి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
         <is>
           <t>బల్లిదుఁడైన సత్ప్రభువు పాయక యుండినఁగాని రచ్చలోఁ
 జిల్లరవారు నూఱుగురు సేరినఁ దేజము గల్గదెయ్యెడన్‌
@@ -2919,32 +2694,29 @@
 జిల్లునె వెన్నెలల్‌ జగము జీఁకటులన్నియుఁ బాయ భాస్కరా!</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
           <t>[('బ', 'U'), ('ల్లి', '|'), ('దు', '|'), ('డై', 'U'), ('న', '|'), ('స', 'U'), ('త్ప్ర', '|'), ('భు', '|'), ('వు', '|'), ('పా', 'U'), ('య', '|'), ('క', '|'), ('యుం', 'U'), ('డి', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('ర', 'U'), ('చ్చ', '|'), ('లో', 'U'), ('జి', 'U'), ('ల్ల', '|'), ('ర', '|'), ('వా', 'U'), ('రు', '|'), ('నూ', 'U'), ('ఱు', '|'), ('గు', '|'), ('రు', '|'), ('సే', 'U'), ('రి', '|'), ('న', '|'), ('దే', 'U'), ('జ', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గ', '|'), ('దె', 'U'), ('య్యె', '|'), ('డన్', 'U'), ('జ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('చం', 'U'), ('దు', '|'), ('రుం', 'U'), ('డె', '|'), ('డ', '|'), ('సి', '|'), ('స', 'U'), ('న్న', '|'), ('పు', '|'), ('జు', 'U'), ('క్క', '|'), ('లు', '|'), ('కో', 'U'), ('టి', '|'), ('యు', 'U'), ('న్న', '|'), ('జి', 'U'), ('ల్లు', '|'), ('నె', '|'), ('వె', 'U'), ('న్నె', '|'), ('లల్', 'U'), ('జ', '|'), ('గ', '|'), ('ము', '|'), ('జీ', 'U'), ('క', '|'), ('టు', '|'), ('ల', 'U'), ('న్ని', '|'), ('యు', '|'), ('బా', 'U'), ('య', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
         <is>
           <t>భుజబల శౌర్యవంతులగు పుత్త్రుల గాంచిన వారి కెయ్యెడన్‌
 నిజహృదయేప్సితార్థములు నిక్కము చేకుఱుఁ గుంతిదేవికిన్‌
@@ -2952,32 +2724,29 @@
 గజమును దెచ్చి తల్లి వ్రతకార్యము దీర్పఁడె తొల్లి భాస్కరా!</t>
         </is>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
           <t>[('భు', '|'), ('జ', '|'), ('బ', '|'), ('ల', '|'), ('శౌ', 'U'), ('ర్య', '|'), ('వం', 'U'), ('తు', '|'), ('ల', '|'), ('గు', '|'), ('పు', 'U'), ('త్త్రు', '|'), ('ల', '|'), ('గాం', 'U'), ('చి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('కె', 'U'), ('య్యె', '|'), ('డన్', 'U'), ('ని', '|'), ('జ', '|'), ('హృ', '|'), ('ద', '|'), ('యే', 'U'), ('ప్సి', '|'), ('తా', 'U'), ('ర్థ', '|'), ('ము', '|'), ('లు', '|'), ('ని', 'U'), ('క్క', '|'), ('ము', '|'), ('చే', 'U'), ('కు', '|'), ('ఱు', '|'), ('గుం', 'U'), ('తి', '|'), ('దే', 'U'), ('వి', '|'), ('కిన్', 'U'), ('వి', '|'), ('జ', '|'), ('య', '|'), ('బ', '|'), ('లా', 'U'), ('ఢ్యు', '|'), ('డ', 'U'), ('ర్జు', '|'), ('ను', '|'), ('డు', '|'), ('వీ', 'U'), ('ర', '|'), ('ప', '|'), ('రా', 'U'), ('క్ర', '|'), ('మ', '|'), ('మొ', 'U'), ('ప్ప', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('గ', '|'), ('జ', '|'), ('ము', '|'), ('ను', '|'), ('దె', 'U'), ('చ్చి', '|'), ('త', 'U'), ('ల్లి', 'U'), ('వ్ర', '|'), ('త', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('దీ', 'U'), ('ర్ప', '|'), ('డె', '|'), ('తొ', 'U'), ('ల్లి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
         <is>
           <t>భూనుతులైన దేవతలు పూర్వము కొందఱు వావివర్తనల్‌
 మాని చరింపరో యనుచు మానవులట్ల చరింపఁబోల; దం
@@ -2985,32 +2754,29 @@
 పూనిక కెవ్వఁడోపు నది పూర్వమహత్త్వము సుమ్ము భాస్కరా!</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
           <t>[('భూ', 'U'), ('ను', '|'), ('తు', '|'), ('లై', 'U'), ('న', '|'), ('దే', 'U'), ('వ', '|'), ('త', '|'), ('లు', '|'), ('పూ', 'U'), ('ర్వ', '|'), ('ము', '|'), ('కొం', 'U'), ('ద', '|'), ('ఱు', '|'), ('వా', 'U'), ('వి', '|'), ('వ', 'U'), ('ర్త', '|'), ('నల్', 'U'), ('మా', 'U'), ('ని', '|'), ('చ', '|'), ('రిం', 'U'), ('ప', '|'), ('రో', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('ల', 'U'), ('ట్ల', '|'), ('చ', '|'), ('రిం', 'U'), ('ప', '|'), ('బో', 'U'), ('ల', '|'), ('దం', 'U'), ('భో', 'U'), ('ని', '|'), ('ధు', '|'), ('ల', 'U'), ('న్ని', '|'), ('యుం', 'U'), ('ద', '|'), ('న', '|'), ('దు', '|'), ('పు', 'U'), ('క్కి', '|'), ('ట', '|'), ('బ', 'U'), ('ట్టె', '|'), ('న', '|'), ('గ', 'U'), ('స్త్యు', '|'), ('డం', 'U'), ('చు', '|'), ('నా', 'U'), ('పూ', 'U'), ('ని', '|'), ('క', '|'), ('కె', 'U'), ('వ్వ', '|'), ('డో', 'U'), ('పు', '|'), ('న', '|'), ('ది', '|'), ('పూ', 'U'), ('ర్వ', '|'), ('మ', '|'), ('హ', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('సు', 'U'), ('మ్ము', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
         <is>
           <t>భూపతి కాత్మబుద్ధి మది బుట్టనిచోఁట బ్రధానులెంత ప్ర
 జ్ఞాపరిపూర్ణులైనఁ గొనసాగదు కార్యము; కార్యదక్షులై
@@ -3018,32 +2784,29 @@
 క్ష్మాపతికార్యమేమయినఁ జాలిరె చేయఁగ నాడు భాస్కరా!</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
           <t>[('భూ', 'U'), ('ప', '|'), ('తి', '|'), ('కా', 'U'), ('త్మ', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('మ', '|'), ('ది', '|'), ('బు', 'U'), ('ట్ట', '|'), ('ని', '|'), ('చో', 'U'), ('ట', 'U'), ('బ్ర', '|'), ('ధా', 'U'), ('ను', '|'), ('లెం', 'U'), ('త', 'U'), ('ప్ర', 'U'), ('జ్ఞా', 'U'), ('ప', '|'), ('రి', '|'), ('పూ', 'U'), ('ర్ణు', '|'), ('లై', 'U'), ('న', '|'), ('గొ', '|'), ('న', '|'), ('సా', 'U'), ('గ', '|'), ('దు', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('కా', 'U'), ('ర్య', '|'), ('ద', 'U'), ('క్షు', '|'), ('లై', 'U'), ('యో', 'U'), ('పి', '|'), ('న', '|'), ('ద్రో', 'U'), ('ణ', '|'), ('భీ', 'U'), ('ష్మ', '|'), ('కృ', '|'), ('ప', '|'), ('యో', 'U'), ('ధు', '|'), ('ల', '|'), ('నే', 'U'), ('కు', '|'), ('లు', '|'), ('గూ', 'U'), ('డి', '|'), ('కౌ', 'U'), ('ర', '|'), ('వ', 'U'), ('క్ష్మా', 'U'), ('ప', '|'), ('తి', '|'), ('కా', 'U'), ('ర్య', '|'), ('మే', 'U'), ('మ', '|'), ('యి', '|'), ('న', '|'), ('జా', 'U'), ('లి', '|'), ('రె', '|'), ('చే', 'U'), ('య', '|'), ('గ', '|'), ('నా', 'U'), ('డు', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
         <is>
           <t>భూరి బాలాఢ్యుఁడైనఁ దలపోయక విక్రమశక్తిచే నహం
 కారము నొందుటల్‌ తగవు గాదతఁడొక్కెడ మోసపోవుఁ గా
@@ -3051,32 +2814,29 @@
 నూరక వింటినెక్కిడఁగ నోపడు కృష్ణుఁడు లేమి భాస్కరా!</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
           <t>[('భూ', 'U'), ('రి', '|'), ('బా', 'U'), ('లా', 'U'), ('ఢ్యు', '|'), ('డై', 'U'), ('న', '|'), ('ద', '|'), ('ల', '|'), ('పో', 'U'), ('య', '|'), ('క', '|'), ('వి', 'U'), ('క్ర', '|'), ('మ', '|'), ('శ', 'U'), ('క్తి', '|'), ('చే', 'U'), ('న', '|'), ('హం', 'U'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('నొం', 'U'), ('దు', '|'), ('టల్', 'U'), ('త', '|'), ('గ', '|'), ('వు', '|'), ('గా', 'U'), ('ద', '|'), ('త', '|'), ('డొ', 'U'), ('క్కె', '|'), ('డ', '|'), ('మో', 'U'), ('స', '|'), ('పో', 'U'), ('వు', '|'), ('గా', 'U'), ('వీ', 'U'), ('ర', '|'), ('వ', '|'), ('రే', 'U'), ('ణ్యు', '|'), ('డ', 'U'), ('ర్జు', '|'), ('ను', '|'), ('డు', '|'), ('విం', 'U'), ('టి', '|'), ('కి', '|'), ('నే', 'U'), ('న', '|'), ('ధి', '|'), ('కుం', 'U'), ('డ', '|'), ('నం', 'U'), ('చు', '|'), ('దా', 'U'), ('నూ', 'U'), ('ర', '|'), ('క', '|'), ('విం', 'U'), ('టి', '|'), ('నె', 'U'), ('క్కి', '|'), ('డ', '|'), ('గ', '|'), ('నో', 'U'), ('ప', '|'), ('డు', '|'), ('కృ', 'U'), ('ష్ణు', '|'), ('డు', '|'), ('లే', 'U'), ('మి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
         <is>
           <t>భ్రష్టున కర్థవంతులగు బాంధవులెందఱు గల్గినన్‌ నిజా
 దృష్టము లేదు గావున దరిద్రతఁ బాపఁగలేరు; సత్కృపా
@@ -3084,32 +2844,29 @@
 జ్యేష్ట కదేటికిం గలుగఁజేయదు తోడనె పుట్టి భాస్కరా!</t>
         </is>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
           <t>[('భ్ర', 'U'), ('ష్టు', '|'), ('న', '|'), ('క', 'U'), ('ర్థ', '|'), ('వం', 'U'), ('తు', '|'), ('ల', '|'), ('గు', '|'), ('బాం', 'U'), ('ధ', '|'), ('వు', '|'), ('లెం', 'U'), ('ద', '|'), ('ఱు', '|'), ('గ', 'U'), ('ల్గి', '|'), ('నన్', 'U'), ('ని', '|'), ('జా', 'U'), ('దృ', 'U'), ('ష్ట', '|'), ('ము', '|'), ('లే', 'U'), ('దు', '|'), ('గా', 'U'), ('వు', '|'), ('న', '|'), ('ద', '|'), ('రి', '|'), ('ద్ర', '|'), ('త', '|'), ('బా', 'U'), ('ప', '|'), ('గ', '|'), ('లే', 'U'), ('రు', '|'), ('స', 'U'), ('త్కృ', '|'), ('పా', 'U'), ('దృ', 'U'), ('ష్టి', '|'), ('ని', '|'), ('ని', 'U'), ('ల్పి', '|'), ('లో', 'U'), ('కు', '|'), ('ల', '|'), ('క', '|'), ('తి', 'U'), ('స్థి', '|'), ('ర', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('లి', 'U'), ('చ్చు', '|'), ('ల', 'U'), ('క్ష్మి', '|'), ('యా', 'U'), ('జ్యే', 'U'), ('ష్ట', '|'), ('క', '|'), ('దే', 'U'), ('టి', '|'), ('కిం', 'U'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('జే', 'U'), ('య', '|'), ('దు', '|'), ('తో', 'U'), ('డ', '|'), ('నె', '|'), ('పు', 'U'), ('ట్టి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
         <is>
           <t>మదిఁ దను నాసపడ్డయెడ మంచిగుణోన్నతుఁడెట్టి హీనునిన్‌
 వదలఁడు మేలుపట్టున నవశ్యము మున్నుగ నాదరించుఁగా;
@@ -3117,32 +2874,29 @@
 మొదల నిడండె ధర్మజుఁడు మూఁగి సురావళి చూడ భాస్కరా!</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('ది', '|'), ('ద', '|'), ('ను', '|'), ('నా', 'U'), ('స', '|'), ('ప', 'U'), ('డ్డ', '|'), ('యె', '|'), ('డ', '|'), ('మం', 'U'), ('చి', '|'), ('గు', '|'), ('ణో', 'U'), ('న్న', '|'), ('తు', '|'), ('డె', 'U'), ('ట్టి', '|'), ('హీ', 'U'), ('ను', '|'), ('నిన్', 'U'), ('వ', '|'), ('ద', '|'), ('ల', '|'), ('డు', '|'), ('మే', 'U'), ('లు', '|'), ('ప', 'U'), ('ట్టు', '|'), ('న', '|'), ('న', '|'), ('వ', 'U'), ('శ్య', '|'), ('ము', '|'), ('ము', 'U'), ('న్ను', '|'), ('గ', '|'), ('నా', 'U'), ('ద', '|'), ('రిం', 'U'), ('చు', '|'), ('గా', 'U'), ('త్రి', '|'), ('ద', '|'), ('శ', '|'), ('వి', '|'), ('మా', 'U'), ('న', '|'), ('మ', 'U'), ('ధ్య', '|'), ('ము', '|'), ('న', '|'), ('దె', 'U'), ('చ్చి', '|'), ('కృ', '|'), ('పా', 'U'), ('మ', '|'), ('తి', '|'), ('సా', 'U'), ('ర', '|'), ('మే', 'U'), ('య', '|'), ('మున్', 'U'), ('మొ', '|'), ('ద', '|'), ('ల', '|'), ('ని', '|'), ('డం', 'U'), ('డె', '|'), ('ధ', '|'), ('ర్మ', '|'), ('జు', '|'), ('డు', '|'), ('మూ', 'U'), ('గి', '|'), ('సు', '|'), ('రా', 'U'), ('వ', '|'), ('ళి', '|'), ('చూ', 'U'), ('డ', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
         <is>
           <t>మాటల కోర్వజాలఁ డభిమానసమగ్రుఁడు ప్రాణహానియౌ
 చోటులనైనఁ దానెదురు చూచుచునుండుఁ; గొలంకు లోపల
@@ -3150,32 +2904,29 @@
 రాట మొనర్చి నేలఁబడఁడాయెనె భీముని చేత భాస్కరా!</t>
         </is>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
           <t>[('మా', 'U'), ('ట', '|'), ('ల', '|'), ('కో', 'U'), ('ర్వ', '|'), ('జా', 'U'), ('ల', '|'), ('డ', '|'), ('భి', '|'), ('మా', 'U'), ('న', '|'), ('స', '|'), ('మ', 'U'), ('గ్రు', '|'), ('డు', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('హా', 'U'), ('ని', '|'), ('యౌ', 'U'), ('చో', 'U'), ('టు', '|'), ('ల', '|'), ('నై', 'U'), ('న', '|'), ('దా', 'U'), ('నె', '|'), ('దు', '|'), ('రు', '|'), ('చూ', 'U'), ('చు', '|'), ('చు', '|'), ('నుం', 'U'), ('డు', '|'), ('గొ', '|'), ('లం', 'U'), ('కు', '|'), ('లో', 'U'), ('ప', '|'), ('ల', 'U'), ('న్నీ', 'U'), ('ట', '|'), ('ము', '|'), ('నిం', 'U'), ('గి', '|'), ('న', 'U'), ('ప్పు', '|'), ('డ', '|'), ('తి', '|'), ('నీ', 'U'), ('చ', '|'), ('ము', '|'), ('లా', 'U'), ('డి', '|'), ('న', '|'), ('రా', 'U'), ('జ', '|'), ('రా', 'U'), ('జు', '|'), ('పో', 'U'), ('రా', 'U'), ('ట', '|'), ('మొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('నే', 'U'), ('ల', '|'), ('బ', '|'), ('డ', '|'), ('డా', 'U'), ('యె', '|'), ('నె', '|'), ('భీ', 'U'), ('ము', '|'), ('ని', '|'), ('చే', 'U'), ('త', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
         <is>
           <t>మానవనాథుఁ డాత్మరిపు మర్మ మెఱింగినవాని నేలినం
 గాని జయింపలేఁ డరులఁ; గార్ముకదక్షుఁడు రామభద్రుఁ డా
@@ -3183,32 +2934,29 @@
 పానసుధ న్విభీషణుఁడు తార్కొని చెప్పకయున్న భాస్కరా!</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
           <t>[('మా', 'U'), ('న', '|'), ('వ', '|'), ('నా', 'U'), ('థు', '|'), ('డా', 'U'), ('త్మ', '|'), ('రి', '|'), ('పు', '|'), ('మ', '|'), ('ర్మ', '|'), ('మె', '|'), ('ఱిం', 'U'), ('గి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('నే', 'U'), ('లి', '|'), ('నం', 'U'), ('గా', 'U'), ('ని', '|'), ('జ', '|'), ('యిం', 'U'), ('ప', '|'), ('లే', 'U'), ('డ', '|'), ('రు', '|'), ('ల', '|'), ('గా', 'U'), ('ర్ము', '|'), ('క', '|'), ('ద', 'U'), ('క్షు', '|'), ('డు', '|'), ('రా', 'U'), ('మ', '|'), ('భ', '|'), ('ద్రు', '|'), ('డా', 'U'), ('దా', 'U'), ('న', '|'), ('వ', '|'), ('నా', 'U'), ('య', '|'), ('కున్', 'U'), ('గె', '|'), ('లు', '|'), ('వ', '|'), ('దా', 'U'), ('నె', '|'), ('టు', '|'), ('లో', 'U'), ('పు', '|'), ('ద', '|'), ('దీ', 'U'), ('య', '|'), ('నా', 'U'), ('భి', '|'), ('కా', 'U'), ('పా', 'U'), ('న', '|'), ('సు', '|'), ('ధ', 'U'), ('న్వి', '|'), ('భీ', 'U'), ('ష', '|'), ('ణు', '|'), ('డు', '|'), ('తా', 'U'), ('ర్కొ', '|'), ('ని', '|'), ('చె', 'U'), ('ప్ప', '|'), ('క', '|'), ('యు', 'U'), ('న్న', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
         <is>
           <t>మానవుఁ డాత్మకిష్టమగు మంచిప్రయోజన మాచరించుచోఁ
 గానక యల్పుఁడొక్కఁ డది గాదని పల్కిన వాని పల్కుకై
@@ -3216,32 +2964,29 @@
 లూనిన వంటకంబు దినకుండఁగ నేర్పగునోటు భాస్కరా!</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
           <t>[('మా', 'U'), ('న', '|'), ('వు', '|'), ('డా', 'U'), ('త్మ', '|'), ('కి', 'U'), ('ష్ట', '|'), ('మ', '|'), ('గు', '|'), ('మం', 'U'), ('చి', 'U'), ('ప్ర', '|'), ('యో', 'U'), ('జ', '|'), ('న', '|'), ('మా', 'U'), ('చ', '|'), ('రిం', 'U'), ('చు', '|'), ('చో', 'U'), ('గా', 'U'), ('న', '|'), ('క', '|'), ('య', 'U'), ('ల్పు', '|'), ('డొ', 'U'), ('క్క', '|'), ('డ', '|'), ('ది', '|'), ('గా', 'U'), ('ద', '|'), ('ని', '|'), ('ప', 'U'), ('ల్కి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('ప', 'U'), ('ల్కు', '|'), ('కై', 'U'), ('మా', 'U'), ('న', '|'), ('గ', '|'), ('జూ', 'U'), ('డ', '|'), ('డా', 'U'), ('ప', '|'), ('ని', '|'), ('స', '|'), ('మం', 'U'), ('చి', '|'), ('త', '|'), ('భో', 'U'), ('జ', '|'), ('న', '|'), ('వే', 'U'), ('ళ', '|'), ('నీ', 'U'), ('గ', '|'), ('కా', 'U'), ('లూ', 'U'), ('ని', '|'), ('న', '|'), ('వం', 'U'), ('ట', '|'), ('కం', 'U'), ('బు', '|'), ('ది', '|'), ('న', '|'), ('కుం', 'U'), ('డ', '|'), ('గ', '|'), ('నే', 'U'), ('ర్ప', '|'), ('గు', '|'), ('నో', 'U'), ('టు', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
         <is>
           <t>మానిని చెప్పు నెట్లెఱుకమాలిన వాఁడటు చేసినన్‌ మహా
 హాని ఘటించు నే ఘనునికైన నసంశయ ముర్విపైఁ గృపా
@@ -3249,32 +2994,29 @@
 భోనిధి రాముఁ బాసి చనిపోవఁడె శోకముతోడ భాస్కరా!</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
           <t>[('మా', 'U'), ('ని', '|'), ('ని', '|'), ('చె', 'U'), ('ప్పు', '|'), ('నె', 'U'), ('ట్లె', '|'), ('ఱు', '|'), ('క', '|'), ('మా', 'U'), ('లి', '|'), ('న', '|'), ('వా', 'U'), ('డ', '|'), ('టు', '|'), ('చే', 'U'), ('సి', '|'), ('నన్', 'U'), ('మ', '|'), ('హా', 'U'), ('హా', 'U'), ('ని', '|'), ('ఘ', '|'), ('టిం', 'U'), ('చు', '|'), ('నే', 'U'), ('ఘ', '|'), ('ను', '|'), ('ని', '|'), ('కై', 'U'), ('న', '|'), ('న', '|'), ('సం', 'U'), ('శ', '|'), ('య', '|'), ('ము', 'U'), ('ర్వి', '|'), ('పై', 'U'), ('గృ', '|'), ('పా', 'U'), ('హీ', 'U'), ('న', '|'), ('త', '|'), ('బ', 'U'), ('ల్కి', '|'), ('న', 'U'), ('న్ద', '|'), ('శ', '|'), ('ర', '|'), ('థే', 'U'), ('శ్వ', '|'), ('రు', '|'), ('డం', 'U'), ('గ', '|'), ('న', '|'), ('మా', 'U'), ('ట', '|'), ('కై', 'U'), ('గు', '|'), ('ణాం', 'U'), ('భో', 'U'), ('ని', '|'), ('ధి', '|'), ('రా', 'U'), ('ము', '|'), ('బా', 'U'), ('సి', '|'), ('చ', '|'), ('ని', '|'), ('పో', 'U'), ('వ', '|'), ('డె', '|'), ('శో', 'U'), ('క', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
         <is>
           <t>మునుపొనరించు పాతక మమోఘము జీవులకెల్లఁ బూని యా
 వెనుకటి జన్మమం దనుభవింపక తీఱదు; రాఘవుండు వా
@@ -3282,32 +3024,29 @@
 వినిశిత బాణపాతమున వీడ్కొనఁడే తన మేను భాస్కరా!</t>
         </is>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
           <t>[('ము', '|'), ('ను', '|'), ('పొ', '|'), ('న', '|'), ('రిం', 'U'), ('చు', '|'), ('పా', 'U'), ('త', '|'), ('క', '|'), ('మ', '|'), ('మో', 'U'), ('ఘ', '|'), ('ము', '|'), ('జీ', 'U'), ('వు', '|'), ('ల', '|'), ('కె', 'U'), ('ల్ల', '|'), ('బూ', 'U'), ('ని', '|'), ('యా', 'U'), ('వె', '|'), ('ను', '|'), ('క', '|'), ('టి', '|'), ('జ', 'U'), ('న్మ', '|'), ('మం', 'U'), ('ద', '|'), ('ను', '|'), ('భ', '|'), ('విం', 'U'), ('ప', '|'), ('క', '|'), ('తీ', 'U'), ('ఱ', '|'), ('దు', '|'), ('రా', 'U'), ('ఘ', '|'), ('వుం', 'U'), ('డు', '|'), ('వా', 'U'), ('లి', '|'), ('ని', '|'), ('బ', '|'), ('డ', '|'), ('నే', 'U'), ('సి', '|'), ('తా', 'U'), ('మ', '|'), ('గు', '|'), ('డ', '|'), ('లీ', 'U'), ('ల', '|'), ('య', '|'), ('దూ', 'U'), ('ద్భ', '|'), ('వు', '|'), ('డై', 'U'), ('కి', '|'), ('రా', 'U'), ('తు', '|'), ('చే', 'U'), ('వి', '|'), ('ని', '|'), ('శి', '|'), ('త', '|'), ('బా', 'U'), ('ణ', '|'), ('పా', 'U'), ('త', '|'), ('ము', '|'), ('న', '|'), ('వీ', 'U'), ('డ్కొ', '|'), ('న', '|'), ('డే', 'U'), ('త', '|'), ('న', '|'), ('మే', 'U'), ('ను', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
         <is>
           <t>రాకొమరుల్‌ రసజ్ఞునిఁ దిరంబుగ మన్నన నుంచినట్లు భూ
 లోకమునందు మూఢుఁ దమ లోపలనుంపరు; నిక్కమే కదా!
@@ -3315,32 +3054,29 @@
 కాకము నెవ్వరైన శుభకారణ సన్మునిసేవ్య భాస్కరా!</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
           <t>[('రా', 'U'), ('కొ', '|'), ('మ', '|'), ('రుల్', 'U'), ('ర', '|'), ('స', 'U'), ('జ్ఞు', '|'), ('ని', '|'), ('ది', '|'), ('రం', 'U'), ('బు', '|'), ('గ', '|'), ('మ', 'U'), ('న్న', '|'), ('న', '|'), ('నుం', 'U'), ('చి', '|'), ('న', 'U'), ('ట్లు', '|'), ('భూ', 'U'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('మూ', 'U'), ('ఢు', '|'), ('ద', '|'), ('మ', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('నుం', 'U'), ('ప', '|'), ('రు', '|'), ('ని', 'U'), ('క్క', '|'), ('మే', 'U'), ('క', '|'), ('దా', 'U'), ('చే', 'U'), ('కొ', '|'), ('ని', '|'), ('ము', 'U'), ('ద్దు', '|'), ('గా', 'U'), ('జ', '|'), ('దు', '|'), ('వు', '|'), ('చి', 'U'), ('ల్క', '|'), ('ను', '|'), ('బెం', 'U'), ('తు', '|'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('పెం', 'U'), ('తు', '|'), ('రే', 'U'), ('కా', 'U'), ('క', '|'), ('ము', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రై', 'U'), ('న', '|'), ('శు', '|'), ('భ', '|'), ('కా', 'U'), ('ర', '|'), ('ణ', '|'), ('స', 'U'), ('న్ము', '|'), ('ని', '|'), ('సే', 'U'), ('వ్య', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
         <is>
           <t>లోకములోన దుర్జనుల లోఁతు నెఱుంగక చేరరాదు సు
 శ్లోకుఁడు చేరినం గవయఁజూతురు చేయుదు రెక్కసక్కెముల్‌
@@ -3348,32 +3084,29 @@
 గాకులు తన్నవే తఱిమి కాయము తల్లడమంద భాస్కరా!</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
           <t>[('లో', 'U'), ('క', '|'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('దు', 'U'), ('ర్జ', '|'), ('ను', '|'), ('ల', '|'), ('లో', 'U'), ('తు', '|'), ('నె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('క', '|'), ('చే', 'U'), ('ర', '|'), ('రా', 'U'), ('దు', '|'), ('సు', 'U'), ('శ్లో', 'U'), ('కు', '|'), ('డు', '|'), ('చే', 'U'), ('రి', '|'), ('నం', 'U'), ('గ', '|'), ('వ', '|'), ('య', '|'), ('జూ', 'U'), ('తు', '|'), ('రు', '|'), ('చే', 'U'), ('యు', '|'), ('దు', '|'), ('రె', 'U'), ('క్క', '|'), ('స', 'U'), ('క్కె', '|'), ('ముల్', 'U'), ('కో', 'U'), ('కి', '|'), ('ల', '|'), ('గ', 'U'), ('న్న', '|'), ('చో', 'U'), ('ట', '|'), ('గు', '|'), ('మి', '|'), ('కూ', 'U'), ('డి', '|'), ('య', '|'), ('స', 'U'), ('హ్య', '|'), ('పు', '|'), ('గూ', 'U'), ('త', '|'), ('లా', 'U'), ('ర్చు', '|'), ('చుం', 'U'), ('గా', 'U'), ('కు', '|'), ('లు', '|'), ('త', 'U'), ('న్న', '|'), ('వే', 'U'), ('త', '|'), ('ఱి', '|'), ('మి', '|'), ('కా', 'U'), ('య', '|'), ('ము', '|'), ('త', 'U'), ('ల్ల', '|'), ('డ', '|'), ('మం', 'U'), ('ద', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
         <is>
           <t>లోను దృఢంబుగాని పెనులోభిని నమ్మి యసాధ్యకార్యముల్‌
 కానక పూనునే నతఁడు గ్రక్కునఁ గూలును; నోటిపుట్టిపై
@@ -3381,32 +3114,29 @@
 తానొకలోఁతునం గెడసి దానిఁ దరింపఁగ లేక భాస్కరా!</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
           <t>[('లో', 'U'), ('ను', '|'), ('దృ', '|'), ('ఢం', 'U'), ('బు', '|'), ('గా', 'U'), ('ని', '|'), ('పె', '|'), ('ను', '|'), ('లో', 'U'), ('భి', '|'), ('ని', '|'), ('న', 'U'), ('మ్మి', '|'), ('య', '|'), ('సా', 'U'), ('ధ్య', '|'), ('కా', 'U'), ('ర్య', '|'), ('ముల్', 'U'), ('కా', 'U'), ('న', '|'), ('క', '|'), ('పూ', 'U'), ('ను', '|'), ('నే', 'U'), ('న', '|'), ('త', '|'), ('డు', 'U'), ('గ్ర', 'U'), ('క్కు', '|'), ('న', '|'), ('గూ', 'U'), ('లు', '|'), ('ను', '|'), ('నో', 'U'), ('టి', '|'), ('పు', 'U'), ('ట్టి', '|'), ('పై', 'U'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('డె', 'U'), ('క్కి', '|'), ('పో', 'U'), ('వ', '|'), ('నొ', '|'), ('క', '|'), ('మా', 'U'), ('టు', '|'), ('బు', '|'), ('టు', 'U'), ('క్కు', '|'), ('న', '|'), ('ముం', 'U'), ('ప', '|'), ('కుం', 'U'), ('డు', '|'), ('నే', 'U'), ('తా', 'U'), ('నొ', '|'), ('క', '|'), ('లో', 'U'), ('తు', '|'), ('నం', 'U'), ('గె', '|'), ('డ', '|'), ('సి', '|'), ('దా', 'U'), ('ని', '|'), ('ద', '|'), ('రిం', 'U'), ('ప', '|'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
         <is>
           <t xml:space="preserve">వంచన యింతలేక యెటువంటి మహాత్ముల నాశ్రయించినం
 గొంచెమె కాని మేలు సమకూడ దదృష్టము లేనివారికిన్‌;
@@ -3414,32 +3144,29 @@
 యంచకుఁ దమ్మితూండ్లు దిననాయెఁగదా ఫలమేమి భాస్కరా!	</t>
         </is>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
           <t>[('వం', 'U'), ('చ', '|'), ('న', '|'), ('యిం', 'U'), ('త', '|'), ('లే', 'U'), ('క', '|'), ('యె', '|'), ('టు', '|'), ('వం', 'U'), ('టి', '|'), ('మ', '|'), ('హా', 'U'), ('త్ము', '|'), ('ల', '|'), ('నా', 'U'), ('శ్ర', '|'), ('యిం', 'U'), ('చి', '|'), ('నం', 'U'), ('గొం', 'U'), ('చె', '|'), ('మె', '|'), ('కా', 'U'), ('ని', '|'), ('మే', 'U'), ('లు', '|'), ('స', '|'), ('మ', '|'), ('కూ', 'U'), ('డ', '|'), ('ద', '|'), ('దృ', 'U'), ('ష్ట', '|'), ('ము', '|'), ('లే', 'U'), ('ని', '|'), ('వా', 'U'), ('రి', '|'), ('కి', 'U'), ('న్సం', 'U'), ('చి', '|'), ('త', '|'), ('బు', 'U'), ('ద్ధి', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('న', '|'), ('ని', '|'), ('శం', 'U'), ('బు', '|'), ('ను', '|'), ('వీ', 'U'), ('పు', '|'), ('న', '|'), ('మో', 'U'), ('చు', '|'), ('న', 'U'), ('ట్టి', '|'), ('రా', 'U'), ('యం', 'U'), ('చ', '|'), ('కు', '|'), ('ద', 'U'), ('మ్మి', '|'), ('తూం', 'U'), ('డ్లు', '|'), ('ది', '|'), ('న', '|'), ('నా', 'U'), ('యె', '|'), ('గ', '|'), ('దా', 'U'), ('ఫ', '|'), ('ల', '|'), ('మే', 'U'), ('మి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
         <is>
           <t>వట్టుచుఁ దండ్రి యత్యధమ వర్తనుఁడైననుగాని వానికిం
 బుట్టిన పుత్త్రకుండు తన పుణ్యవశంబున దొడ్డధన్యుఁడౌ;
@@ -3447,32 +3174,29 @@
 చెట్టు మహోన్నతత్వమును జెందదె శాఖలనిండి భాస్కరా!</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
           <t>[('వ', 'U'), ('ట్టు', '|'), ('చు', '|'), ('దం', 'U'), ('డ్రి', '|'), ('య', 'U'), ('త్య', '|'), ('ధ', '|'), ('మ', '|'), ('వ', 'U'), ('ర్త', '|'), ('ను', '|'), ('డై', 'U'), ('న', '|'), ('ను', '|'), ('గా', 'U'), ('ని', '|'), ('వా', 'U'), ('ని', '|'), ('కిం', 'U'), ('బు', 'U'), ('ట్టి', '|'), ('న', '|'), ('పు', 'U'), ('త్త్ర', '|'), ('కుం', 'U'), ('డు', '|'), ('త', '|'), ('న', '|'), ('పు', 'U'), ('ణ్య', '|'), ('వ', '|'), ('శం', 'U'), ('బు', '|'), ('న', '|'), ('దొ', 'U'), ('డ్డ', '|'), ('ధ', 'U'), ('న్యు', '|'), ('డౌ', 'U'), ('నె', 'U'), ('ట్ట', '|'), ('న', '|'), ('మ', 'U'), ('ఱ్ఱి', '|'), ('వి', 'U'), ('త్తు', '|'), ('ము', '|'), ('ను', '|'), ('పెం', 'U'), ('త', '|'), ('యు', '|'), ('గొం', 'U'), ('చె', '|'), ('ము', '|'), ('దా', 'U'), ('న', '|'), ('బు', 'U'), ('ట్టు', '|'), ('నా', 'U'), ('చె', 'U'), ('ట్టు', '|'), ('మ', '|'), ('హో', 'U'), ('న్న', '|'), ('త', 'U'), ('త్వ', '|'), ('ము', '|'), ('ను', '|'), ('జెం', 'U'), ('ద', '|'), ('దె', '|'), ('శా', 'U'), ('ఖ', '|'), ('ల', '|'), ('నిం', 'U'), ('డి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
         <is>
           <t>వలనుగఁ గానలందుఁ బ్రతివర్షమునం బులి నాలుగైదు పి
 ల్లలఁ గను దూడనొక్కటి నిలం గను ధేనువు రెండుమూఁడు నేఁ
@@ -3480,32 +3204,29 @@
 దలు గడువృద్ధిఁ జెందవె యధర్మము ధర్మముఁ దెల్ప భాస్కరా!</t>
         </is>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('ల', '|'), ('ను', '|'), ('గ', '|'), ('గా', 'U'), ('న', '|'), ('లం', 'U'), ('దు', 'U'), ('బ్ర', '|'), ('తి', '|'), ('వ', 'U'), ('ర్ష', '|'), ('ము', '|'), ('నం', 'U'), ('బు', '|'), ('లి', '|'), ('నా', 'U'), ('లు', '|'), ('గై', 'U'), ('దు', '|'), ('పి', 'U'), ('ల్ల', '|'), ('ల', '|'), ('గ', '|'), ('ను', '|'), ('దూ', 'U'), ('డ', '|'), ('నొ', 'U'), ('క్క', '|'), ('టి', '|'), ('ని', '|'), ('లం', 'U'), ('గ', '|'), ('ను', '|'), ('ధే', 'U'), ('ను', '|'), ('వు', '|'), ('రెం', 'U'), ('డు', '|'), ('మూ', 'U'), ('డు', '|'), ('నే', 'U'), ('డు', '|'), ('ల', '|'), ('క', '|'), ('టు', '|'), ('లై', 'U'), ('న', '|'), ('బె', 'U'), ('బ్బు', '|'), ('లి', '|'), ('కు', '|'), ('టుం', 'U'), ('బ', '|'), ('ము', '|'), ('ల', 'U'), ('ల్ప', '|'), ('ము', '|'), ('లా', 'U'), ('యె', '|'), ('నా', 'U'), ('ల', '|'), ('మం', 'U'), ('ద', '|'), ('లు', '|'), ('గ', '|'), ('డు', '|'), ('వృ', 'U'), ('ద్ధి', '|'), ('జెం', 'U'), ('ద', '|'), ('వె', '|'), ('య', '|'), ('ధ', '|'), ('ర్మ', '|'), ('ము', '|'), ('ధ', '|'), ('ర్మ', '|'), ('ము', '|'), ('దె', 'U'), ('ల్ప', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
         <is>
           <t>వలవదు క్రూరసంగతి యవశ్య మొకప్పుడు సేయఁబడ్డచోఁ
 గొలదియెఁ గాని యెక్కువలు గూడవు; తమ్ములపాకు లోపలం
@@ -3513,32 +3234,29 @@
 నలుగడఁ జుఱ్ఱుచుఱ్ఱుమని నాలుక పొక్కక యున్నె భాస్కరా!</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('ల', '|'), ('వ', '|'), ('దు', 'U'), ('క్రూ', 'U'), ('ర', '|'), ('సం', 'U'), ('గ', '|'), ('తి', '|'), ('య', '|'), ('వ', 'U'), ('శ్య', '|'), ('మొ', '|'), ('క', 'U'), ('ప్పు', '|'), ('డు', '|'), ('సే', 'U'), ('య', '|'), ('బ', 'U'), ('డ్డ', '|'), ('చో', 'U'), ('గొ', '|'), ('ల', '|'), ('ది', '|'), ('యె', '|'), ('గా', 'U'), ('ని', '|'), ('యె', 'U'), ('క్కు', '|'), ('వ', '|'), ('లు', '|'), ('గూ', 'U'), ('డ', '|'), ('వు', '|'), ('త', 'U'), ('మ్ము', '|'), ('ల', '|'), ('పా', 'U'), ('కు', '|'), ('లో', 'U'), ('ప', '|'), ('లం', 'U'), ('గ', '|'), ('ల', '|'), ('సి', '|'), ('న', '|'), ('సు', 'U'), ('న్న', '|'), ('మిం', 'U'), ('చు', '|'), ('క', '|'), ('య', '|'), ('కా', 'U'), ('క', '|'), ('మ', '|'), ('ఱిం', 'U'), ('చు', '|'), ('క', '|'), ('యె', 'U'), ('క్కు', '|'), ('వై', 'U'), ('న', '|'), ('చో', 'U'), ('న', '|'), ('లు', '|'), ('గ', '|'), ('డ', '|'), ('జు', 'U'), ('ఱ్ఱు', '|'), ('చు', 'U'), ('ఱ్ఱు', '|'), ('మ', '|'), ('ని', '|'), ('నా', 'U'), ('లు', '|'), ('క', '|'), ('పొ', 'U'), ('క్క', '|'), ('క', '|'), ('యు', 'U'), ('న్నె', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
         <is>
           <t>వానికి విద్యచేత సిరివచ్చె నటంచును విద్య నేర్వఁగాఁ
 బూనినఁ బూనుఁగాక తన పుణ్యము చాలక భాగ్యరేఖకుం
@@ -3546,32 +3264,29 @@
 హీనుఁడు కర్ణభూషణము లెట్లు గడింపఁగనోపు? భాస్కరా!</t>
         </is>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
           <t>[('వా', 'U'), ('ని', '|'), ('కి', '|'), ('వి', 'U'), ('ద్య', '|'), ('చే', 'U'), ('త', '|'), ('సి', '|'), ('రి', '|'), ('వ', 'U'), ('చ్చె', '|'), ('న', '|'), ('టం', 'U'), ('చు', '|'), ('ను', '|'), ('వి', 'U'), ('ద్య', '|'), ('నే', 'U'), ('ర్వ', '|'), ('గా', 'U'), ('బూ', 'U'), ('ని', '|'), ('న', '|'), ('బూ', 'U'), ('ను', '|'), ('గా', 'U'), ('క', '|'), ('త', '|'), ('న', '|'), ('పు', 'U'), ('ణ్య', '|'), ('ము', '|'), ('చా', 'U'), ('ల', '|'), ('క', '|'), ('భా', 'U'), ('గ్య', '|'), ('రే', 'U'), ('ఖ', '|'), ('కుం', 'U'), ('బూ', 'U'), ('న', '|'), ('గ', '|'), ('నె', 'U'), ('వ్వ', '|'), ('డో', 'U'), ('పు', '|'), ('స', '|'), ('రి', '|'), ('పో', 'U'), ('చె', '|'), ('వి', '|'), ('పెం', 'U'), ('చు', '|'), ('ను', '|'), ('గా', 'U'), ('క', '|'), ('దృ', 'U'), ('ష్ట', '|'), ('తా', 'U'), ('హీ', 'U'), ('ను', '|'), ('డు', '|'), ('క', 'U'), ('ర్ణ', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('లె', 'U'), ('ట్లు', '|'), ('గ', '|'), ('డిం', 'U'), ('ప', '|'), ('గ', '|'), ('నో', 'U'), ('పు', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
         <is>
           <t>సంతత పుణ్యశాలి నొక జాడను సంపద వాసిపోయి తా
 నంతటఁ బోక నెట్టుకొని యప్పటియట్ల వసించియుండు; మా
@@ -3579,32 +3294,29 @@
 గాంతి వహింపఁడటోటు? తిరుగంబడి దేహమునిండ భాస్కరా!</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
           <t>[('సం', 'U'), ('త', '|'), ('త', '|'), ('పు', 'U'), ('ణ్య', '|'), ('శా', 'U'), ('లి', '|'), ('నొ', '|'), ('క', '|'), ('జా', 'U'), ('డ', '|'), ('ను', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('వా', 'U'), ('సి', '|'), ('పో', 'U'), ('యి', '|'), ('తా', 'U'), ('నం', 'U'), ('త', '|'), ('ట', '|'), ('బో', 'U'), ('క', '|'), ('నె', 'U'), ('ట్టు', '|'), ('కొ', '|'), ('ని', '|'), ('య', 'U'), ('ప్ప', '|'), ('టి', '|'), ('య', 'U'), ('ట్ల', '|'), ('వ', '|'), ('సిం', 'U'), ('చి', '|'), ('యుం', 'U'), ('డు', '|'), ('మా', 'U'), ('సాం', 'U'), ('త', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('జం', 'U'), ('దు', '|'), ('రు', '|'), ('ని', '|'), ('న', 'U'), ('న్ని', '|'), ('క', '|'), ('ళల్', 'U'), ('పె', '|'), ('డ', '|'), ('బా', 'U'), ('సి', '|'), ('పో', 'U'), ('యి', '|'), ('నం', 'U'), ('గాం', 'U'), ('తి', '|'), ('వ', '|'), ('హిం', 'U'), ('ప', '|'), ('డ', '|'), ('టో', 'U'), ('టు', '|'), ('తి', '|'), ('రు', '|'), ('గం', 'U'), ('బ', '|'), ('డి', '|'), ('దే', 'U'), ('హ', '|'), ('ము', '|'), ('నిం', 'U'), ('డ', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
         <is>
           <t>సకలజన ప్రియత్వము నిజంబుగఁ గల్గిన పుణ్యశాలి కొ
 క్కొకయెడ నాపదైనఁ దడవుండదు వేగమె పాసిపోవుగా;
@@ -3612,32 +3324,29 @@
 డకటక మాని యుండఁడె! దృఢస్థితి నెప్పటియట్ల భాస్కరా!</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('క', '|'), ('ల', '|'), ('జ', '|'), ('న', 'U'), ('ప్రి', '|'), ('య', 'U'), ('త్వ', '|'), ('ము', '|'), ('ని', '|'), ('జం', 'U'), ('బు', '|'), ('గ', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('పు', 'U'), ('ణ్య', '|'), ('శా', 'U'), ('లి', '|'), ('కొ', 'U'), ('క్కొ', '|'), ('క', '|'), ('యె', '|'), ('డ', '|'), ('నా', 'U'), ('ప', '|'), ('దై', 'U'), ('న', '|'), ('ద', '|'), ('డ', '|'), ('వుం', 'U'), ('డ', '|'), ('దు', '|'), ('వే', 'U'), ('గ', '|'), ('మె', '|'), ('పా', 'U'), ('సి', '|'), ('పో', 'U'), ('వు', '|'), ('గా', 'U'), ('య', '|'), ('క', '|'), ('లు', '|'), ('ష', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('యై', 'U'), ('న', '|'), ('య', '|'), ('మృ', '|'), ('తాం', 'U'), ('శు', '|'), ('డు', '|'), ('రా', 'U'), ('హు', '|'), ('వు', '|'), ('త', 'U'), ('న్ను', '|'), ('మ్రిం', 'U'), ('గి', '|'), ('నం', 'U'), ('డ', '|'), ('క', '|'), ('ట', '|'), ('క', '|'), ('మా', 'U'), ('ని', '|'), ('యుం', 'U'), ('డ', '|'), ('డె', '|'), ('దృ', '|'), ('ఢ', 'U'), ('స్థి', '|'), ('తి', '|'), ('నె', 'U'), ('ప్ప', '|'), ('టి', '|'), ('య', 'U'), ('ట్ల', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
         <is>
           <t>సన్నుత కార్యదక్షుఁడొక చాయ నిజప్రభ యప్రకాశమై
 యున్నపుడైన లోకులకు నొండక మేలొనరించు సత్త్వసం
@@ -3645,32 +3354,29 @@
 దెన్నికగా బకాసురుని నేపున రూపడఁగించి భాస్కరా!</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
           <t>[('స', 'U'), ('న్ను', '|'), ('త', '|'), ('కా', 'U'), ('ర్య', '|'), ('ద', 'U'), ('క్షు', '|'), ('డొ', '|'), ('క', '|'), ('చా', 'U'), ('య', '|'), ('ని', '|'), ('జ', 'U'), ('ప్ర', '|'), ('భ', '|'), ('య', 'U'), ('ప్ర', '|'), ('కా', 'U'), ('శ', '|'), ('మై', 'U'), ('యు', 'U'), ('న్న', '|'), ('పు', '|'), ('డై', 'U'), ('న', '|'), ('లో', 'U'), ('కు', '|'), ('ల', '|'), ('కు', '|'), ('నొం', 'U'), ('డ', '|'), ('క', '|'), ('మే', 'U'), ('లొ', '|'), ('న', '|'), ('రిం', 'U'), ('చు', '|'), ('స', 'U'), ('త్త్వ', '|'), ('సం', 'U'), ('ప', 'U'), ('న్ను', '|'), ('డు', '|'), ('భీ', 'U'), ('ము', '|'), ('డా', 'U'), ('ద్వి', '|'), ('జు', '|'), ('ల', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('కా', 'U'), ('వ', '|'), ('డె', '|'), ('యే', 'U'), ('క', '|'), ('చ', 'U'), ('క్ర', '|'), ('మం', 'U'), ('దె', 'U'), ('న్ని', '|'), ('క', '|'), ('గా', 'U'), ('బ', '|'), ('కా', 'U'), ('సు', '|'), ('రు', '|'), ('ని', '|'), ('నే', 'U'), ('పు', '|'), ('న', '|'), ('రూ', 'U'), ('ప', '|'), ('డ', '|'), ('గిం', 'U'), ('చి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
         <is>
           <t>సరసగుణ ప్రపూర్ణునకు సన్నపు దుర్గుణ మొక్కవేళ యం
 దొరసిన నిటు నీకుఁ దగునో యని చెప్పిన మాన నేర్చుగా
@@ -3678,32 +3384,29 @@
 నొరసిన నిర్మలత్వమున నుండవె నీరములెల్ల భాస్కరా!</t>
         </is>
       </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('ర', '|'), ('స', '|'), ('గు', '|'), ('ణ', 'U'), ('ప్ర', '|'), ('పూ', 'U'), ('ర్ణు', '|'), ('న', '|'), ('కు', '|'), ('స', 'U'), ('న్న', '|'), ('పు', '|'), ('దు', 'U'), ('ర్గు', '|'), ('ణ', '|'), ('మొ', 'U'), ('క్క', '|'), ('వే', 'U'), ('ళ', '|'), ('యం', 'U'), ('దొ', '|'), ('ర', '|'), ('సి', '|'), ('న', '|'), ('ని', '|'), ('టు', '|'), ('నీ', 'U'), ('కు', '|'), ('ద', '|'), ('గు', '|'), ('నో', 'U'), ('య', '|'), ('ని', '|'), ('చె', 'U'), ('ప్పి', '|'), ('న', '|'), ('మా', 'U'), ('న', '|'), ('నే', 'U'), ('ర్చు', '|'), ('గా', 'U'), ('బు', '|'), ('ర', '|'), ('ద', '|'), ('యొ', '|'), ('కిం', 'U'), ('చు', '|'), ('కం', 'U'), ('త', '|'), ('త', '|'), ('ము', '|'), ('బొం', 'U'), ('ది', '|'), ('న', '|'), ('వే', 'U'), ('ళ', '|'), ('ల', '|'), ('జి', 'U'), ('ల్ల', '|'), ('వి', 'U'), ('త్తు', '|'), ('పై', 'U'), ('నొ', '|'), ('ర', '|'), ('సి', '|'), ('న', '|'), ('ని', '|'), ('ర్మ', '|'), ('ల', 'U'), ('త్వ', '|'), ('ము', '|'), ('న', '|'), ('నుం', 'U'), ('డ', '|'), ('వె', '|'), ('నీ', 'U'), ('ర', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
         <is>
           <t>సరసదయాగుణంబుగల జాణ మహిం గడు నొచ్చియుం
 దఱచుగ వాని కాసపడి దాయఁగ వత్తురు లోకులెట్లనం
@@ -3711,32 +3414,29 @@
 ధరఁ బడియున్నఁ జేరవె ముదంబునఁ జీమలు పెక్కు భాస్కరా!</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('ర', '|'), ('స', '|'), ('ద', '|'), ('యా', 'U'), ('గు', '|'), ('ణం', 'U'), ('బు', '|'), ('గ', '|'), ('ల', '|'), ('జా', 'U'), ('ణ', '|'), ('మ', '|'), ('హిం', 'U'), ('గ', '|'), ('డు', '|'), ('నొ', 'U'), ('చ్చి', '|'), ('యుం', 'U'), ('ద', '|'), ('ఱ', '|'), ('చు', '|'), ('గ', '|'), ('వా', 'U'), ('ని', '|'), ('కా', 'U'), ('స', '|'), ('ప', '|'), ('డి', '|'), ('దా', 'U'), ('య', '|'), ('గ', '|'), ('వ', 'U'), ('త్తు', '|'), ('రు', '|'), ('లో', 'U'), ('కు', '|'), ('లె', 'U'), ('ట్ల', '|'), ('నం', 'U'), ('జె', '|'), ('ఱ', '|'), ('కు', '|'), ('ర', '|'), ('సం', 'U'), ('బు', '|'), ('గా', 'U'), ('ను', '|'), ('గ', '|'), ('ను', '|'), ('జి', 'U'), ('ప్పి', '|'), ('లి', '|'), ('పో', 'U'), ('యి', '|'), ('న', '|'), ('మీ', 'U'), ('ద', '|'), ('బి', 'U'), ('ప్పి', '|'), ('యై', 'U'), ('ధ', '|'), ('ర', '|'), ('బ', '|'), ('డి', '|'), ('యు', 'U'), ('న్న', '|'), ('జే', 'U'), ('ర', '|'), ('వె', '|'), ('ము', '|'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('జీ', 'U'), ('మ', '|'), ('లు', '|'), ('పె', 'U'), ('క్కు', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
         <is>
           <t>సారవివేకవర్తనల సన్నుతికెక్కిన వారిలోపలం
 జేరినయంత మూఢులకుఁ జేపడ దానడ; యెట్టులన్నఁ గా
@@ -3744,32 +3444,29 @@
 తీరునఁ గల్గ నేర్చును దదీయగతుల్‌ దలపోయ భాస్కరా!</t>
         </is>
       </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
           <t>[('సా', 'U'), ('ర', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('వ', 'U'), ('ర్త', '|'), ('న', '|'), ('ల', '|'), ('స', 'U'), ('న్ను', '|'), ('తి', '|'), ('కె', 'U'), ('క్కి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('లో', 'U'), ('ప', '|'), ('లం', 'U'), ('జే', 'U'), ('రి', '|'), ('న', '|'), ('యం', 'U'), ('త', '|'), ('మూ', 'U'), ('ఢు', '|'), ('ల', '|'), ('కు', '|'), ('జే', 'U'), ('ప', '|'), ('డ', '|'), ('దా', 'U'), ('న', '|'), ('డ', '|'), ('యె', 'U'), ('ట్టు', '|'), ('ల', 'U'), ('న్న', '|'), ('గా', 'U'), ('సా', 'U'), ('ర', '|'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('హం', 'U'), ('స', '|'), ('ము', '|'), ('ల', '|'), ('సం', 'U'), ('గ', '|'), ('తి', '|'), ('నుం', 'U'), ('డె', '|'), ('డి', '|'), ('కొం', 'U'), ('గ', '|'), ('పి', 'U'), ('ట్ట', '|'), ('కే', 'U'), ('తీ', 'U'), ('రు', '|'), ('న', '|'), ('గ', 'U'), ('ల్గ', '|'), ('నే', 'U'), ('ర్చు', '|'), ('ను', '|'), ('ద', '|'), ('దీ', 'U'), ('య', '|'), ('గ', '|'), ('తుల్', 'U'), ('ద', '|'), ('ల', '|'), ('పో', 'U'), ('య', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B102" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
         <is>
           <t>స్థానముఁ దప్పివచ్చునెడఁ దానెటువంటి బలాఢ్యుఁడున్‌ నిజ
 స్థానికుఁడైన యల్పుని కతంబున నైనను మోసపోవుఁగా;
@@ -3777,32 +3474,29 @@
 గానక చొచ్చినన్‌ మొసలి కాటుకు లోఁబడదటోటు భాస్కరా!</t>
         </is>
       </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
           <t>[('స్థా', 'U'), ('న', '|'), ('ము', '|'), ('ద', 'U'), ('ప్పి', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నె', '|'), ('డ', '|'), ('దా', 'U'), ('నె', '|'), ('టు', '|'), ('వం', 'U'), ('టి', '|'), ('బ', '|'), ('లా', 'U'), ('ఢ్యు', '|'), ('డున్', 'U'), ('ని', '|'), ('జ', 'U'), ('స్థా', 'U'), ('ని', '|'), ('కు', '|'), ('డై', 'U'), ('న', '|'), ('య', 'U'), ('ల్పు', '|'), ('ని', '|'), ('క', '|'), ('తం', 'U'), ('బు', '|'), ('న', '|'), ('నై', 'U'), ('న', '|'), ('ను', '|'), ('మో', 'U'), ('స', '|'), ('పో', 'U'), ('వు', '|'), ('గా', 'U'), ('కా', 'U'), ('న', '|'), ('ల', '|'), ('లో', 'U'), ('ప', '|'), ('లన్', 'U'), ('వె', '|'), ('డ', '|'), ('లి', '|'), ('గం', 'U'), ('ధ', '|'), ('గ', '|'), ('జం', 'U'), ('బొ', '|'), ('క', '|'), ('నా', 'U'), ('డు', '|'), ('నీ', 'U'), ('టి', '|'), ('లో', 'U'), ('గా', 'U'), ('న', '|'), ('క', '|'), ('చొ', 'U'), ('చ్చి', '|'), ('నన్', 'U'), ('మొ', '|'), ('స', '|'), ('లి', '|'), ('కా', 'U'), ('టు', '|'), ('కు', '|'), ('లో', 'U'), ('బ', '|'), ('డ', '|'), ('ద', '|'), ('టో', 'U'), ('టు', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B103" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
         <is>
           <t>సిరిగలవాని కెయ్యెడలఁ జేసిన మేలది నిష్ఫలం బగున్‌
 నెఱిగుఱి గాదు పేదలకు నేర్పునఁ జేసిన సత్ఫలంబగున్‌
@@ -3810,32 +3504,29 @@
 గురిసినఁగాక యంబుధులఁ గుర్వఁగ నేమి ఫలంబు భాస్కరా!</t>
         </is>
       </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
           <t>[('సి', '|'), ('రి', '|'), ('గ', '|'), ('ల', '|'), ('వా', 'U'), ('ని', '|'), ('కె', 'U'), ('య్యె', '|'), ('డ', '|'), ('ల', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('మే', 'U'), ('ల', '|'), ('ది', '|'), ('ని', 'U'), ('ష్ఫ', '|'), ('లం', 'U'), ('బ', '|'), ('గున్', 'U'), ('నె', '|'), ('ఱి', '|'), ('గు', '|'), ('ఱి', '|'), ('గా', 'U'), ('దు', '|'), ('పే', 'U'), ('ద', '|'), ('ల', '|'), ('కు', '|'), ('నే', 'U'), ('ర్పు', '|'), ('న', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('స', 'U'), ('త్ఫ', '|'), ('లం', 'U'), ('బ', '|'), ('గున్', 'U'), ('వ', '|'), ('ఱ', '|'), ('పు', '|'), ('న', '|'), ('వ', 'U'), ('చ్చి', '|'), ('మే', 'U'), ('ఘు', '|'), ('డొ', '|'), ('క', '|'), ('వ', 'U'), ('ర్ష', '|'), ('ము', '|'), ('వా', 'U'), ('డి', '|'), ('న', '|'), ('చే', 'U'), ('ల', '|'), ('మీ', 'U'), ('ద', '|'), ('టం', 'U'), ('గు', '|'), ('రి', '|'), ('సి', '|'), ('న', '|'), ('గా', 'U'), ('క', '|'), ('యం', 'U'), ('బు', '|'), ('ధు', '|'), ('ల', '|'), ('గు', 'U'), ('ర్వ', '|'), ('గ', '|'), ('నే', 'U'), ('మి', '|'), ('ఫ', '|'), ('లం', 'U'), ('బు', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B104" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
         <is>
           <t>సిరివలెనేని సింహగుహ చెంత వసించినఁ జాలు సింహముల్‌
 కరుల వధింపఁగా నచటఁ గల్గును దంతచయంబు ముత్యముల్‌
@@ -3843,32 +3534,29 @@
 గొరిసెలు దూడతోఁకలును గొమ్ములు నెమ్ములుఁగాక భాస్కరా!</t>
         </is>
       </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
           <t>[('సి', '|'), ('రి', '|'), ('వ', '|'), ('లె', '|'), ('నే', 'U'), ('ని', '|'), ('సిం', 'U'), ('హ', '|'), ('గు', '|'), ('హ', '|'), ('చెం', 'U'), ('త', '|'), ('వ', '|'), ('సిం', 'U'), ('చి', '|'), ('న', '|'), ('జా', 'U'), ('లు', '|'), ('సిం', 'U'), ('హ', '|'), ('ముల్', 'U'), ('క', '|'), ('రు', '|'), ('ల', '|'), ('వ', '|'), ('ధిం', 'U'), ('ప', '|'), ('గా', 'U'), ('న', '|'), ('చ', '|'), ('ట', '|'), ('గ', 'U'), ('ల్గు', '|'), ('ను', '|'), ('దం', 'U'), ('త', '|'), ('చ', '|'), ('యం', 'U'), ('బు', '|'), ('ము', 'U'), ('త్య', '|'), ('ముల్', 'U'), ('హ', '|'), ('రు', '|'), ('వు', '|'), ('గ', '|'), ('న', 'U'), ('క్క', '|'), ('బొ', 'U'), ('క్క', '|'), ('క', '|'), ('డ', '|'), ('నా', 'U'), ('శ్ర', '|'), ('య', '|'), ('మం', 'U'), ('ది', '|'), ('న', '|'), ('నే', 'U'), ('మి', '|'), ('గ', 'U'), ('ల్గె', '|'), ('డుం', 'U'), ('గొ', '|'), ('రి', '|'), ('సె', '|'), ('లు', '|'), ('దూ', 'U'), ('డ', '|'), ('తో', 'U'), ('క', '|'), ('లు', '|'), ('ను', '|'), ('గొ', 'U'), ('మ్ము', '|'), ('లు', '|'), ('నె', 'U'), ('మ్ము', '|'), ('లు', '|'), ('గా', 'U'), ('క', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B105" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
         <is>
           <t>స్థిరతర ధర్మవర్తన బ్రసిద్ధికి నెక్కినవాని నొక్క ము
 ష్కరుఁ డతినీచవాక్యములఁ గాదని పల్కిన నమ్మహాత్ముఁడుం
@@ -3876,32 +3564,29 @@
 నరుగుచుఁ గాకి రెట్ట యిడినందున నేమి కొఱంత భాస్కరా!</t>
         </is>
       </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
           <t>[('స్థి', '|'), ('ర', '|'), ('త', '|'), ('ర', '|'), ('ధ', '|'), ('ర్మ', '|'), ('వ', 'U'), ('ర్త', '|'), ('న', 'U'), ('బ్ర', '|'), ('సి', 'U'), ('ద్ధి', '|'), ('కి', '|'), ('నె', 'U'), ('క్కి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('నొ', 'U'), ('క్క', '|'), ('ము', 'U'), ('ష్క', '|'), ('రు', '|'), ('డ', '|'), ('తి', '|'), ('నీ', 'U'), ('చ', '|'), ('వా', 'U'), ('క్య', '|'), ('ము', '|'), ('ల', '|'), ('గా', 'U'), ('ద', '|'), ('ని', '|'), ('ప', 'U'), ('ల్కి', '|'), ('న', '|'), ('న', 'U'), ('మ్మ', '|'), ('హా', 'U'), ('త్ము', '|'), ('డుం', 'U'), ('గొ', '|'), ('ఱ', '|'), ('త', '|'), ('వ', '|'), ('హిం', 'U'), ('ప', '|'), ('డ', 'U'), ('య్యె', '|'), ('డ', '|'), ('న', '|'), ('కుం', 'U'), ('ఠి', '|'), ('త', '|'), ('పూ', 'U'), ('ర్ణ', '|'), ('సు', '|'), ('ధా', 'U'), ('ప', '|'), ('యో', 'U'), ('ధి', '|'), ('లో', 'U'), ('న', '|'), ('రు', '|'), ('గు', '|'), ('చు', '|'), ('గా', 'U'), ('కి', '|'), ('రె', 'U'), ('ట్ట', '|'), ('యి', '|'), ('డి', '|'), ('నం', 'U'), ('దు', '|'), ('న', '|'), ('నే', 'U'), ('మి', '|'), ('కొ', '|'), ('ఱం', 'U'), ('త', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B106" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
         <is>
           <t>స్ఫురతర కీర్తిమంతులగు పుత్త్రుల గాంచినఁగాక మూఢము
 ష్కరులఁ గనంగఁ దేజములు గల్గవుగా; మణికీలితాంగుళా
@@ -3909,32 +3594,29 @@
 గరములు పెట్టినందున వికాసము గల్గునటయ్య? భాస్కరా!</t>
         </is>
       </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
           <t>[('స్ఫు', '|'), ('ర', '|'), ('త', '|'), ('ర', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('మం', 'U'), ('తు', '|'), ('ల', '|'), ('గు', '|'), ('పు', 'U'), ('త్త్రు', '|'), ('ల', '|'), ('గాం', 'U'), ('చి', '|'), ('న', '|'), ('గా', 'U'), ('క', '|'), ('మూ', 'U'), ('ఢ', '|'), ('ము', 'U'), ('ష్క', '|'), ('రు', '|'), ('ల', '|'), ('గ', '|'), ('నం', 'U'), ('గ', '|'), ('దే', 'U'), ('జ', '|'), ('ము', '|'), ('లు', '|'), ('గ', 'U'), ('ల్గ', '|'), ('వు', '|'), ('గా', 'U'), ('మ', '|'), ('ణి', '|'), ('కీ', 'U'), ('లి', '|'), ('తాం', 'U'), ('గు', '|'), ('ళా', 'U'), ('భ', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('లం', 'U'), ('గు', '|'), ('ళం', 'U'), ('బు', '|'), ('ల', '|'), ('శు', '|'), ('భ', 'U'), ('స్థి', '|'), ('తి', '|'), ('బె', 'U'), ('ట్టి', '|'), ('న', '|'), ('గా', 'U'), ('క', '|'), ('గా', 'U'), ('జు', '|'), ('టుం', 'U'), ('గ', '|'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('పె', 'U'), ('ట్టి', '|'), ('నం', 'U'), ('దు', '|'), ('న', '|'), ('వి', '|'), ('కా', 'U'), ('స', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గు', '|'), ('న', '|'), ('ట', 'U'), ('య్య', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B107" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
         <is>
           <t>సేనగ వాంఛితాన్నము భుజింపఁగలప్పుడు కాక లేనిచో
 మేనులు డస్సియుంట నిజమేకద దేహుల కగ్నిహోత్రుఁడౌ
@@ -3942,32 +3624,29 @@
 డూని విభూతిలోనడఁగి యుండఁడె తేజము తప్పి భాస్కరా!</t>
         </is>
       </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
           <t>[('సే', 'U'), ('న', '|'), ('గ', '|'), ('వాం', 'U'), ('ఛి', '|'), ('తా', 'U'), ('న్న', '|'), ('ము', '|'), ('భు', '|'), ('జిం', 'U'), ('ప', '|'), ('గ', '|'), ('ల', 'U'), ('ప్పు', '|'), ('డు', '|'), ('కా', 'U'), ('క', '|'), ('లే', 'U'), ('ని', '|'), ('చో', 'U'), ('మే', 'U'), ('ను', '|'), ('లు', '|'), ('డ', 'U'), ('స్సి', '|'), ('యుం', 'U'), ('ట', '|'), ('ని', '|'), ('జ', '|'), ('మే', 'U'), ('క', '|'), ('ద', '|'), ('దే', 'U'), ('హు', '|'), ('ల', '|'), ('క', 'U'), ('గ్ని', '|'), ('హో', 'U'), ('త్రు', '|'), ('డౌ', 'U'), ('నే', 'U'), ('ని', '|'), ('జ', '|'), ('భో', 'U'), ('జ్య', '|'), ('ముల్', 'U'), ('గు', '|'), ('డు', '|'), ('చు', '|'), ('నే', 'U'), ('ని', '|'), ('యు', '|'), ('బు', 'U'), ('ష్టి', '|'), ('వ', '|'), ('హిం', 'U'), ('చు', '|'), ('లే', 'U'), ('ని', '|'), ('నా', 'U'), ('డూ', 'U'), ('ని', '|'), ('వి', '|'), ('భూ', 'U'), ('తి', '|'), ('లో', 'U'), ('న', '|'), ('డ', '|'), ('గి', '|'), ('యుం', 'U'), ('డ', '|'), ('డె', '|'), ('తే', 'U'), ('జ', '|'), ('ము', '|'), ('త', 'U'), ('ప్పి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B108" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
         <is>
           <t>హాళి నిజప్రబుద్ధి తిరమైన విధంబునఁ బెట్టుబుద్ధులా
 వేళలకంతె కాని మఱి వెన్కకు నిల్వవు; హేమకాంతి యె
@@ -3975,32 +3654,29 @@
 దాళియు నుండునే యినుప తాటకఁ జాయలు పోక భాస్కరా!</t>
         </is>
       </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
           <t>[('హా', 'U'), ('ళి', '|'), ('ని', '|'), ('జ', 'U'), ('ప్ర', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('తి', '|'), ('ర', '|'), ('మై', 'U'), ('న', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('న', '|'), ('బె', 'U'), ('ట్టు', '|'), ('బు', 'U'), ('ద్ధు', '|'), ('లా', 'U'), ('వే', 'U'), ('ళ', '|'), ('ల', '|'), ('కం', 'U'), ('తె', '|'), ('కా', 'U'), ('ని', '|'), ('మ', '|'), ('ఱి', '|'), ('వె', 'U'), ('న్క', '|'), ('కు', '|'), ('ని', 'U'), ('ల్వ', '|'), ('వు', '|'), ('హే', 'U'), ('మ', '|'), ('కాం', 'U'), ('తి', '|'), ('యె', 'U'), ('న్నా', 'U'), ('ళు', '|'), ('ల', '|'), ('కుం', 'U'), ('డు', '|'), ('గా', 'U'), ('ని', '|'), ('యొ', '|'), ('క', '|'), ('నా', 'U'), ('డు', '|'), ('ప', '|'), ('దం', 'U'), ('ప', '|'), ('డి', '|'), ('సా', 'U'), ('న', '|'), ('బ', 'U'), ('ట్టి', '|'), ('నన్', 'U'), ('దా', 'U'), ('ళి', '|'), ('యు', '|'), ('నుం', 'U'), ('డు', '|'), ('నే', 'U'), ('యి', '|'), ('ను', '|'), ('ప', '|'), ('తా', 'U'), ('ట', '|'), ('క', '|'), ('జా', 'U'), ('య', '|'), ('లు', '|'), ('పో', 'U'), ('క', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B109" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
         <is>
           <t>హీనకులంబునందు జనియించినవారికి సద్గుణంబు లె
 న్నేనియుఁ గల్గియున్న నొక నేరము చెందకపోదు; పద్మముల్‌
@@ -4008,32 +3684,29 @@
 బైన నసహ్య మొందవె ప్రియంబునఁ జూడఁగ లేక భాస్కరా!</t>
         </is>
       </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
           <t>[('హీ', 'U'), ('న', '|'), ('కు', '|'), ('లం', 'U'), ('బు', '|'), ('నం', 'U'), ('దు', '|'), ('జ', '|'), ('ని', '|'), ('యిం', 'U'), ('చి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('కి', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణం', 'U'), ('బు', '|'), ('లె', 'U'), ('న్నే', 'U'), ('ని', '|'), ('యు', '|'), ('గ', 'U'), ('ల్గి', '|'), ('యు', 'U'), ('న్న', '|'), ('నొ', '|'), ('క', '|'), ('నే', 'U'), ('ర', '|'), ('ము', '|'), ('చెం', 'U'), ('ద', '|'), ('క', '|'), ('పో', 'U'), ('దు', '|'), ('ప', 'U'), ('ద్మ', '|'), ('ముల్', 'U'), ('భూ', 'U'), ('ను', '|'), ('తి', '|'), ('గాం', 'U'), ('చి', '|'), ('యున్', 'U'), ('బు', '|'), ('ర', '|'), ('ద', '|'), ('బు', 'U'), ('ట్టు', '|'), ('ట', '|'), ('వ', 'U'), ('ల్ల', '|'), ('సు', '|'), ('ధా', 'U'), ('క', '|'), ('రో', 'U'), ('ద', '|'), ('యం', 'U'), ('బై', 'U'), ('న', '|'), ('న', '|'), ('స', 'U'), ('హ్య', '|'), ('మొం', 'U'), ('ద', '|'), ('వె', 'U'), ('ప్రి', '|'), ('యం', 'U'), ('బు', '|'), ('న', '|'), ('జూ', 'U'), ('డ', '|'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B110" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
         <is>
           <t>ఇంచుక నేర్పు చాలక విహీనతఁ జెందిన నా కవిత్వమున్‌
 మించు వహించె నీకతన మిక్కిలి యెట్లనఁ దోలుబొమ్మలున్‌
@@ -4041,17 +3714,17 @@
 డించిన నాడవే జనుల డెందము నింపవె ప్రీతి భాస్కరా!</t>
         </is>
       </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>bhaskara</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
-        <is>
-          <t>bhaskara</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
         <is>
           <t>[('ఇం', 'U'), ('చు', '|'), ('క', '|'), ('నే', 'U'), ('ర్పు', '|'), ('చా', 'U'), ('ల', '|'), ('క', '|'), ('వి', '|'), ('హీ', 'U'), ('న', '|'), ('త', '|'), ('జెం', 'U'), ('ది', '|'), ('న', '|'), ('నా', 'U'), ('క', '|'), ('వి', 'U'), ('త్వ', '|'), ('మున్', 'U'), ('మిం', 'U'), ('చు', '|'), ('వ', '|'), ('హిం', 'U'), ('చె', '|'), ('నీ', 'U'), ('క', '|'), ('త', '|'), ('న', '|'), ('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('యె', 'U'), ('ట్ల', '|'), ('న', '|'), ('దో', 'U'), ('లు', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('లున్', 'U'), ('మం', 'U'), ('చి', '|'), ('వి', '|'), ('వే', 'U'), ('కి', '|'), ('వా', 'U'), ('ని', '|'), ('తె', '|'), ('ర', '|'), ('మా', 'U'), ('టు', '|'), ('న', '|'), ('నుం', 'U'), ('డి', 'U'), ('ప్ర', '|'), ('శ', 'U'), ('స్త', '|'), ('రీ', 'U'), ('తి', '|'), ('నా', 'U'), ('డిం', 'U'), ('చి', '|'), ('న', '|'), ('నా', 'U'), ('డ', '|'), ('వే', 'U'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('డెం', 'U'), ('ద', '|'), ('ము', '|'), ('నిం', 'U'), ('ప', '|'), ('వె', 'U'), ('ప్రీ', 'U'), ('తి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>

--- a/dataset/lg/bhaskara.xlsx
+++ b/dataset/lg/bhaskara.xlsx
@@ -516,7 +516,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('అం', 'U'), ('గ', '|'), ('న', '|'), ('న', 'U'), ('మ్మ', '|'), ('రా', 'U'), ('దు', '|'), ('త', '|'), ('న', '|'), ('యం', 'U'), ('కె', '|'), ('కు', '|'), ('రా', 'U'), ('ని', '|'), ('మ', '|'), ('హా', 'U'), ('బ', '|'), ('లా', 'U'), ('ఢ్యు', '|'), ('వే', 'U'), ('భం', 'U'), ('గు', '|'), ('ల', '|'), ('మా', 'U'), ('య', '|'), ('లొ', 'U'), ('డ్డి', '|'), ('చె', '|'), ('ఱు', '|'), ('పం', 'U'), ('ద', '|'), ('ల', '|'), ('పె', 'U'), ('ట్టు', '|'), ('వి', '|'), ('వే', 'U'), ('కి', '|'), ('యై', 'U'), ('న', '|'), ('సా', 'U'), ('రం', 'U'), ('గ', '|'), ('ధ', '|'), ('రుం', 'U'), ('బ', '|'), ('దం', 'U'), ('బు', '|'), ('లు', '|'), ('క', '|'), ('రం', 'U'), ('బు', '|'), ('లు', '|'), ('గో', 'U'), ('య', '|'), ('గ', '|'), ('జే', 'U'), ('సె', '|'), ('దొ', 'U'), ('ల్లి', '|'), ('చి', '|'), ('త్రాం', 'U'), ('గి', '|'), ('య', '|'), ('నే', 'U'), ('క', '|'), ('ముల్', 'U'), ('ను', '|'), ('డు', '|'), ('వ', '|'), ('రా', 'U'), ('ని', '|'), ('కు', '|'), ('యు', 'U'), ('క్తు', '|'), ('లు', '|'), ('ప', 'U'), ('న్ని', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
+          <t>[('అం', 'U'), ('గ', '|'), ('న', '|'), ('న', 'U'), ('మ్మ', '|'), ('రా', 'U'), ('దు', '|'), ('త', '|'), ('న', '|'), ('యం', 'U'), ('కె', '|'), ('కు', '|'), ('రా', 'U'), ('ని', '|'), ('మ', '|'), ('హా', 'U'), ('బ', '|'), ('లా', 'U'), ('ఢ్యు', '|'), ('వే', 'U'), ('భం', 'U'), ('గు', '|'), ('ల', '|'), ('మా', 'U'), ('య', '|'), ('లొ', 'U'), ('డ్డి', '|'), ('చె', '|'), ('ఱు', '|'), ('పం', 'U'), ('ద', '|'), ('ల', '|'), ('పె', 'U'), ('ట్టు', '|'), ('వి', '|'), ('వే', 'U'), ('కి', '|'), ('యై', 'U'), ('న', '|'), ('సా', 'U'), ('రం', 'U'), ('గ', '|'), ('ధ', '|'), ('రుం', 'U'), ('బ', '|'), ('దం', 'U'), ('బు', '|'), ('లు', '|'), ('క', '|'), ('రం', 'U'), ('బు', '|'), ('లు', '|'), ('గో', 'U'), ('య', '|'), ('గ', '|'), ('జే', 'U'), ('సె', '|'), ('దొ', 'U'), ('ల్లి', '|'), ('చి', '|'), ('త్రాం', 'U'), ('గి', '|'), ('య', '|'), ('నే', 'U'), ('క', '|'), ('ము', 'U'), ('ల్ను', '|'), ('డు', '|'), ('వ', '|'), ('రా', 'U'), ('ని', '|'), ('కు', '|'), ('యు', 'U'), ('క్తు', '|'), ('లు', '|'), ('ప', 'U'), ('న్ని', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('ల', '|'), ('ఘు', '|'), ('గు', '|'), ('ణ', '|'), ('ప్ర', '|'), ('సి', 'U'), ('ద్ధు', '|'), ('డ', '|'), ('గు', '|'), ('న', 'U'), ('ట్టి', '|'), ('ఘ', '|'), ('నుం', 'U'), ('డొ', '|'), ('క', '|'), ('డి', 'U'), ('ష్టు', '|'), ('డై', 'U'), ('త', '|'), ('నున్', 'U'), ('వ', '|'), ('ల', '|'), ('చి', '|'), ('యొ', '|'), ('కిం', 'U'), ('చు', '|'), ('కే', 'U'), ('మి', '|'), ('డి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('కి', '|'), ('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('మే', 'U'), ('లు', '|'), ('చే', 'U'), ('యు', '|'), ('గా', 'U'), ('తె', '|'), ('లి', '|'), ('సి', '|'), ('కు', '|'), ('చే', 'U'), ('లు', '|'), ('డొ', 'U'), ('క్క', '|'), ('కొ', '|'), ('ణి', '|'), ('దెం', 'U'), ('డ', '|'), ('డు', '|'), ('కుల్', 'U'), ('ద', '|'), ('న', '|'), ('కి', 'U'), ('చ్చి', '|'), ('నన్', 'U'), ('మ', '|'), ('హా', 'U'), ('ఫ', '|'), ('ల', '|'), ('దు', '|'), ('డు', '|'), ('కృ', 'U'), ('ష్ణు', '|'), ('డ', 'U'), ('త్య', '|'), ('ధి', '|'), ('క', '|'), ('భా', 'U'), ('గ్య', '|'), ('ము', '|'), ('లా', 'U'), ('త', '|'), ('ని', '|'), ('కీ', 'U'), ('డె', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
+          <t>[('అ', '|'), ('ల', '|'), ('ఘు', '|'), ('గు', '|'), ('ణ', '|'), ('ప్ర', '|'), ('సి', 'U'), ('ద్ధు', '|'), ('డ', '|'), ('గు', '|'), ('న', 'U'), ('ట్టి', '|'), ('ఘ', '|'), ('నుం', 'U'), ('డొ', '|'), ('క', '|'), ('డి', 'U'), ('ష్టు', '|'), ('డై', 'U'), ('త', '|'), ('నున్', 'U'), ('వ', '|'), ('ల', '|'), ('చి', '|'), ('యొ', '|'), ('కిం', 'U'), ('చు', '|'), ('కే', 'U'), ('మి', '|'), ('డి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('కి', '|'), ('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('మే', 'U'), ('లు', '|'), ('చే', 'U'), ('యు', '|'), ('గా', 'U'), ('తె', '|'), ('లి', '|'), ('సి', '|'), ('కు', '|'), ('చే', 'U'), ('లు', '|'), ('డొ', 'U'), ('క్క', '|'), ('కొ', '|'), ('ణి', '|'), ('దెం', 'U'), ('డ', '|'), ('డు', '|'), ('కు', 'U'), ('ల్ద', '|'), ('న', '|'), ('కి', 'U'), ('చ్చి', '|'), ('న', 'U'), ('న్మ', '|'), ('హా', 'U'), ('ఫ', '|'), ('ల', '|'), ('దు', '|'), ('డు', '|'), ('కృ', 'U'), ('ష్ణు', '|'), ('డ', 'U'), ('త్య', '|'), ('ధి', '|'), ('క', '|'), ('భా', 'U'), ('గ్య', '|'), ('ము', '|'), ('లా', 'U'), ('త', '|'), ('ని', '|'), ('కీ', 'U'), ('డె', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('ఆ', 'U'), ('ద', '|'), ('ర', '|'), ('మిం', 'U'), ('త', '|'), ('లే', 'U'), ('క', '|'), ('న', '|'), ('రు', '|'), ('డా', 'U'), ('త్మ', '|'), ('బ', '|'), ('లో', 'U'), ('న్న', '|'), ('తి', '|'), ('మం', 'U'), ('చి', '|'), ('వా', 'U'), ('రి', '|'), ('కిన్', 'U'), ('భే', 'U'), ('ద', '|'), ('ము', '|'), ('చే', 'U'), ('యు', '|'), ('టం', 'U'), ('ద', '|'), ('న', '|'), ('దు', '|'), ('పే', 'U'), ('ర్మి', '|'), ('కి', '|'), ('గీ', 'U'), ('డ', '|'), ('గు', '|'), ('మూ', 'U'), ('ల', '|'), ('మె', 'U'), ('ట్ల', '|'), ('మ', 'U'), ('ర్యా', 'U'), ('ద', '|'), ('హి', '|'), ('ర', 'U'), ('ణ్య', '|'), ('పూ', 'U'), ('ర్వ', '|'), ('క', '|'), ('శి', '|'), ('పన్', 'U'), ('ద', '|'), ('ను', '|'), ('జుం', 'U'), ('డు', '|'), ('గు', '|'), ('ణా', 'U'), ('ఢ్యు', '|'), ('డై', 'U'), ('న', '|'), ('ప్ర', 'U'), ('హ్లా', 'U'), ('దు', '|'), ('న', '|'), ('కె', 'U'), ('గ్గు', '|'), ('చే', 'U'), ('సి', '|'), ('ప్ర', '|'), ('ళ', '|'), ('యం', 'U'), ('బు', '|'), ('ను', '|'), ('బొం', 'U'), ('ద', '|'), ('డె', '|'), ('ము', 'U'), ('న్ను', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
+          <t>[('ఆ', 'U'), ('ద', '|'), ('ర', '|'), ('మిం', 'U'), ('త', '|'), ('లే', 'U'), ('క', '|'), ('న', '|'), ('రు', '|'), ('డా', 'U'), ('త్మ', '|'), ('బ', '|'), ('లో', 'U'), ('న్న', '|'), ('తి', '|'), ('మం', 'U'), ('చి', '|'), ('వా', 'U'), ('రి', '|'), ('కిన్', 'U'), ('భే', 'U'), ('ద', '|'), ('ము', '|'), ('చే', 'U'), ('యు', '|'), ('టం', 'U'), ('ద', '|'), ('న', '|'), ('దు', '|'), ('పే', 'U'), ('ర్మి', '|'), ('కి', '|'), ('గీ', 'U'), ('డ', '|'), ('గు', '|'), ('మూ', 'U'), ('ల', '|'), ('మె', 'U'), ('ట్ల', '|'), ('మ', 'U'), ('ర్యా', 'U'), ('ద', '|'), ('హి', '|'), ('ర', 'U'), ('ణ్య', '|'), ('పూ', 'U'), ('ర్వ', '|'), ('క', '|'), ('శి', '|'), ('ప', 'U'), ('న్ద', '|'), ('ను', '|'), ('జుం', 'U'), ('డు', '|'), ('గు', '|'), ('ణా', 'U'), ('ఢ్యు', '|'), ('డై', 'U'), ('న', '|'), ('ప్ర', 'U'), ('హ్లా', 'U'), ('దు', '|'), ('న', '|'), ('కె', 'U'), ('గ్గు', '|'), ('చే', 'U'), ('సి', '|'), ('ప్ర', '|'), ('ళ', '|'), ('యం', 'U'), ('బు', '|'), ('ను', '|'), ('బొం', 'U'), ('ద', '|'), ('డె', '|'), ('ము', 'U'), ('న్ను', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('ఉ', '|'), ('రు', '|'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('యు', '|'), ('తుం', 'U'), ('డు', '|'), ('స', '|'), ('మ', '|'), ('యో', 'U'), ('చి', '|'), ('త', '|'), ('మా', 'U'), ('త్మ', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('యు', '|'), ('గ్ర', '|'), ('వా', 'U'), ('క్ప', '|'), ('రు', '|'), ('ష', '|'), ('త', '|'), ('జూ', 'U'), ('పి', '|'), ('నన్', 'U'), ('ఫ', '|'), ('ల', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గు', '|'), ('ట', '|'), ('త', 'U'), ('థ్య', '|'), ('ము', '|'), ('గా', 'U'), ('దె', '|'), ('యం', 'U'), ('బు', '|'), ('దం', 'U'), ('బు', '|'), ('రి', '|'), ('మి', '|'), ('న', '|'), ('యం', 'U'), ('త', '|'), ('నే', 'U'), ('కు', '|'), ('రి', '|'), ('య', '|'), ('కుం', 'U'), ('డు', '|'), ('నె', '|'), ('వ', 'U'), ('ర్ష', '|'), ('ము', '|'), ('లో', 'U'), ('క', '|'), ('ర', 'U'), ('క్ష', '|'), ('ణ', 'U'), ('స్థి', '|'), ('ర', '|'), ('త', '|'), ('ర', '|'), ('పౌ', 'U'), ('రు', '|'), ('షం', 'U'), ('బు', '|'), ('న', '|'), ('న', '|'), ('శే', 'U'), ('ష', '|'), ('జ', '|'), ('నం', 'U'), ('బు', '|'), ('లె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
+          <t>[('ఉ', '|'), ('రు', '|'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('యు', '|'), ('తుం', 'U'), ('డు', '|'), ('స', '|'), ('మ', '|'), ('యో', 'U'), ('చి', '|'), ('త', '|'), ('మా', 'U'), ('త్మ', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('యు', '|'), ('గ్ర', '|'), ('వా', 'U'), ('క్ప', '|'), ('రు', '|'), ('ష', '|'), ('త', '|'), ('జూ', 'U'), ('పి', '|'), ('న', 'U'), ('న్ఫ', '|'), ('ల', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గు', '|'), ('ట', '|'), ('త', 'U'), ('థ్య', '|'), ('ము', '|'), ('గా', 'U'), ('దె', '|'), ('యం', 'U'), ('బు', '|'), ('దం', 'U'), ('బు', '|'), ('రి', '|'), ('మి', '|'), ('న', '|'), ('యం', 'U'), ('త', '|'), ('నే', 'U'), ('కు', '|'), ('రి', '|'), ('య', '|'), ('కుం', 'U'), ('డు', '|'), ('నె', '|'), ('వ', 'U'), ('ర్ష', '|'), ('ము', '|'), ('లో', 'U'), ('క', '|'), ('ర', 'U'), ('క్ష', '|'), ('ణ', 'U'), ('స్థి', '|'), ('ర', '|'), ('త', '|'), ('ర', '|'), ('పౌ', 'U'), ('రు', '|'), ('షం', 'U'), ('బు', '|'), ('న', '|'), ('న', '|'), ('శే', 'U'), ('ష', '|'), ('జ', '|'), ('నం', 'U'), ('బు', '|'), ('లె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[('ఏ', 'U'), ('గ', '|'), ('తి', '|'), ('బా', 'U'), ('టు', '|'), ('ప', 'U'), ('డ్డ', '|'), ('గ', '|'), ('ల', '|'), ('దే', 'U'), ('భు', '|'), ('వి', '|'), ('న', 'U'), ('ల్పు', '|'), ('న', '|'), ('కున్', 'U'), ('స', '|'), ('మ', '|'), ('గ్ర', '|'), ('తా', 'U'), ('భో', 'U'), ('గ', '|'), ('ము', '|'), ('భా', 'U'), ('గ్య', '|'), ('రే', 'U'), ('ఖ', '|'), ('గ', '|'), ('ల', '|'), ('పు', 'U'), ('ణ్యు', '|'), ('న', '|'), ('కుం', 'U'), ('బ', '|'), ('లె', '|'), ('భూ', 'U'), ('రి', '|'), ('స', 'U'), ('త్త్వ', '|'), ('సం', 'U'), ('యో', 'U'), ('గ', '|'), ('మ', '|'), ('దే', 'U'), ('భ', '|'), ('కుం', 'U'), ('భ', '|'), ('యు', '|'), ('గ', '|'), ('ళో', 'U'), ('త్థి', '|'), ('త', '|'), ('మాం', 'U'), ('స', '|'), ('ము', '|'), ('న', 'U'), ('క్క', '|'), ('కూ', 'U'), ('న', '|'), ('కే', 'U'), ('లా', 'U'), ('గు', '|'), ('ఘ', '|'), ('టిం', 'U'), ('చు', '|'), ('సిం', 'U'), ('హ', '|'), ('ము', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('న', '|'), ('జే', 'U'), ('కు', '|'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
+          <t>[('ఏ', 'U'), ('గ', '|'), ('తి', '|'), ('బా', 'U'), ('టు', '|'), ('ప', 'U'), ('డ్డ', '|'), ('గ', '|'), ('ల', '|'), ('దే', 'U'), ('భు', '|'), ('వి', '|'), ('న', 'U'), ('ల్పు', '|'), ('న', '|'), ('కు', 'U'), ('న్స', '|'), ('మ', '|'), ('గ్ర', '|'), ('తా', 'U'), ('భో', 'U'), ('గ', '|'), ('ము', '|'), ('భా', 'U'), ('గ్య', '|'), ('రే', 'U'), ('ఖ', '|'), ('గ', '|'), ('ల', '|'), ('పు', 'U'), ('ణ్యు', '|'), ('న', '|'), ('కుం', 'U'), ('బ', '|'), ('లె', '|'), ('భూ', 'U'), ('రి', '|'), ('స', 'U'), ('త్త్వ', '|'), ('సం', 'U'), ('యో', 'U'), ('గ', '|'), ('మ', '|'), ('దే', 'U'), ('భ', '|'), ('కుం', 'U'), ('భ', '|'), ('యు', '|'), ('గ', '|'), ('ళో', 'U'), ('త్థి', '|'), ('త', '|'), ('మాం', 'U'), ('స', '|'), ('ము', '|'), ('న', 'U'), ('క్క', '|'), ('కూ', 'U'), ('న', '|'), ('కే', 'U'), ('లా', 'U'), ('గు', '|'), ('ఘ', '|'), ('టిం', 'U'), ('చు', '|'), ('సిం', 'U'), ('హ', '|'), ('ము', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('న', '|'), ('జే', 'U'), ('కు', '|'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[('గి', 'U'), ('ట్టు', '|'), ('ట', '|'), ('కే', 'U'), ('డ', '|'), ('గ', 'U'), ('ట్ట', '|'), ('డ', '|'), ('లి', '|'), ('ఖిం', 'U'), ('చి', '|'), ('న', '|'), ('న', 'U'), ('చ్చ', '|'), ('ట', '|'), ('గా', 'U'), ('ని', '|'), ('యెం', 'U'), ('డు', '|'), ('చో', 'U'), ('బు', 'U'), ('ట్ట', '|'), ('దు', '|'), ('చా', 'U'), ('వు', '|'), ('జా', 'U'), ('ను', '|'), ('వు', '|'), ('ల', '|'), ('పు', 'U'), ('న్క', '|'), ('ల', '|'), ('నూ', 'U'), ('డి', '|'), ('చి', '|'), ('కా', 'U'), ('శి', '|'), ('జా', 'U'), ('వ', '|'), ('గా', 'U'), ('ల్గ', 'U'), ('ట్టి', '|'), ('న', '|'), ('శూ', 'U'), ('ద్ర', '|'), ('కున్', 'U'), ('భ్ర', '|'), ('మ', '|'), ('ల', '|'), ('గ', 'U'), ('ప్పు', '|'), ('చు', '|'), ('ద', 'U'), ('ద్వి', '|'), ('ధి', '|'), ('గు', 'U'), ('ఱ్ఱ', '|'), ('మౌ', 'U'), ('చు', '|'), ('నా', 'U'), ('ప', 'U'), ('ట్టు', '|'), ('న', '|'), ('గొం', 'U'), ('చు', '|'), ('మ', 'U'), ('ఱ్ఱి', '|'), ('క', '|'), ('డ', '|'), ('బ్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('దీ', 'U'), ('సె', '|'), ('గ', '|'), ('ద', 'U'), ('య్య', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
+          <t>[('గి', 'U'), ('ట్టు', '|'), ('ట', '|'), ('కే', 'U'), ('డ', '|'), ('గ', 'U'), ('ట్ట', '|'), ('డ', '|'), ('లి', '|'), ('ఖిం', 'U'), ('చి', '|'), ('న', '|'), ('న', 'U'), ('చ్చ', '|'), ('ట', '|'), ('గా', 'U'), ('ని', '|'), ('యెం', 'U'), ('డు', '|'), ('చో', 'U'), ('బు', 'U'), ('ట్ట', '|'), ('దు', '|'), ('చా', 'U'), ('వు', '|'), ('జా', 'U'), ('ను', '|'), ('వు', '|'), ('ల', '|'), ('పు', 'U'), ('న్క', '|'), ('ల', '|'), ('నూ', 'U'), ('డి', '|'), ('చి', '|'), ('కా', 'U'), ('శి', '|'), ('జా', 'U'), ('వ', '|'), ('గా', 'U'), ('ల్గ', 'U'), ('ట్టి', '|'), ('న', '|'), ('శూ', 'U'), ('ద్ర', '|'), ('కు', 'U'), ('న్భ్ర', '|'), ('మ', '|'), ('ల', '|'), ('గ', 'U'), ('ప్పు', '|'), ('చు', '|'), ('ద', 'U'), ('ద్వి', '|'), ('ధి', '|'), ('గు', 'U'), ('ఱ్ఱ', '|'), ('మౌ', 'U'), ('చు', '|'), ('నా', 'U'), ('ప', 'U'), ('ట్టు', '|'), ('న', '|'), ('గొం', 'U'), ('చు', '|'), ('మ', 'U'), ('ఱ్ఱి', '|'), ('క', '|'), ('డ', '|'), ('బ్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('దీ', 'U'), ('సె', '|'), ('గ', '|'), ('ద', 'U'), ('య్య', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[('ఘ', '|'), ('న', '|'), ('బ', '|'), ('ల', '|'), ('స', 'U'), ('త్త్వ', '|'), ('మ', 'U'), ('చ్చు', '|'), ('ప', '|'), ('డ', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('కి', '|'), ('హా', 'U'), ('ని', '|'), ('లే', 'U'), ('ని', '|'), ('చో', 'U'), ('ద', '|'), ('న', '|'), ('ద', '|'), ('గు', '|'), ('స', 'U'), ('త్త్వ', '|'), ('మే', 'U'), ('చె', '|'), ('ర', '|'), ('చు', '|'), ('ద', 'U'), ('న్ను', '|'), ('న', '|'), ('దె', 'U'), ('ట్ల', '|'), ('న', '|'), ('నీ', 'U'), ('రు', '|'), ('మి', 'U'), ('క్కి', '|'), ('లిన్', 'U'), ('గి', '|'), ('ను', '|'), ('క', '|'), ('వ', '|'), ('సిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('జె', '|'), ('ఱు', '|'), ('వు', '|'), ('క', 'U'), ('ట్ట', '|'), ('కు', '|'), ('స', 'U'), ('త్వ', '|'), ('ము', '|'), ('చా', 'U'), ('ల', '|'), ('కు', 'U'), ('న్న', '|'), ('చో', 'U'), ('గ', '|'), ('ను', '|'), ('మ', '|'), ('లు', '|'), ('పె', 'U'), ('ట్టి', '|'), ('న', 'U'), ('ట్ట', '|'), ('న', '|'), ('డి', '|'), ('గం', 'U'), ('డి', '|'), ('తె', '|'), ('గం', 'U'), ('బ', '|'), ('డ', '|'), ('కు', 'U'), ('న్నె', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
+          <t>[('ఘ', '|'), ('న', '|'), ('బ', '|'), ('ల', '|'), ('స', 'U'), ('త్త్వ', '|'), ('మ', 'U'), ('చ్చు', '|'), ('ప', '|'), ('డ', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('కి', '|'), ('హా', 'U'), ('ని', '|'), ('లే', 'U'), ('ని', '|'), ('చో', 'U'), ('ద', '|'), ('న', '|'), ('ద', '|'), ('గు', '|'), ('స', 'U'), ('త్త్వ', '|'), ('మే', 'U'), ('చె', '|'), ('ర', '|'), ('చు', '|'), ('ద', 'U'), ('న్ను', '|'), ('న', '|'), ('దె', 'U'), ('ట్ల', '|'), ('న', '|'), ('నీ', 'U'), ('రు', '|'), ('మి', 'U'), ('క్కి', '|'), ('లిన్', 'U'), ('గి', '|'), ('ను', '|'), ('క', '|'), ('వ', '|'), ('సిం', 'U'), ('చి', '|'), ('న', 'U'), ('న్జె', '|'), ('ఱు', '|'), ('వు', '|'), ('క', 'U'), ('ట్ట', '|'), ('కు', '|'), ('స', 'U'), ('త్వ', '|'), ('ము', '|'), ('చా', 'U'), ('ల', '|'), ('కు', 'U'), ('న్న', '|'), ('చో', 'U'), ('గ', '|'), ('ను', '|'), ('మ', '|'), ('లు', '|'), ('పె', 'U'), ('ట్టి', '|'), ('న', 'U'), ('ట్ట', '|'), ('న', '|'), ('డి', '|'), ('గం', 'U'), ('డి', '|'), ('తె', '|'), ('గం', 'U'), ('బ', '|'), ('డ', '|'), ('కు', 'U'), ('న్నె', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[('ఘ', '|'), ('ను', '|'), ('డొ', '|'), ('క', '|'), ('వే', 'U'), ('ళ', '|'), ('గీ', 'U'), ('డ్ప', '|'), ('డి', '|'), ('న', '|'), ('గ్ర', 'U'), ('మ్మ', '|'), ('ఱ', '|'), ('నా', 'U'), ('త', '|'), ('ని', '|'), ('లే', 'U'), ('మి', '|'), ('బా', 'U'), ('ప', '|'), ('గా', 'U'), ('గ', '|'), ('ను', '|'), ('గొ', '|'), ('న', '|'), ('నొ', 'U'), ('క్క', '|'), ('స', 'U'), ('త్ప్ర', '|'), ('భు', '|'), ('వు', '|'), ('గా', 'U'), ('క', '|'), ('న', '|'), ('రా', 'U'), ('ధ', '|'), ('ము', '|'), ('లో', 'U'), ('ప', '|'), ('రెం', 'U'), ('ద', '|'), ('రుం', 'U'), ('బె', '|'), ('ను', '|'), ('జె', '|'), ('ఱు', '|'), ('వెం', 'U'), ('డి', '|'), ('న', 'U'), ('ట్టి', '|'), ('త', '|'), ('ఱి', '|'), ('బె', 'U'), ('ల్లు', '|'), ('న', '|'), ('మే', 'U'), ('ఘు', '|'), ('డు', '|'), ('గా', 'U'), ('క', '|'), ('నీ', 'U'), ('టి', '|'), ('తో', 'U'), ('ద', '|'), ('ను', '|'), ('ప', '|'), ('దు', '|'), ('షా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('శ', '|'), ('త', '|'), ('శ', '|'), ('తం', 'U'), ('బు', '|'), ('లు', '|'), ('చా', 'U'), ('లు', '|'), ('న', '|'), ('ట', 'U'), ('య్య', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
+          <t>[('ఘ', '|'), ('ను', '|'), ('డొ', '|'), ('క', '|'), ('వే', 'U'), ('ళ', '|'), ('గీ', 'U'), ('డ్ప', '|'), ('డి', '|'), ('న', '|'), ('గ్ర', 'U'), ('మ్మ', '|'), ('ఱ', '|'), ('నా', 'U'), ('త', '|'), ('ని', '|'), ('లే', 'U'), ('మి', '|'), ('బా', 'U'), ('ప', '|'), ('గా', 'U'), ('గ', '|'), ('ను', '|'), ('గొ', '|'), ('న', '|'), ('నొ', 'U'), ('క్క', '|'), ('స', 'U'), ('త్ప్ర', '|'), ('భు', '|'), ('వు', '|'), ('గా', 'U'), ('క', '|'), ('న', '|'), ('రా', 'U'), ('ధ', '|'), ('ము', '|'), ('లో', 'U'), ('ప', '|'), ('రెం', 'U'), ('ద', '|'), ('రుం', 'U'), ('బె', '|'), ('ను', '|'), ('జె', '|'), ('ఱు', '|'), ('వెం', 'U'), ('డి', '|'), ('న', 'U'), ('ట్టి', '|'), ('త', '|'), ('ఱి', '|'), ('బె', 'U'), ('ల్లు', '|'), ('న', '|'), ('మే', 'U'), ('ఘు', '|'), ('డు', '|'), ('గా', 'U'), ('క', '|'), ('నీ', 'U'), ('టి', '|'), ('తో', 'U'), ('ద', '|'), ('ను', '|'), ('ప', '|'), ('దు', '|'), ('షా', 'U'), ('ర', '|'), ('ము', 'U'), ('ల్శ', '|'), ('త', '|'), ('శ', '|'), ('తం', 'U'), ('బు', '|'), ('లు', '|'), ('చా', 'U'), ('లు', '|'), ('న', '|'), ('ట', 'U'), ('య్య', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[('చే', 'U'), ('సి', '|'), ('న', '|'), ('దు', 'U'), ('ష్ట', '|'), ('చే', 'U'), ('ష్ట', '|'), ('న', '|'), ('ది', '|'), ('చె', 'U'), ('ప్ప', '|'), ('క', '|'), ('నే', 'U'), ('ర్పు', '|'), ('న', '|'), ('గ', 'U'), ('ప్పి', '|'), ('పు', 'U'), ('చ్చి', '|'), ('తా', 'U'), ('మూ', 'U'), ('సి', '|'), ('న', '|'), ('యం', 'U'), ('త', '|'), ('టన్', 'U'), ('బ', '|'), ('య', '|'), ('లు', '|'), ('ము', 'U'), ('ట్ట', '|'), ('క', '|'), ('యుం', 'U'), ('డ', '|'), ('ద', '|'), ('దె', 'U'), ('ట్లు', '|'), ('రా', 'U'), ('గి', '|'), ('పై', 'U'), ('బూ', 'U'), ('సి', '|'), ('న', '|'), ('బం', 'U'), ('గ', '|'), ('రుం', 'U'), ('జె', '|'), ('ద', '|'), ('రి', '|'), ('పో', 'U'), ('వ', '|'), ('గ', '|'), ('డం', 'U'), ('గి', '|'), ('న', '|'), ('నా', 'U'), ('డు', '|'), ('నా', 'U'), ('టి', '|'), ('కిన్', 'U'), ('దా', 'U'), ('సి', '|'), ('న', '|'), ('రా', 'U'), ('గి', '|'), ('గా', 'U'), ('న', '|'), ('బ', '|'), ('డ', '|'), ('దా', 'U'), ('జ', '|'), ('ను', '|'), ('లె', 'U'), ('ల్ల', '|'), ('రె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
+          <t>[('చే', 'U'), ('సి', '|'), ('న', '|'), ('దు', 'U'), ('ష్ట', '|'), ('చే', 'U'), ('ష్ట', '|'), ('న', '|'), ('ది', '|'), ('చె', 'U'), ('ప్ప', '|'), ('క', '|'), ('నే', 'U'), ('ర్పు', '|'), ('న', '|'), ('గ', 'U'), ('ప్పి', '|'), ('పు', 'U'), ('చ్చి', '|'), ('తా', 'U'), ('మూ', 'U'), ('సి', '|'), ('న', '|'), ('యం', 'U'), ('త', '|'), ('ట', 'U'), ('న్బ', '|'), ('య', '|'), ('లు', '|'), ('ము', 'U'), ('ట్ట', '|'), ('క', '|'), ('యుం', 'U'), ('డ', '|'), ('ద', '|'), ('దె', 'U'), ('ట్లు', '|'), ('రా', 'U'), ('గి', '|'), ('పై', 'U'), ('బూ', 'U'), ('సి', '|'), ('న', '|'), ('బం', 'U'), ('గ', '|'), ('రుం', 'U'), ('జె', '|'), ('ద', '|'), ('రి', '|'), ('పో', 'U'), ('వ', '|'), ('గ', '|'), ('డం', 'U'), ('గి', '|'), ('న', '|'), ('నా', 'U'), ('డు', '|'), ('నా', 'U'), ('టి', '|'), ('కిన్', 'U'), ('దా', 'U'), ('సి', '|'), ('న', '|'), ('రా', 'U'), ('గి', '|'), ('గా', 'U'), ('న', '|'), ('బ', '|'), ('డ', '|'), ('దా', 'U'), ('జ', '|'), ('ను', '|'), ('లె', 'U'), ('ల్ల', '|'), ('రె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('న', '|'), ('కు', '|'), ('న', '|'), ('దృ', 'U'), ('ష్ట', '|'), ('రే', 'U'), ('ఖ', '|'), ('వి', '|'), ('శ', '|'), ('దం', 'U'), ('బు', '|'), ('గ', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('లే', 'U'), ('ని', '|'), ('చో', 'U'), ('జ', '|'), ('ను', '|'), ('న', '|'), ('కు', '|'), ('నె', 'U'), ('య్యె', '|'), ('డన్', 'U'), ('బ', '|'), ('రు', '|'), ('ల', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('వ', 'U'), ('ల్ల', '|'), ('ఫ', '|'), ('లం', 'U'), ('బు', '|'), ('లే', 'U'), ('దు', '|'), ('గా', 'U'), ('క', '|'), ('ను', '|'), ('గ', '|'), ('వ', '|'), ('లె', 'U'), ('స్స', '|'), ('గా', 'U'), ('దె', '|'), ('లి', '|'), ('వి', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('కి', '|'), ('గా', 'U'), ('క', '|'), ('గ్రు', 'U'), ('డ్డి', '|'), ('కిన్', 'U'), ('క', '|'), ('న', '|'), ('బ', '|'), ('డు', '|'), ('నె', 'U'), ('ట్లు', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('లు', '|'), ('గా', 'U'), ('య', '|'), ('గ', '|'), ('నం', 'U'), ('దొ', '|'), ('క', '|'), ('రూ', 'U'), ('పు', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
+          <t>[('త', '|'), ('న', '|'), ('కు', '|'), ('న', '|'), ('దృ', 'U'), ('ష్ట', '|'), ('రే', 'U'), ('ఖ', '|'), ('వి', '|'), ('శ', '|'), ('దం', 'U'), ('బు', '|'), ('గ', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('లే', 'U'), ('ని', '|'), ('చో', 'U'), ('జ', '|'), ('ను', '|'), ('న', '|'), ('కు', '|'), ('నె', 'U'), ('య్యె', '|'), ('డ', 'U'), ('న్బ', '|'), ('రు', '|'), ('ల', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('వ', 'U'), ('ల్ల', '|'), ('ఫ', '|'), ('లం', 'U'), ('బు', '|'), ('లే', 'U'), ('దు', '|'), ('గా', 'U'), ('క', '|'), ('ను', '|'), ('గ', '|'), ('వ', '|'), ('లె', 'U'), ('స్స', '|'), ('గా', 'U'), ('దె', '|'), ('లి', '|'), ('వి', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('కి', '|'), ('గా', 'U'), ('క', '|'), ('గ్రు', 'U'), ('డ్డి', '|'), ('కిన్', 'U'), ('క', '|'), ('న', '|'), ('బ', '|'), ('డు', '|'), ('నె', 'U'), ('ట్లు', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('లు', '|'), ('గా', 'U'), ('య', '|'), ('గ', '|'), ('నం', 'U'), ('దొ', '|'), ('క', '|'), ('రూ', 'U'), ('పు', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[('తా', 'U'), ('లి', '|'), ('మి', '|'), ('తో', 'U'), ('డ', '|'), ('గూ', 'U'), ('రి', '|'), ('మి', '|'), ('గృ', '|'), ('త', 'U'), ('ఘ్ను', '|'), ('న', '|'), ('కె', 'U'), ('య్యె', '|'), ('డ', '|'), ('ను', 'U'), ('త్త', '|'), ('మో', 'U'), ('త్త', '|'), ('ముల్', 'U'), ('మే', 'U'), ('లొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('కీ', 'U'), ('డ', '|'), ('గు', '|'), ('బా', 'U'), ('ము', '|'), ('పి', 'U'), ('ల్ల', '|'), ('కున్', 'U'), ('బా', 'U'), ('లి', '|'), ('డి', '|'), ('పెం', 'U'), ('చి', '|'), ('న', 'U'), ('న్వి', '|'), ('ష', '|'), ('ము', '|'), ('పా', 'U'), ('య', '|'), ('గ', '|'), ('నే', 'U'), ('ర్చు', '|'), ('నె', '|'), ('దా', 'U'), ('ని', '|'), ('కో', 'U'), ('ఱ', '|'), ('లం', 'U'), ('జా', 'U'), ('ల', '|'), ('గ', '|'), ('నం', 'U'), ('త', '|'), ('కం', 'U'), ('త', '|'), ('కొ', '|'), ('క', '|'), ('చా', 'U'), ('య', '|'), ('ను', '|'), ('హె', 'U'), ('చ్చు', '|'), ('ను', '|'), ('గా', 'U'), ('క', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
+          <t>[('తా', 'U'), ('లి', '|'), ('మి', '|'), ('తో', 'U'), ('డ', '|'), ('గూ', 'U'), ('రి', '|'), ('మి', '|'), ('గృ', '|'), ('త', 'U'), ('ఘ్ను', '|'), ('న', '|'), ('కె', 'U'), ('య్యె', '|'), ('డ', '|'), ('ను', 'U'), ('త్త', '|'), ('మో', 'U'), ('త్త', '|'), ('ముల్', 'U'), ('మే', 'U'), ('లొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('న', 'U'), ('న్గు', '|'), ('ణ', '|'), ('ము', '|'), ('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('కీ', 'U'), ('డ', '|'), ('గు', '|'), ('బా', 'U'), ('ము', '|'), ('పి', 'U'), ('ల్ల', '|'), ('కున్', 'U'), ('బా', 'U'), ('లి', '|'), ('డి', '|'), ('పెం', 'U'), ('చి', '|'), ('న', 'U'), ('న్వి', '|'), ('ష', '|'), ('ము', '|'), ('పా', 'U'), ('య', '|'), ('గ', '|'), ('నే', 'U'), ('ర్చు', '|'), ('నె', '|'), ('దా', 'U'), ('ని', '|'), ('కో', 'U'), ('ఱ', '|'), ('లం', 'U'), ('జా', 'U'), ('ల', '|'), ('గ', '|'), ('నం', 'U'), ('త', '|'), ('కం', 'U'), ('త', '|'), ('కొ', '|'), ('క', '|'), ('చా', 'U'), ('య', '|'), ('ను', '|'), ('హె', 'U'), ('చ్చు', '|'), ('ను', '|'), ('గా', 'U'), ('క', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[('ద', 'U'), ('క్షు', '|'), ('డు', '|'), ('లే', 'U'), ('ని', '|'), ('యిం', 'U'), ('టి', '|'), ('కి', '|'), ('బ', '|'), ('దా', 'U'), ('ర్థ', '|'), ('ము', '|'), ('వే', 'U'), ('ఱొ', '|'), ('క', '|'), ('చో', 'U'), ('ట', '|'), ('నుం', 'U'), ('డి', '|'), ('వే', 'U'), ('ల', 'U'), ('క్ష', '|'), ('లు', '|'), ('వ', 'U'), ('చ్చు', '|'), ('చుం', 'U'), ('డి', '|'), ('న', '|'), ('బ', '|'), ('లా', 'U'), ('య', '|'), ('న', '|'), ('మై', 'U'), ('చ', '|'), ('ను', '|'), ('గ', 'U'), ('ల్ల', '|'), ('గా', 'U'), ('దు', '|'), ('ప్ర', 'U'), ('త్య', 'U'), ('క్ష', '|'), ('ము', '|'), ('వా', 'U'), ('గు', '|'), ('లున్', 'U'), ('వ', '|'), ('ఱ', '|'), ('ద', '|'), ('ల', 'U'), ('న్ని', '|'), ('యు', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('నీ', 'U'), ('రు', '|'), ('ని', 'U'), ('ల్చు', '|'), ('నే', 'U'), ('అ', 'U'), ('క్ష', '|'), ('య', '|'), ('మై', 'U'), ('న', '|'), ('గం', 'U'), ('డి', '|'), ('తె', '|'), ('గి', '|'), ('న', 'U'), ('ట్టి', '|'), ('త', '|'), ('టా', 'U'), ('క', '|'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
+          <t>[('ద', 'U'), ('క్షు', '|'), ('డు', '|'), ('లే', 'U'), ('ని', '|'), ('యిం', 'U'), ('టి', '|'), ('కి', '|'), ('బ', '|'), ('దా', 'U'), ('ర్థ', '|'), ('ము', '|'), ('వే', 'U'), ('ఱొ', '|'), ('క', '|'), ('చో', 'U'), ('ట', '|'), ('నుం', 'U'), ('డి', '|'), ('వే', 'U'), ('ల', 'U'), ('క్ష', '|'), ('లు', '|'), ('వ', 'U'), ('చ్చు', '|'), ('చుం', 'U'), ('డి', '|'), ('న', '|'), ('బ', '|'), ('లా', 'U'), ('య', '|'), ('న', '|'), ('మై', 'U'), ('చ', '|'), ('ను', '|'), ('గ', 'U'), ('ల్ల', '|'), ('గా', 'U'), ('దు', '|'), ('ప్ర', 'U'), ('త్య', 'U'), ('క్ష', '|'), ('ము', '|'), ('వా', 'U'), ('గు', '|'), ('లు', 'U'), ('న్వ', '|'), ('ఱ', '|'), ('ద', '|'), ('ల', 'U'), ('న్ని', '|'), ('యు', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('నీ', 'U'), ('రు', '|'), ('ని', 'U'), ('ల్చు', '|'), ('నే', 'U'), ('అ', 'U'), ('క్ష', '|'), ('య', '|'), ('మై', 'U'), ('న', '|'), ('గం', 'U'), ('డి', '|'), ('తె', '|'), ('గి', '|'), ('న', 'U'), ('ట్టి', '|'), ('త', '|'), ('టా', 'U'), ('క', '|'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[('దా', 'U'), ('న', '|'), ('ము', '|'), ('జే', 'U'), ('య', '|'), ('నే', 'U'), ('ర', '|'), ('ని', '|'), ('య', '|'), ('ధా', 'U'), ('ర్మి', '|'), ('కు', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('యుం', 'U'), ('డి', '|'), ('యుం', 'U'), ('డి', '|'), ('యున్', 'U'), ('దా', 'U'), ('నె', '|'), ('ప', '|'), ('లా', 'U'), ('య', '|'), ('నం', 'U'), ('బ', '|'), ('గు', '|'), ('ట', '|'), ('త', 'U'), ('థ్య', '|'), ('ము', '|'), ('బూ', 'U'), ('రు', '|'), ('గు', '|'), ('మ్రా', 'U'), ('ను', '|'), ('గా', 'U'), ('చి', '|'), ('న', 'U'), ('న్దా', 'U'), ('ని', '|'), ('ఫ', '|'), ('లం', 'U'), ('బు', '|'), ('లూ', 'U'), ('ర', '|'), ('క', '|'), ('వృ', '|'), ('థా', 'U'), ('ప', '|'), ('డి', '|'), ('పో', 'U'), ('వ', '|'), ('వె', '|'), ('యెం', 'U'), ('డి', '|'), ('గా', 'U'), ('లి', '|'), ('చే', 'U'), ('గా', 'U'), ('న', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('నే', 'U'), ('మి', '|'), ('టి', '|'), ('కి', '|'), ('గా', 'U'), ('క', '|'), ('య', '|'), ('భో', 'U'), ('జ్య', '|'), ('ము', '|'), ('లౌ', 'U'), ('ట', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
+          <t>[('దా', 'U'), ('న', '|'), ('ము', '|'), ('జే', 'U'), ('య', '|'), ('నే', 'U'), ('ర', '|'), ('ని', '|'), ('య', '|'), ('ధా', 'U'), ('ర్మి', '|'), ('కు', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('యుం', 'U'), ('డి', '|'), ('యుం', 'U'), ('డి', '|'), ('యున్', 'U'), ('దా', 'U'), ('నె', '|'), ('ప', '|'), ('లా', 'U'), ('య', '|'), ('నం', 'U'), ('బ', '|'), ('గు', '|'), ('ట', '|'), ('త', 'U'), ('థ్య', '|'), ('ము', '|'), ('బూ', 'U'), ('రు', '|'), ('గు', '|'), ('మ్రా', 'U'), ('ను', '|'), ('గా', 'U'), ('చి', '|'), ('నన్', 'U'), ('దా', 'U'), ('ని', '|'), ('ఫ', '|'), ('లం', 'U'), ('బు', '|'), ('లూ', 'U'), ('ర', '|'), ('క', '|'), ('వృ', '|'), ('థా', 'U'), ('ప', '|'), ('డి', '|'), ('పో', 'U'), ('వ', '|'), ('వె', '|'), ('యెం', 'U'), ('డి', '|'), ('గా', 'U'), ('లి', '|'), ('చే', 'U'), ('గా', 'U'), ('న', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('నే', 'U'), ('మి', '|'), ('టి', '|'), ('కి', '|'), ('గా', 'U'), ('క', '|'), ('య', '|'), ('భో', 'U'), ('జ్య', '|'), ('ము', '|'), ('లౌ', 'U'), ('ట', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[('న', '|'), ('డ', '|'), ('వ', '|'), ('క', '|'), ('చి', 'U'), ('క్కి', '|'), ('లే', 'U'), ('మి', '|'), ('య', '|'), ('గు', '|'), ('నా', 'U'), ('డు', '|'), ('ని', '|'), ('జో', 'U'), ('ద', '|'), ('ర', '|'), ('పో', 'U'), ('ష', '|'), ('ణా', 'U'), ('ర్థ', '|'), ('మై', 'U'), ('య', '|'), ('డి', '|'), ('గి', '|'), ('భు', '|'), ('జిం', 'U'), ('చు', '|'), ('టల్', 'U'), ('న', '|'), ('రు', '|'), ('ల', '|'), ('కా', 'U'), ('ర', '|'), ('య', 'U'), ('వ్యం', 'U'), ('గ్య', '|'), ('ము', '|'), ('కా', 'U'), ('దు', '|'), ('పాం', 'U'), ('డ', '|'), ('వుల్', 'U'), ('గ', '|'), ('డు', '|'), ('బ', '|'), ('ల', '|'), ('శా', 'U'), ('లు', '|'), ('లే', 'U'), ('వు', '|'), ('రు', '|'), ('న', '|'), ('ఖం', 'U'), ('డ', '|'), ('వి', '|'), ('భూ', 'U'), ('తి', '|'), ('దొ', '|'), ('లం', 'U'), ('గి', '|'), ('భై', 'U'), ('క్ష్య', '|'), ('ముల్', 'U'), ('గు', '|'), ('డు', '|'), ('వ', '|'), ('రె', '|'), ('యే', 'U'), ('క', '|'), ('చ', '|'), ('క్ర', '|'), ('పు', '|'), ('రి', '|'), ('గుం', 'U'), ('తి', '|'), ('యు', '|'), ('దా', 'U'), ('రొ', '|'), ('క', '|'), ('చో', 'U'), ('ట', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
+          <t>[('న', '|'), ('డ', '|'), ('వ', '|'), ('క', '|'), ('చి', 'U'), ('క్కి', '|'), ('లే', 'U'), ('మి', '|'), ('య', '|'), ('గు', '|'), ('నా', 'U'), ('డు', '|'), ('ని', '|'), ('జో', 'U'), ('ద', '|'), ('ర', '|'), ('పో', 'U'), ('ష', '|'), ('ణా', 'U'), ('ర్థ', '|'), ('మై', 'U'), ('య', '|'), ('డి', '|'), ('గి', '|'), ('భు', '|'), ('జిం', 'U'), ('చు', '|'), ('ట', 'U'), ('ల్న', '|'), ('రు', '|'), ('ల', '|'), ('కా', 'U'), ('ర', '|'), ('య', 'U'), ('వ్యం', 'U'), ('గ్య', '|'), ('ము', '|'), ('కా', 'U'), ('దు', '|'), ('పాం', 'U'), ('డ', '|'), ('వుల్', 'U'), ('గ', '|'), ('డు', '|'), ('బ', '|'), ('ల', '|'), ('శా', 'U'), ('లు', '|'), ('లే', 'U'), ('వు', '|'), ('రు', '|'), ('న', '|'), ('ఖం', 'U'), ('డ', '|'), ('వి', '|'), ('భూ', 'U'), ('తి', '|'), ('దొ', '|'), ('లం', 'U'), ('గి', '|'), ('భై', 'U'), ('క్ష్య', '|'), ('ముల్', 'U'), ('గు', '|'), ('డు', '|'), ('వ', '|'), ('రె', '|'), ('యే', 'U'), ('క', '|'), ('చ', '|'), ('క్ర', '|'), ('పు', '|'), ('రి', '|'), ('గుం', 'U'), ('తి', '|'), ('యు', '|'), ('దా', 'U'), ('రొ', '|'), ('క', '|'), ('చో', 'U'), ('ట', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[('పం', 'U'), ('డి', '|'), ('తు', '|'), ('లై', 'U'), ('న', '|'), ('వా', 'U'), ('రు', '|'), ('ది', '|'), ('గు', '|'), ('వం', 'U'), ('ద', '|'), ('గ', '|'), ('నుం', 'U'), ('డ', '|'), ('గ', '|'), ('న', 'U'), ('ల్పు', '|'), ('డొ', 'U'), ('క్క', '|'), ('డు', 'U'), ('ద్ధం', 'U'), ('డ', '|'), ('త', '|'), ('బీ', 'U'), ('ఠ', '|'), ('మె', 'U'), ('క్కి', '|'), ('న', '|'), ('బు', '|'), ('ధ', '|'), ('ప్ర', '|'), ('క', '|'), ('రం', 'U'), ('బు', '|'), ('ల', '|'), ('కే', 'U'), ('మి', '|'), ('యె', 'U'), ('గ్గ', '|'), ('గు', 'U'), ('న్కొం', 'U'), ('డొ', '|'), ('క', '|'), ('కో', 'U'), ('తి', '|'), ('జె', 'U'), ('ట్టు', '|'), ('కొ', '|'), ('న', '|'), ('కొ', 'U'), ('మ్మ', '|'), ('ల', '|'), ('నుం', 'U'), ('డ', '|'), ('గ', '|'), ('గ్రిం', 'U'), ('ద', '|'), ('గం', 'U'), ('డ', '|'), ('భే', 'U'), ('రుం', 'U'), ('డ', '|'), ('మ', '|'), ('దే', 'U'), ('భ', '|'), ('సిం', 'U'), ('హ', '|'), ('ని', '|'), ('కు', '|'), ('రం', 'U'), ('బ', '|'), ('ము', '|'), ('లుం', 'U'), ('డ', '|'), ('వె', '|'), ('చే', 'U'), ('రి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
+          <t>[('పం', 'U'), ('డి', '|'), ('తు', '|'), ('లై', 'U'), ('న', '|'), ('వా', 'U'), ('రు', '|'), ('ది', '|'), ('గు', '|'), ('వం', 'U'), ('ద', '|'), ('గ', '|'), ('నుం', 'U'), ('డ', '|'), ('గ', '|'), ('న', 'U'), ('ల్పు', '|'), ('డొ', 'U'), ('క్క', '|'), ('డు', 'U'), ('ద్ధం', 'U'), ('డ', '|'), ('త', '|'), ('బీ', 'U'), ('ఠ', '|'), ('మె', 'U'), ('క్కి', '|'), ('న', '|'), ('బు', '|'), ('ధ', '|'), ('ప్ర', '|'), ('క', '|'), ('రం', 'U'), ('బు', '|'), ('ల', '|'), ('కే', 'U'), ('మి', '|'), ('యె', 'U'), ('గ్గ', '|'), ('గున్', 'U'), ('కొం', 'U'), ('డొ', '|'), ('క', '|'), ('కో', 'U'), ('తి', '|'), ('జె', 'U'), ('ట్టు', '|'), ('కొ', '|'), ('న', '|'), ('కొ', 'U'), ('మ్మ', '|'), ('ల', '|'), ('నుం', 'U'), ('డ', '|'), ('గ', '|'), ('గ్రిం', 'U'), ('ద', '|'), ('గం', 'U'), ('డ', '|'), ('భే', 'U'), ('రుం', 'U'), ('డ', '|'), ('మ', '|'), ('దే', 'U'), ('భ', '|'), ('సిం', 'U'), ('హ', '|'), ('ని', '|'), ('కు', '|'), ('రం', 'U'), ('బ', '|'), ('ము', '|'), ('లుం', 'U'), ('డ', '|'), ('వె', '|'), ('చే', 'U'), ('రి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[('ప', 'U'), ('ట్టు', '|'), ('గ', '|'), ('ని', 'U'), ('క్కు', '|'), ('చున్', 'U'), ('మ', '|'), ('ద', '|'), ('ము', '|'), ('బ', 'U'), ('ట్టి', '|'), ('మ', '|'), ('హా', 'U'), ('త్ము', '|'), ('ల', '|'), ('దూ', 'U'), ('ల', '|'), ('నా', 'U'), ('డి', '|'), ('నం', 'U'), ('బ', 'U'), ('ట్టి', '|'), ('న', '|'), ('కా', 'U'), ('ర్య', '|'), ('ముల్', 'U'), ('చె', '|'), ('డు', '|'), ('ను', '|'), ('బ్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('వో', 'U'), ('వు', '|'), ('ని', '|'), ('ర', 'U'), ('ర్థ', '|'), ('దో', 'U'), ('ష', '|'), ('ముల్', 'U'), ('పు', 'U'), ('ట్టు', '|'), ('మ', '|'), ('హే', 'U'), ('శు', '|'), ('గా', 'U'), ('ద', '|'), ('ని', '|'), ('కు', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('నొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('న', '|'), ('య', 'U'), ('జ్ఞ', '|'), ('తం', 'U'), ('త్ర', '|'), ('ముల్', 'U'), ('ము', 'U'), ('ట్ట', '|'), ('క', '|'), ('పో', 'U'), ('యి', '|'), ('ద', 'U'), ('క్షు', '|'), ('ని', '|'), ('కి', '|'), ('మో', 'U'), ('స', '|'), ('ము', '|'), ('వ', 'U'), ('చ్చె', '|'), ('గ', '|'), ('ద', 'U'), ('య్య', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
+          <t>[('ప', 'U'), ('ట్టు', '|'), ('గ', '|'), ('ని', 'U'), ('క్కు', '|'), ('చు', 'U'), ('న్మ', '|'), ('ద', '|'), ('ము', '|'), ('బ', 'U'), ('ట్టి', '|'), ('మ', '|'), ('హా', 'U'), ('త్ము', '|'), ('ల', '|'), ('దూ', 'U'), ('ల', '|'), ('నా', 'U'), ('డి', '|'), ('నం', 'U'), ('బ', 'U'), ('ట్టి', '|'), ('న', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', 'U'), ('ల్చె', '|'), ('డు', '|'), ('ను', '|'), ('బ్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('వో', 'U'), ('వు', '|'), ('ని', '|'), ('ర', 'U'), ('ర్థ', '|'), ('దో', 'U'), ('ష', '|'), ('ముల్', 'U'), ('పు', 'U'), ('ట్టు', '|'), ('మ', '|'), ('హే', 'U'), ('శు', '|'), ('గా', 'U'), ('ద', '|'), ('ని', '|'), ('కు', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('నొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('న', '|'), ('య', 'U'), ('జ్ఞ', '|'), ('తం', 'U'), ('త్ర', '|'), ('ముల్', 'U'), ('ము', 'U'), ('ట్ట', '|'), ('క', '|'), ('పో', 'U'), ('యి', '|'), ('ద', 'U'), ('క్షు', '|'), ('ని', '|'), ('కి', '|'), ('మో', 'U'), ('స', '|'), ('ము', '|'), ('వ', 'U'), ('చ్చె', '|'), ('గ', '|'), ('ద', 'U'), ('య్య', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('ర', '|'), ('హి', '|'), ('త', '|'), ('మై', 'U'), ('న', '|'), ('కా', 'U'), ('ర్య', '|'), ('మ', '|'), ('తి', '|'), ('భా', 'U'), ('ర', '|'), ('ము', '|'), ('తో', 'U'), ('డి', '|'), ('ది', '|'), ('యై', 'U'), ('న', '|'), ('బూ', 'U'), ('ను', '|'), ('స', 'U'), ('త్పు', '|'), ('రు', '|'), ('షు', '|'), ('డు', '|'), ('లో', 'U'), ('క', '|'), ('ము', 'U'), ('ల్పొ', '|'), ('గ', '|'), ('డ', '|'), ('బూ', 'U'), ('ర్వ', '|'), ('ము', '|'), ('నం', 'U'), ('దొ', '|'), ('క', '|'), ('ఱా', 'U'), ('ల', '|'), ('వ', 'U'), ('ర్ష', '|'), ('మున్', 'U'), ('గు', '|'), ('రి', '|'), ('య', '|'), ('గ', '|'), ('జొ', 'U'), ('చ్చి', '|'), ('నన్', 'U'), ('గ', '|'), ('ది', '|'), ('సి', '|'), ('గొ', 'U'), ('బ్బు', '|'), ('న', '|'), ('గో', 'U'), ('జ', '|'), ('న', '|'), ('ర', 'U'), ('క్ష', '|'), ('ణా', 'U'), ('ర్థ', '|'), ('మై', 'U'), ('గి', '|'), ('రి', '|'), ('నొ', '|'), ('క', '|'), ('కే', 'U'), ('ల', '|'), ('నె', 'U'), ('త్తె', '|'), ('న', '|'), ('ట', '|'), ('కృ', 'U'), ('ష్ణు', '|'), ('డు', '|'), ('ఛ', '|'), ('త్ర', '|'), ('ము', '|'), ('భా', 'U'), ('తి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
+          <t>[('ప', '|'), ('ర', '|'), ('హి', '|'), ('త', '|'), ('మై', 'U'), ('న', '|'), ('కా', 'U'), ('ర్య', '|'), ('మ', '|'), ('తి', '|'), ('భా', 'U'), ('ర', '|'), ('ము', '|'), ('తో', 'U'), ('డి', '|'), ('ది', '|'), ('యై', 'U'), ('న', '|'), ('బూ', 'U'), ('ను', '|'), ('స', 'U'), ('త్పు', '|'), ('రు', '|'), ('షు', '|'), ('డు', '|'), ('లో', 'U'), ('క', '|'), ('ము', 'U'), ('ల్పొ', '|'), ('గ', '|'), ('డ', '|'), ('బూ', 'U'), ('ర్వ', '|'), ('ము', '|'), ('నం', 'U'), ('దొ', '|'), ('క', '|'), ('ఱా', 'U'), ('ల', '|'), ('వ', 'U'), ('ర్ష', '|'), ('మున్', 'U'), ('గు', '|'), ('రి', '|'), ('య', '|'), ('గ', '|'), ('జొ', 'U'), ('చ్చి', '|'), ('న', 'U'), ('న్గ', '|'), ('ది', '|'), ('సి', '|'), ('గొ', 'U'), ('బ్బు', '|'), ('న', '|'), ('గో', 'U'), ('జ', '|'), ('న', '|'), ('ర', 'U'), ('క్ష', '|'), ('ణా', 'U'), ('ర్థ', '|'), ('మై', 'U'), ('గి', '|'), ('రి', '|'), ('నొ', '|'), ('క', '|'), ('కే', 'U'), ('ల', '|'), ('నె', 'U'), ('త్తె', '|'), ('న', '|'), ('ట', '|'), ('కృ', 'U'), ('ష్ణు', '|'), ('డు', '|'), ('ఛ', '|'), ('త్ర', '|'), ('ము', '|'), ('భా', 'U'), ('తి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('లు', '|'), ('మ', '|'), ('ఱు', '|'), ('స', 'U'), ('జ్జ', '|'), ('నుం', 'U'), ('డు', '|'), ('ప్రి', '|'), ('య', '|'), ('భా', 'U'), ('ష', '|'), ('లె', '|'), ('ప', 'U'), ('ల్కు', '|'), ('గ', '|'), ('ఠో', 'U'), ('ర', '|'), ('వా', 'U'), ('క్య', '|'), ('ముల్', 'U'), ('బ', '|'), ('లు', '|'), ('క', '|'), ('డొ', '|'), ('కా', 'U'), ('నొ', '|'), ('క', 'U'), ('ప్పు', '|'), ('డు', '|'), ('న', '|'), ('వి', '|'), ('ప', 'U'), ('ల్కి', '|'), ('నన్', 'U'), ('గీ', 'U'), ('డు', '|'), ('ను', '|'), ('గా', 'U'), ('దు', '|'), ('ని', 'U'), ('క్క', '|'), ('మే', 'U'), ('చ', '|'), ('లు', '|'), ('వ', '|'), ('కు', '|'), ('వ', 'U'), ('చ్చి', '|'), ('మే', 'U'), ('ఘు', '|'), ('డొ', '|'), ('క', '|'), ('జా', 'U'), ('డ', '|'), ('ను', '|'), ('దా', 'U'), ('వ', '|'), ('డ', '|'), ('గం', 'U'), ('డ్ల', '|'), ('రా', 'U'), ('ల్చి', '|'), ('నన్', 'U'), ('శి', '|'), ('ల', '|'), ('ల', '|'), ('గు', '|'), ('నో', 'U'), ('టు', '|'), ('వే', 'U'), ('గి', '|'), ('ర', '|'), ('మె', '|'), ('శీ', 'U'), ('త', '|'), ('ల', '|'), ('నీ', 'U'), ('ర', '|'), ('ము', '|'), ('గా', 'U'), ('క', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
+          <t>[('ప', '|'), ('లు', '|'), ('మ', '|'), ('ఱు', '|'), ('స', 'U'), ('జ్జ', '|'), ('నుం', 'U'), ('డు', '|'), ('ప్రి', '|'), ('య', '|'), ('భా', 'U'), ('ష', '|'), ('లె', '|'), ('ప', 'U'), ('ల్కు', '|'), ('గ', '|'), ('ఠో', 'U'), ('ర', '|'), ('వా', 'U'), ('క్య', '|'), ('ముల్', 'U'), ('బ', '|'), ('లు', '|'), ('క', '|'), ('డొ', '|'), ('కా', 'U'), ('నొ', '|'), ('క', 'U'), ('ప్పు', '|'), ('డు', '|'), ('న', '|'), ('వి', '|'), ('ప', 'U'), ('ల్కి', '|'), ('న', 'U'), ('న్గీ', 'U'), ('డు', '|'), ('ను', '|'), ('గా', 'U'), ('దు', '|'), ('ని', 'U'), ('క్క', '|'), ('మే', 'U'), ('చ', '|'), ('లు', '|'), ('వ', '|'), ('కు', '|'), ('వ', 'U'), ('చ్చి', '|'), ('మే', 'U'), ('ఘు', '|'), ('డొ', '|'), ('క', '|'), ('జా', 'U'), ('డ', '|'), ('ను', '|'), ('దా', 'U'), ('వ', '|'), ('డ', '|'), ('గం', 'U'), ('డ్ల', '|'), ('రా', 'U'), ('ల్చి', '|'), ('నన్', 'U'), ('శి', '|'), ('ల', '|'), ('ల', '|'), ('గు', '|'), ('నో', 'U'), ('టు', '|'), ('వే', 'U'), ('గి', '|'), ('ర', '|'), ('మె', '|'), ('శీ', 'U'), ('త', '|'), ('ల', '|'), ('నీ', 'U'), ('ర', '|'), ('ము', '|'), ('గా', 'U'), ('క', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[('పా', 'U'), ('ప', '|'), ('పు', '|'), ('ద్రో', 'U'), ('వ', '|'), ('వా', 'U'), ('ని', '|'), ('కొ', '|'), ('క', '|'), ('ప', 'U'), ('ట్టు', '|'), ('న', '|'), ('మే', 'U'), ('ను', '|'), ('వి', '|'), ('కా', 'U'), ('స', '|'), ('మొం', 'U'), ('ది', '|'), ('నన్', 'U'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('దు', 'U'), ('ర్గు', '|'), ('ణం', 'U'), ('బె', '|'), ('ప్ర', '|'), ('బ', '|'), ('లుం', 'U'), ('గ', '|'), ('ద', '|'), ('న', 'U'), ('మ్మ', '|'), ('గ', '|'), ('గూ', 'U'), ('డ', '|'), ('దా', 'U'), ('త', '|'), ('ని', 'U'), ('న్బా', 'U'), ('ప', '|'), ('ట', '|'), ('కా', 'U'), ('య', '|'), ('కున్', 'U'), ('ను', '|'), ('ను', '|'), ('పు', '|'), ('పై', 'U'), ('ప', '|'), ('యి', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('గ', 'U'), ('ల్గు', '|'), ('గా', 'U'), ('క', '|'), ('యే', 'U'), ('రూ', 'U'), ('పు', '|'), ('న', '|'), ('దా', 'U'), ('ని', '|'), ('లో', 'U'), ('గ', '|'), ('ల', '|'), ('వి', '|'), ('రు', 'U'), ('ద్ధ', '|'), ('పు', '|'), ('జే', 'U'), ('దు', '|'), ('న', '|'), ('శిం', 'U'), ('చు', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
+          <t>[('పా', 'U'), ('ప', '|'), ('పు', '|'), ('ద్రో', 'U'), ('వ', '|'), ('వా', 'U'), ('ని', '|'), ('కొ', '|'), ('క', '|'), ('ప', 'U'), ('ట్టు', '|'), ('న', '|'), ('మే', 'U'), ('ను', '|'), ('వి', '|'), ('కా', 'U'), ('స', '|'), ('మొం', 'U'), ('ది', '|'), ('నన్', 'U'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('దు', 'U'), ('ర్గు', '|'), ('ణం', 'U'), ('బె', '|'), ('ప్ర', '|'), ('బ', '|'), ('లుం', 'U'), ('గ', '|'), ('ద', '|'), ('న', 'U'), ('మ్మ', '|'), ('గ', '|'), ('గూ', 'U'), ('డ', '|'), ('దా', 'U'), ('త', '|'), ('నిన్', 'U'), ('బా', 'U'), ('ప', '|'), ('ట', '|'), ('కా', 'U'), ('య', '|'), ('కు', 'U'), ('న్ను', '|'), ('ను', '|'), ('పు', '|'), ('పై', 'U'), ('ప', '|'), ('యి', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('గ', 'U'), ('ల్గు', '|'), ('గా', 'U'), ('క', '|'), ('యే', 'U'), ('రూ', 'U'), ('పు', '|'), ('న', '|'), ('దా', 'U'), ('ని', '|'), ('లో', 'U'), ('గ', '|'), ('ల', '|'), ('వి', '|'), ('రు', 'U'), ('ద్ధ', '|'), ('పు', '|'), ('జే', 'U'), ('దు', '|'), ('న', '|'), ('శిం', 'U'), ('చు', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[('బ', 'U'), ('ల్లి', '|'), ('దు', '|'), ('డై', 'U'), ('న', '|'), ('స', 'U'), ('త్ప్ర', '|'), ('భు', '|'), ('వు', '|'), ('పా', 'U'), ('య', '|'), ('క', '|'), ('యుం', 'U'), ('డి', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('ర', 'U'), ('చ్చ', '|'), ('లో', 'U'), ('జి', 'U'), ('ల్ల', '|'), ('ర', '|'), ('వా', 'U'), ('రు', '|'), ('నూ', 'U'), ('ఱు', '|'), ('గు', '|'), ('రు', '|'), ('సే', 'U'), ('రి', '|'), ('న', '|'), ('దే', 'U'), ('జ', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గ', '|'), ('దె', 'U'), ('య్యె', '|'), ('డన్', 'U'), ('జ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('చం', 'U'), ('దు', '|'), ('రుం', 'U'), ('డె', '|'), ('డ', '|'), ('సి', '|'), ('స', 'U'), ('న్న', '|'), ('పు', '|'), ('జు', 'U'), ('క్క', '|'), ('లు', '|'), ('కో', 'U'), ('టి', '|'), ('యు', 'U'), ('న్న', '|'), ('జి', 'U'), ('ల్లు', '|'), ('నె', '|'), ('వె', 'U'), ('న్నె', '|'), ('లల్', 'U'), ('జ', '|'), ('గ', '|'), ('ము', '|'), ('జీ', 'U'), ('క', '|'), ('టు', '|'), ('ల', 'U'), ('న్ని', '|'), ('యు', '|'), ('బా', 'U'), ('య', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
+          <t>[('బ', 'U'), ('ల్లి', '|'), ('దు', '|'), ('డై', 'U'), ('న', '|'), ('స', 'U'), ('త్ప్ర', '|'), ('భు', '|'), ('వు', '|'), ('పా', 'U'), ('య', '|'), ('క', '|'), ('యుం', 'U'), ('డి', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('ర', 'U'), ('చ్చ', '|'), ('లో', 'U'), ('జి', 'U'), ('ల్ల', '|'), ('ర', '|'), ('వా', 'U'), ('రు', '|'), ('నూ', 'U'), ('ఱు', '|'), ('గు', '|'), ('రు', '|'), ('సే', 'U'), ('రి', '|'), ('న', '|'), ('దే', 'U'), ('జ', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గ', '|'), ('దె', 'U'), ('య్యె', '|'), ('డన్', 'U'), ('జ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('చం', 'U'), ('దు', '|'), ('రుం', 'U'), ('డె', '|'), ('డ', '|'), ('సి', '|'), ('స', 'U'), ('న్న', '|'), ('పు', '|'), ('జు', 'U'), ('క్క', '|'), ('లు', '|'), ('కో', 'U'), ('టి', '|'), ('యు', 'U'), ('న్న', '|'), ('జి', 'U'), ('ల్లు', '|'), ('నె', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', 'U'), ('ల్జ', '|'), ('గ', '|'), ('ము', '|'), ('జీ', 'U'), ('క', '|'), ('టు', '|'), ('ల', 'U'), ('న్ని', '|'), ('యు', '|'), ('బా', 'U'), ('య', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[('భూ', 'U'), ('రి', '|'), ('బా', 'U'), ('లా', 'U'), ('ఢ్యు', '|'), ('డై', 'U'), ('న', '|'), ('ద', '|'), ('ల', '|'), ('పో', 'U'), ('య', '|'), ('క', '|'), ('వి', '|'), ('క్ర', '|'), ('మ', '|'), ('శ', 'U'), ('క్తి', '|'), ('చే', 'U'), ('న', '|'), ('హం', 'U'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('నొం', 'U'), ('దు', '|'), ('టల్', 'U'), ('త', '|'), ('గ', '|'), ('వు', '|'), ('గా', 'U'), ('ద', '|'), ('త', '|'), ('డొ', 'U'), ('క్కె', '|'), ('డ', '|'), ('మో', 'U'), ('స', '|'), ('పో', 'U'), ('వు', '|'), ('గా', 'U'), ('వీ', 'U'), ('ర', '|'), ('వ', '|'), ('రే', 'U'), ('ణ్యు', '|'), ('డ', 'U'), ('ర్జు', '|'), ('ను', '|'), ('డు', '|'), ('విం', 'U'), ('టి', '|'), ('కి', '|'), ('నే', 'U'), ('న', '|'), ('ధి', '|'), ('కుం', 'U'), ('డ', '|'), ('నం', 'U'), ('చు', '|'), ('దా', 'U'), ('నూ', 'U'), ('ర', '|'), ('క', '|'), ('విం', 'U'), ('టి', '|'), ('నె', 'U'), ('క్కి', '|'), ('డ', '|'), ('గ', '|'), ('నో', 'U'), ('ప', '|'), ('డు', '|'), ('కృ', 'U'), ('ష్ణు', '|'), ('డు', '|'), ('లే', 'U'), ('మి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
+          <t>[('భూ', 'U'), ('రి', '|'), ('బా', 'U'), ('లా', 'U'), ('ఢ్యు', '|'), ('డై', 'U'), ('న', '|'), ('ద', '|'), ('ల', '|'), ('పో', 'U'), ('య', '|'), ('క', '|'), ('వి', '|'), ('క్ర', '|'), ('మ', '|'), ('శ', 'U'), ('క్తి', '|'), ('చే', 'U'), ('న', '|'), ('హం', 'U'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('నొం', 'U'), ('దు', '|'), ('ట', 'U'), ('ల్త', '|'), ('గ', '|'), ('వు', '|'), ('గా', 'U'), ('ద', '|'), ('త', '|'), ('డొ', 'U'), ('క్కె', '|'), ('డ', '|'), ('మో', 'U'), ('స', '|'), ('పో', 'U'), ('వు', '|'), ('గా', 'U'), ('వీ', 'U'), ('ర', '|'), ('వ', '|'), ('రే', 'U'), ('ణ్యు', '|'), ('డ', 'U'), ('ర్జు', '|'), ('ను', '|'), ('డు', '|'), ('విం', 'U'), ('టి', '|'), ('కి', '|'), ('నే', 'U'), ('న', '|'), ('ధి', '|'), ('కుం', 'U'), ('డ', '|'), ('నం', 'U'), ('చు', '|'), ('దా', 'U'), ('నూ', 'U'), ('ర', '|'), ('క', '|'), ('విం', 'U'), ('టి', '|'), ('నె', 'U'), ('క్కి', '|'), ('డ', '|'), ('గ', '|'), ('నో', 'U'), ('ప', '|'), ('డు', '|'), ('కృ', 'U'), ('ష్ణు', '|'), ('డు', '|'), ('లే', 'U'), ('మి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[('భ్ర', 'U'), ('ష్టు', '|'), ('న', '|'), ('క', 'U'), ('ర్థ', '|'), ('వం', 'U'), ('తు', '|'), ('ల', '|'), ('గు', '|'), ('బాం', 'U'), ('ధ', '|'), ('వు', '|'), ('లెం', 'U'), ('ద', '|'), ('ఱు', '|'), ('గ', 'U'), ('ల్గి', '|'), ('నన్', 'U'), ('ని', '|'), ('జా', 'U'), ('దృ', 'U'), ('ష్ట', '|'), ('ము', '|'), ('లే', 'U'), ('దు', '|'), ('గా', 'U'), ('వు', '|'), ('న', '|'), ('ద', '|'), ('రి', '|'), ('ద్ర', '|'), ('త', '|'), ('బా', 'U'), ('ప', '|'), ('గ', '|'), ('లే', 'U'), ('రు', '|'), ('స', 'U'), ('త్కృ', '|'), ('పా', 'U'), ('దృ', 'U'), ('ష్టి', '|'), ('ని', '|'), ('ని', 'U'), ('ల్పి', '|'), ('లో', 'U'), ('కు', '|'), ('ల', '|'), ('క', '|'), ('తి', 'U'), ('స్థి', '|'), ('ర', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('లి', 'U'), ('చ్చు', '|'), ('ల', 'U'), ('క్ష్మి', '|'), ('యా', 'U'), ('జ్యే', 'U'), ('ష్ట', '|'), ('క', '|'), ('దే', 'U'), ('టి', '|'), ('కిం', 'U'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('జే', 'U'), ('య', '|'), ('దు', '|'), ('తో', 'U'), ('డ', '|'), ('నె', '|'), ('పు', 'U'), ('ట్టి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
+          <t>[('భ్ర', 'U'), ('ష్టు', '|'), ('న', '|'), ('క', 'U'), ('ర్థ', '|'), ('వం', 'U'), ('తు', '|'), ('ల', '|'), ('గు', '|'), ('బాం', 'U'), ('ధ', '|'), ('వు', '|'), ('లెం', 'U'), ('ద', '|'), ('ఱు', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', 'U'), ('న్ని', '|'), ('జా', 'U'), ('దృ', 'U'), ('ష్ట', '|'), ('ము', '|'), ('లే', 'U'), ('దు', '|'), ('గా', 'U'), ('వు', '|'), ('న', '|'), ('ద', '|'), ('రి', '|'), ('ద్ర', '|'), ('త', '|'), ('బా', 'U'), ('ప', '|'), ('గ', '|'), ('లే', 'U'), ('రు', '|'), ('స', 'U'), ('త్కృ', '|'), ('పా', 'U'), ('దృ', 'U'), ('ష్టి', '|'), ('ని', '|'), ('ని', 'U'), ('ల్పి', '|'), ('లో', 'U'), ('కు', '|'), ('ల', '|'), ('క', '|'), ('తి', 'U'), ('స్థి', '|'), ('ర', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('లి', 'U'), ('చ్చు', '|'), ('ల', 'U'), ('క్ష్మి', '|'), ('యా', 'U'), ('జ్యే', 'U'), ('ష్ట', '|'), ('క', '|'), ('దే', 'U'), ('టి', '|'), ('కిం', 'U'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('జే', 'U'), ('య', '|'), ('దు', '|'), ('తో', 'U'), ('డ', '|'), ('నె', '|'), ('పు', 'U'), ('ట్టి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[('మా', 'U'), ('న', '|'), ('వ', '|'), ('నా', 'U'), ('థు', '|'), ('డా', 'U'), ('త్మ', '|'), ('రి', '|'), ('పు', '|'), ('మ', 'U'), ('ర్మ', '|'), ('మె', '|'), ('ఱిం', 'U'), ('గి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('నే', 'U'), ('లి', '|'), ('నం', 'U'), ('గా', 'U'), ('ని', '|'), ('జ', '|'), ('యిం', 'U'), ('ప', '|'), ('లే', 'U'), ('డ', '|'), ('రు', '|'), ('ల', '|'), ('గా', 'U'), ('ర్ము', '|'), ('క', '|'), ('ద', 'U'), ('క్షు', '|'), ('డు', '|'), ('రా', 'U'), ('మ', '|'), ('భ', '|'), ('ద్రు', '|'), ('డా', 'U'), ('దా', 'U'), ('న', '|'), ('వ', '|'), ('నా', 'U'), ('య', '|'), ('కున్', 'U'), ('గె', '|'), ('లు', '|'), ('వ', '|'), ('దా', 'U'), ('నె', '|'), ('టు', '|'), ('లో', 'U'), ('పు', '|'), ('ద', '|'), ('దీ', 'U'), ('య', '|'), ('నా', 'U'), ('భి', '|'), ('కా', 'U'), ('పా', 'U'), ('న', '|'), ('సు', '|'), ('ధ', 'U'), ('న్వి', '|'), ('భీ', 'U'), ('ష', '|'), ('ణు', '|'), ('డు', '|'), ('తా', 'U'), ('ర్కొ', '|'), ('ని', '|'), ('చె', 'U'), ('ప్ప', '|'), ('క', '|'), ('యు', 'U'), ('న్న', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
+          <t>[('మా', 'U'), ('న', '|'), ('వ', '|'), ('నా', 'U'), ('థు', '|'), ('డా', 'U'), ('త్మ', '|'), ('రి', '|'), ('పు', '|'), ('మ', 'U'), ('ర్మ', '|'), ('మె', '|'), ('ఱిం', 'U'), ('గి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('నే', 'U'), ('లి', '|'), ('నం', 'U'), ('గా', 'U'), ('ని', '|'), ('జ', '|'), ('యిం', 'U'), ('ప', '|'), ('లే', 'U'), ('డ', '|'), ('రు', '|'), ('ల', '|'), ('గా', 'U'), ('ర్ము', '|'), ('క', '|'), ('ద', 'U'), ('క్షు', '|'), ('డు', '|'), ('రా', 'U'), ('మ', '|'), ('భ', '|'), ('ద్రు', '|'), ('డా', 'U'), ('దా', 'U'), ('న', '|'), ('వ', '|'), ('నా', 'U'), ('య', '|'), ('కు', 'U'), ('న్గె', '|'), ('లు', '|'), ('వ', '|'), ('దా', 'U'), ('నె', '|'), ('టు', '|'), ('లో', 'U'), ('పు', '|'), ('ద', '|'), ('దీ', 'U'), ('య', '|'), ('నా', 'U'), ('భి', '|'), ('కా', 'U'), ('పా', 'U'), ('న', '|'), ('సు', '|'), ('ధ', 'U'), ('న్వి', '|'), ('భీ', 'U'), ('ష', '|'), ('ణు', '|'), ('డు', '|'), ('తా', 'U'), ('ర్కొ', '|'), ('ని', '|'), ('చె', 'U'), ('ప్ప', '|'), ('క', '|'), ('యు', 'U'), ('న్న', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[('మా', 'U'), ('ని', '|'), ('ని', '|'), ('చె', 'U'), ('ప్పు', '|'), ('నె', 'U'), ('ట్లె', '|'), ('ఱు', '|'), ('క', '|'), ('మా', 'U'), ('లి', '|'), ('న', '|'), ('వా', 'U'), ('డ', '|'), ('టు', '|'), ('చే', 'U'), ('సి', '|'), ('నన్', 'U'), ('మ', '|'), ('హా', 'U'), ('హా', 'U'), ('ని', '|'), ('ఘ', '|'), ('టిం', 'U'), ('చు', '|'), ('నే', 'U'), ('ఘ', '|'), ('ను', '|'), ('ని', '|'), ('కై', 'U'), ('న', '|'), ('న', '|'), ('సం', 'U'), ('శ', '|'), ('య', '|'), ('ము', 'U'), ('ర్వి', '|'), ('పై', 'U'), ('గృ', '|'), ('పా', 'U'), ('హీ', 'U'), ('న', '|'), ('త', '|'), ('బ', 'U'), ('ల్కి', '|'), ('న', 'U'), ('న్ద', '|'), ('శ', '|'), ('ర', '|'), ('థే', 'U'), ('శ్వ', '|'), ('రు', '|'), ('డం', 'U'), ('గ', '|'), ('న', '|'), ('మా', 'U'), ('ట', '|'), ('కై', 'U'), ('గు', '|'), ('ణాం', 'U'), ('భో', 'U'), ('ని', '|'), ('ధి', '|'), ('రా', 'U'), ('ము', '|'), ('బా', 'U'), ('సి', '|'), ('చ', '|'), ('ని', '|'), ('పో', 'U'), ('వ', '|'), ('డె', '|'), ('శో', 'U'), ('క', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
+          <t>[('మా', 'U'), ('ని', '|'), ('ని', '|'), ('చె', 'U'), ('ప్పు', '|'), ('నె', 'U'), ('ట్లె', '|'), ('ఱు', '|'), ('క', '|'), ('మా', 'U'), ('లి', '|'), ('న', '|'), ('వా', 'U'), ('డ', '|'), ('టు', '|'), ('చే', 'U'), ('సి', '|'), ('న', 'U'), ('న్మ', '|'), ('హా', 'U'), ('హా', 'U'), ('ని', '|'), ('ఘ', '|'), ('టిం', 'U'), ('చు', '|'), ('నే', 'U'), ('ఘ', '|'), ('ను', '|'), ('ని', '|'), ('కై', 'U'), ('న', '|'), ('న', '|'), ('సం', 'U'), ('శ', '|'), ('య', '|'), ('ము', 'U'), ('ర్వి', '|'), ('పై', 'U'), ('గృ', '|'), ('పా', 'U'), ('హీ', 'U'), ('న', '|'), ('త', '|'), ('బ', 'U'), ('ల్కి', '|'), ('న', 'U'), ('న్ద', '|'), ('శ', '|'), ('ర', '|'), ('థే', 'U'), ('శ్వ', '|'), ('రు', '|'), ('డం', 'U'), ('గ', '|'), ('న', '|'), ('మా', 'U'), ('ట', '|'), ('కై', 'U'), ('గు', '|'), ('ణాం', 'U'), ('భో', 'U'), ('ని', '|'), ('ధి', '|'), ('రా', 'U'), ('ము', '|'), ('బా', 'U'), ('సి', '|'), ('చ', '|'), ('ని', '|'), ('పో', 'U'), ('వ', '|'), ('డె', '|'), ('శో', 'U'), ('క', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[('రా', 'U'), ('కొ', '|'), ('మ', '|'), ('రుల్', 'U'), ('ర', '|'), ('స', 'U'), ('జ్ఞు', '|'), ('ని', '|'), ('ది', '|'), ('రం', 'U'), ('బు', '|'), ('గ', '|'), ('మ', 'U'), ('న్న', '|'), ('న', '|'), ('నుం', 'U'), ('చి', '|'), ('న', 'U'), ('ట్లు', '|'), ('భూ', 'U'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('మూ', 'U'), ('ఢు', '|'), ('ద', '|'), ('మ', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('నుం', 'U'), ('ప', '|'), ('రు', '|'), ('ని', 'U'), ('క్క', '|'), ('మే', 'U'), ('క', '|'), ('దా', 'U'), ('చే', 'U'), ('కొ', '|'), ('ని', '|'), ('ము', 'U'), ('ద్దు', '|'), ('గా', 'U'), ('జ', '|'), ('దు', '|'), ('వు', '|'), ('చి', 'U'), ('ల్క', '|'), ('ను', '|'), ('బెం', 'U'), ('తు', '|'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('పెం', 'U'), ('తు', '|'), ('రే', 'U'), ('కా', 'U'), ('క', '|'), ('ము', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రై', 'U'), ('న', '|'), ('శు', '|'), ('భ', '|'), ('కా', 'U'), ('ర', '|'), ('ణ', '|'), ('స', 'U'), ('న్ము', '|'), ('ని', '|'), ('సే', 'U'), ('వ్య', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
+          <t>[('రా', 'U'), ('కొ', '|'), ('మ', '|'), ('రు', '|'), ('ల్ర', '|'), ('స', 'U'), ('జ్ఞు', '|'), ('ని', '|'), ('ది', '|'), ('రం', 'U'), ('బు', '|'), ('గ', '|'), ('మ', 'U'), ('న్న', '|'), ('న', '|'), ('నుం', 'U'), ('చి', '|'), ('న', 'U'), ('ట్లు', '|'), ('భూ', 'U'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('మూ', 'U'), ('ఢు', '|'), ('ద', '|'), ('మ', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('నుం', 'U'), ('ప', '|'), ('రు', '|'), ('ని', 'U'), ('క్క', '|'), ('మే', 'U'), ('క', '|'), ('దా', 'U'), ('చే', 'U'), ('కొ', '|'), ('ని', '|'), ('ము', 'U'), ('ద్దు', '|'), ('గా', 'U'), ('జ', '|'), ('దు', '|'), ('వు', '|'), ('చి', 'U'), ('ల్క', '|'), ('ను', '|'), ('బెం', 'U'), ('తు', '|'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('పెం', 'U'), ('తు', '|'), ('రే', 'U'), ('కా', 'U'), ('క', '|'), ('ము', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రై', 'U'), ('న', '|'), ('శు', '|'), ('భ', '|'), ('కా', 'U'), ('ర', '|'), ('ణ', '|'), ('స', 'U'), ('న్ము', '|'), ('ని', '|'), ('సే', 'U'), ('వ్య', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[('వం', 'U'), ('చ', '|'), ('న', '|'), ('యిం', 'U'), ('త', '|'), ('లే', 'U'), ('క', '|'), ('యె', '|'), ('టు', '|'), ('వం', 'U'), ('టి', '|'), ('మ', '|'), ('హా', 'U'), ('త్ము', '|'), ('ల', '|'), ('నా', 'U'), ('శ్ర', '|'), ('యిం', 'U'), ('చి', '|'), ('నం', 'U'), ('గొం', 'U'), ('చె', '|'), ('మె', '|'), ('కా', 'U'), ('ని', '|'), ('మే', 'U'), ('లు', '|'), ('స', '|'), ('మ', '|'), ('కూ', 'U'), ('డ', '|'), ('ద', '|'), ('దృ', 'U'), ('ష్ట', '|'), ('ము', '|'), ('లే', 'U'), ('ని', '|'), ('వా', 'U'), ('రి', '|'), ('కి', 'U'), ('న్సం', 'U'), ('చి', '|'), ('త', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('బ్ర', 'U'), ('హ్మ', '|'), ('న', '|'), ('ని', '|'), ('శం', 'U'), ('బు', '|'), ('ను', '|'), ('వీ', 'U'), ('పు', '|'), ('న', '|'), ('మో', 'U'), ('చు', '|'), ('న', 'U'), ('ట్టి', '|'), ('రా', 'U'), ('యం', 'U'), ('చ', '|'), ('కు', '|'), ('ద', 'U'), ('మ్మి', '|'), ('తూం', 'U'), ('డ్లు', '|'), ('ది', '|'), ('న', '|'), ('నా', 'U'), ('యె', '|'), ('గ', '|'), ('దా', 'U'), ('ఫ', '|'), ('ల', '|'), ('మే', 'U'), ('మి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
+          <t>[('వం', 'U'), ('చ', '|'), ('న', '|'), ('యిం', 'U'), ('త', '|'), ('లే', 'U'), ('క', '|'), ('యె', '|'), ('టు', '|'), ('వం', 'U'), ('టి', '|'), ('మ', '|'), ('హా', 'U'), ('త్ము', '|'), ('ల', '|'), ('నా', 'U'), ('శ్ర', '|'), ('యిం', 'U'), ('చి', '|'), ('నం', 'U'), ('గొం', 'U'), ('చె', '|'), ('మె', '|'), ('కా', 'U'), ('ని', '|'), ('మే', 'U'), ('లు', '|'), ('స', '|'), ('మ', '|'), ('కూ', 'U'), ('డ', '|'), ('ద', '|'), ('దృ', 'U'), ('ష్ట', '|'), ('ము', '|'), ('లే', 'U'), ('ని', '|'), ('వా', 'U'), ('రి', '|'), ('కిన్', 'U'), ('సం', 'U'), ('చి', '|'), ('త', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('బ్ర', 'U'), ('హ్మ', '|'), ('న', '|'), ('ని', '|'), ('శం', 'U'), ('బు', '|'), ('ను', '|'), ('వీ', 'U'), ('పు', '|'), ('న', '|'), ('మో', 'U'), ('చు', '|'), ('న', 'U'), ('ట్టి', '|'), ('రా', 'U'), ('యం', 'U'), ('చ', '|'), ('కు', '|'), ('ద', 'U'), ('మ్మి', '|'), ('తూం', 'U'), ('డ్లు', '|'), ('ది', '|'), ('న', '|'), ('నా', 'U'), ('యె', '|'), ('గ', '|'), ('దా', 'U'), ('ఫ', '|'), ('ల', '|'), ('మే', 'U'), ('మి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[('సం', 'U'), ('త', '|'), ('త', '|'), ('పు', 'U'), ('ణ్య', '|'), ('శా', 'U'), ('లి', '|'), ('నొ', '|'), ('క', '|'), ('జా', 'U'), ('డ', '|'), ('ను', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('వా', 'U'), ('సి', '|'), ('పో', 'U'), ('యి', '|'), ('తా', 'U'), ('నం', 'U'), ('త', '|'), ('ట', '|'), ('బో', 'U'), ('క', '|'), ('నె', 'U'), ('ట్టు', '|'), ('కొ', '|'), ('ని', '|'), ('య', 'U'), ('ప్ప', '|'), ('టి', '|'), ('య', 'U'), ('ట్ల', '|'), ('వ', '|'), ('సిం', 'U'), ('చి', '|'), ('యుం', 'U'), ('డు', '|'), ('మా', 'U'), ('సాం', 'U'), ('త', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('జం', 'U'), ('దు', '|'), ('రు', '|'), ('ని', '|'), ('న', 'U'), ('న్ని', '|'), ('క', '|'), ('ళల్', 'U'), ('పె', '|'), ('డ', '|'), ('బా', 'U'), ('సి', '|'), ('పో', 'U'), ('యి', '|'), ('నం', 'U'), ('గాం', 'U'), ('తి', '|'), ('వ', '|'), ('హిం', 'U'), ('ప', '|'), ('డ', '|'), ('టో', 'U'), ('టు', '|'), ('తి', '|'), ('రు', '|'), ('గం', 'U'), ('బ', '|'), ('డి', '|'), ('దే', 'U'), ('హ', '|'), ('ము', '|'), ('నిం', 'U'), ('డ', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
+          <t>[('సం', 'U'), ('త', '|'), ('త', '|'), ('పు', 'U'), ('ణ్య', '|'), ('శా', 'U'), ('లి', '|'), ('నొ', '|'), ('క', '|'), ('జా', 'U'), ('డ', '|'), ('ను', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('వా', 'U'), ('సి', '|'), ('పో', 'U'), ('యి', '|'), ('తా', 'U'), ('నం', 'U'), ('త', '|'), ('ట', '|'), ('బో', 'U'), ('క', '|'), ('నె', 'U'), ('ట్టు', '|'), ('కొ', '|'), ('ని', '|'), ('య', 'U'), ('ప్ప', '|'), ('టి', '|'), ('య', 'U'), ('ట్ల', '|'), ('వ', '|'), ('సిం', 'U'), ('చి', '|'), ('యుం', 'U'), ('డు', '|'), ('మా', 'U'), ('సాం', 'U'), ('త', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('జం', 'U'), ('దు', '|'), ('రు', '|'), ('ని', '|'), ('న', 'U'), ('న్ని', '|'), ('క', '|'), ('ళ', 'U'), ('ల్పె', '|'), ('డ', '|'), ('బా', 'U'), ('సి', '|'), ('పో', 'U'), ('యి', '|'), ('నం', 'U'), ('గాం', 'U'), ('తి', '|'), ('వ', '|'), ('హిం', 'U'), ('ప', '|'), ('డ', '|'), ('టో', 'U'), ('టు', '|'), ('తి', '|'), ('రు', '|'), ('గం', 'U'), ('బ', '|'), ('డి', '|'), ('దే', 'U'), ('హ', '|'), ('ము', '|'), ('నిం', 'U'), ('డ', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[('సా', 'U'), ('ర', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('వ', 'U'), ('ర్త', '|'), ('న', '|'), ('ల', '|'), ('స', 'U'), ('న్ను', '|'), ('తి', '|'), ('కె', 'U'), ('క్కి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('లో', 'U'), ('ప', '|'), ('లం', 'U'), ('జే', 'U'), ('రి', '|'), ('న', '|'), ('యం', 'U'), ('త', '|'), ('మూ', 'U'), ('ఢు', '|'), ('ల', '|'), ('కు', '|'), ('జే', 'U'), ('ప', '|'), ('డ', '|'), ('దా', 'U'), ('న', '|'), ('డ', '|'), ('యె', 'U'), ('ట్టు', '|'), ('ల', 'U'), ('న్న', '|'), ('గా', 'U'), ('సా', 'U'), ('ర', '|'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('హం', 'U'), ('స', '|'), ('ము', '|'), ('ల', '|'), ('సం', 'U'), ('గ', '|'), ('తి', '|'), ('నుం', 'U'), ('డె', '|'), ('డి', '|'), ('కొం', 'U'), ('గ', '|'), ('పి', 'U'), ('ట్ట', '|'), ('కే', 'U'), ('తీ', 'U'), ('రు', '|'), ('న', '|'), ('గ', 'U'), ('ల్గ', '|'), ('నే', 'U'), ('ర్చు', '|'), ('ను', '|'), ('ద', '|'), ('దీ', 'U'), ('య', '|'), ('గ', '|'), ('తుల్', 'U'), ('ద', '|'), ('ల', '|'), ('పో', 'U'), ('య', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
+          <t>[('సా', 'U'), ('ర', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('వ', 'U'), ('ర్త', '|'), ('న', '|'), ('ల', '|'), ('స', 'U'), ('న్ను', '|'), ('తి', '|'), ('కె', 'U'), ('క్కి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('లో', 'U'), ('ప', '|'), ('లం', 'U'), ('జే', 'U'), ('రి', '|'), ('న', '|'), ('యం', 'U'), ('త', '|'), ('మూ', 'U'), ('ఢు', '|'), ('ల', '|'), ('కు', '|'), ('జే', 'U'), ('ప', '|'), ('డ', '|'), ('దా', 'U'), ('న', '|'), ('డ', '|'), ('యె', 'U'), ('ట్టు', '|'), ('ల', 'U'), ('న్న', '|'), ('గా', 'U'), ('సా', 'U'), ('ర', '|'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('హం', 'U'), ('స', '|'), ('ము', '|'), ('ల', '|'), ('సం', 'U'), ('గ', '|'), ('తి', '|'), ('నుం', 'U'), ('డె', '|'), ('డి', '|'), ('కొం', 'U'), ('గ', '|'), ('పి', 'U'), ('ట్ట', '|'), ('కే', 'U'), ('తీ', 'U'), ('రు', '|'), ('న', '|'), ('గ', 'U'), ('ల్గ', '|'), ('నే', 'U'), ('ర్చు', '|'), ('ను', '|'), ('ద', '|'), ('దీ', 'U'), ('య', '|'), ('గ', '|'), ('తు', 'U'), ('ల్ద', '|'), ('ల', '|'), ('పో', 'U'), ('య', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[('స్థా', 'U'), ('న', '|'), ('ము', '|'), ('ద', 'U'), ('ప్పి', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నె', '|'), ('డ', '|'), ('దా', 'U'), ('నె', '|'), ('టు', '|'), ('వం', 'U'), ('టి', '|'), ('బ', '|'), ('లా', 'U'), ('ఢ్యు', '|'), ('డున్', 'U'), ('ని', '|'), ('జ', 'U'), ('స్థా', 'U'), ('ని', '|'), ('కు', '|'), ('డై', 'U'), ('న', '|'), ('య', 'U'), ('ల్పు', '|'), ('ని', '|'), ('క', '|'), ('తం', 'U'), ('బు', '|'), ('న', '|'), ('నై', 'U'), ('న', '|'), ('ను', '|'), ('మో', 'U'), ('స', '|'), ('పో', 'U'), ('వు', '|'), ('గా', 'U'), ('కా', 'U'), ('న', '|'), ('ల', '|'), ('లో', 'U'), ('ప', '|'), ('లన్', 'U'), ('వె', '|'), ('డ', '|'), ('లి', '|'), ('గం', 'U'), ('ధ', '|'), ('గ', '|'), ('జం', 'U'), ('బొ', '|'), ('క', '|'), ('నా', 'U'), ('డు', '|'), ('నీ', 'U'), ('టి', '|'), ('లో', 'U'), ('గా', 'U'), ('న', '|'), ('క', '|'), ('చొ', 'U'), ('చ్చి', '|'), ('నన్', 'U'), ('మొ', '|'), ('స', '|'), ('లి', '|'), ('కా', 'U'), ('టు', '|'), ('కు', '|'), ('లో', 'U'), ('బ', '|'), ('డ', '|'), ('ద', '|'), ('టో', 'U'), ('టు', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
+          <t>[('స్థా', 'U'), ('న', '|'), ('ము', '|'), ('ద', 'U'), ('ప్పి', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నె', '|'), ('డ', '|'), ('దా', 'U'), ('నె', '|'), ('టు', '|'), ('వం', 'U'), ('టి', '|'), ('బ', '|'), ('లా', 'U'), ('ఢ్యు', '|'), ('డు', 'U'), ('న్ని', '|'), ('జ', 'U'), ('స్థా', 'U'), ('ని', '|'), ('కు', '|'), ('డై', 'U'), ('న', '|'), ('య', 'U'), ('ల్పు', '|'), ('ని', '|'), ('క', '|'), ('తం', 'U'), ('బు', '|'), ('న', '|'), ('నై', 'U'), ('న', '|'), ('ను', '|'), ('మో', 'U'), ('స', '|'), ('పో', 'U'), ('వు', '|'), ('గా', 'U'), ('కా', 'U'), ('న', '|'), ('ల', '|'), ('లో', 'U'), ('ప', '|'), ('ల', 'U'), ('న్వె', '|'), ('డ', '|'), ('లి', '|'), ('గం', 'U'), ('ధ', '|'), ('గ', '|'), ('జం', 'U'), ('బొ', '|'), ('క', '|'), ('నా', 'U'), ('డు', '|'), ('నీ', 'U'), ('టి', '|'), ('లో', 'U'), ('గా', 'U'), ('న', '|'), ('క', '|'), ('చొ', 'U'), ('చ్చి', '|'), ('న', 'U'), ('న్మొ', '|'), ('స', '|'), ('లి', '|'), ('కా', 'U'), ('టు', '|'), ('కు', '|'), ('లో', 'U'), ('బ', '|'), ('డ', '|'), ('ద', '|'), ('టో', 'U'), ('టు', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[('సే', 'U'), ('న', '|'), ('గ', '|'), ('వాం', 'U'), ('ఛి', '|'), ('తా', 'U'), ('న్న', '|'), ('ము', '|'), ('భు', '|'), ('జిం', 'U'), ('ప', '|'), ('గ', '|'), ('ల', 'U'), ('ప్పు', '|'), ('డు', '|'), ('కా', 'U'), ('క', '|'), ('లే', 'U'), ('ని', '|'), ('చో', 'U'), ('మే', 'U'), ('ను', '|'), ('లు', '|'), ('డ', 'U'), ('స్సి', '|'), ('యుం', 'U'), ('ట', '|'), ('ని', '|'), ('జ', '|'), ('మే', 'U'), ('క', '|'), ('ద', '|'), ('దే', 'U'), ('హు', '|'), ('ల', '|'), ('క', 'U'), ('గ్ని', '|'), ('హో', 'U'), ('త్రు', '|'), ('డౌ', 'U'), ('నే', 'U'), ('ని', '|'), ('జ', '|'), ('భో', 'U'), ('జ్య', '|'), ('ముల్', 'U'), ('గు', '|'), ('డు', '|'), ('చు', '|'), ('నే', 'U'), ('ని', '|'), ('యు', '|'), ('బు', 'U'), ('ష్టి', '|'), ('వ', '|'), ('హిం', 'U'), ('చు', '|'), ('లే', 'U'), ('ని', '|'), ('నా', 'U'), ('డూ', 'U'), ('ని', '|'), ('వి', '|'), ('భూ', 'U'), ('తి', '|'), ('లో', 'U'), ('న', '|'), ('డ', '|'), ('గి', '|'), ('యుం', 'U'), ('డ', '|'), ('డె', '|'), ('తే', 'U'), ('జ', '|'), ('ము', '|'), ('త', 'U'), ('ప్పి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
+          <t>[('సే', 'U'), ('న', '|'), ('గ', '|'), ('వాం', 'U'), ('ఛి', '|'), ('తా', 'U'), ('న్న', '|'), ('ము', '|'), ('భు', '|'), ('జిం', 'U'), ('ప', '|'), ('గ', '|'), ('ల', 'U'), ('ప్పు', '|'), ('డు', '|'), ('కా', 'U'), ('క', '|'), ('లే', 'U'), ('ని', '|'), ('చో', 'U'), ('మే', 'U'), ('ను', '|'), ('లు', '|'), ('డ', 'U'), ('స్సి', '|'), ('యుం', 'U'), ('ట', '|'), ('ని', '|'), ('జ', '|'), ('మే', 'U'), ('క', '|'), ('ద', '|'), ('దే', 'U'), ('హు', '|'), ('ల', '|'), ('క', 'U'), ('గ్ని', '|'), ('హో', 'U'), ('త్రు', '|'), ('డౌ', 'U'), ('నే', 'U'), ('ని', '|'), ('జ', '|'), ('భో', 'U'), ('జ్య', '|'), ('ము', 'U'), ('ల్గు', '|'), ('డు', '|'), ('చు', '|'), ('నే', 'U'), ('ని', '|'), ('యు', '|'), ('బు', 'U'), ('ష్టి', '|'), ('వ', '|'), ('హిం', 'U'), ('చు', '|'), ('లే', 'U'), ('ని', '|'), ('నా', 'U'), ('డూ', 'U'), ('ని', '|'), ('వి', '|'), ('భూ', 'U'), ('తి', '|'), ('లో', 'U'), ('న', '|'), ('డ', '|'), ('గి', '|'), ('యుం', 'U'), ('డ', '|'), ('డె', '|'), ('తే', 'U'), ('జ', '|'), ('ము', '|'), ('త', 'U'), ('ప్పి', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[('హీ', 'U'), ('న', '|'), ('కు', '|'), ('లం', 'U'), ('బు', '|'), ('నం', 'U'), ('దు', '|'), ('జ', '|'), ('ని', '|'), ('యిం', 'U'), ('చి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('కి', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణం', 'U'), ('బు', '|'), ('లె', 'U'), ('న్నే', 'U'), ('ని', '|'), ('యు', '|'), ('గ', 'U'), ('ల్గి', '|'), ('యు', 'U'), ('న్న', '|'), ('నొ', '|'), ('క', '|'), ('నే', 'U'), ('ర', '|'), ('ము', '|'), ('చెం', 'U'), ('ద', '|'), ('క', '|'), ('పో', 'U'), ('దు', '|'), ('ప', 'U'), ('ద్మ', '|'), ('ముల్', 'U'), ('భూ', 'U'), ('ను', '|'), ('తి', '|'), ('గాం', 'U'), ('చి', '|'), ('యున్', 'U'), ('బు', '|'), ('ర', '|'), ('ద', '|'), ('బు', 'U'), ('ట్టు', '|'), ('ట', '|'), ('వ', 'U'), ('ల్ల', '|'), ('సు', '|'), ('ధా', 'U'), ('క', '|'), ('రో', 'U'), ('ద', '|'), ('యం', 'U'), ('బై', 'U'), ('న', '|'), ('న', '|'), ('స', 'U'), ('హ్య', '|'), ('మొం', 'U'), ('ద', '|'), ('వె', '|'), ('ప్రి', '|'), ('యం', 'U'), ('బు', '|'), ('న', '|'), ('జూ', 'U'), ('డ', '|'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
+          <t>[('హీ', 'U'), ('న', '|'), ('కు', '|'), ('లం', 'U'), ('బు', '|'), ('నం', 'U'), ('దు', '|'), ('జ', '|'), ('ని', '|'), ('యిం', 'U'), ('చి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('కి', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణం', 'U'), ('బు', '|'), ('లె', 'U'), ('న్నే', 'U'), ('ని', '|'), ('యు', '|'), ('గ', 'U'), ('ల్గి', '|'), ('యు', 'U'), ('న్న', '|'), ('నొ', '|'), ('క', '|'), ('నే', 'U'), ('ర', '|'), ('ము', '|'), ('చెం', 'U'), ('ద', '|'), ('క', '|'), ('పో', 'U'), ('దు', '|'), ('ప', 'U'), ('ద్మ', '|'), ('ముల్', 'U'), ('భూ', 'U'), ('ను', '|'), ('తి', '|'), ('గాం', 'U'), ('చి', '|'), ('యు', 'U'), ('న్బు', '|'), ('ర', '|'), ('ద', '|'), ('బు', 'U'), ('ట్టు', '|'), ('ట', '|'), ('వ', 'U'), ('ల్ల', '|'), ('సు', '|'), ('ధా', 'U'), ('క', '|'), ('రో', 'U'), ('ద', '|'), ('యం', 'U'), ('బై', 'U'), ('న', '|'), ('న', '|'), ('స', 'U'), ('హ్య', '|'), ('మొం', 'U'), ('ద', '|'), ('వె', '|'), ('ప్రి', '|'), ('యం', 'U'), ('బు', '|'), ('న', '|'), ('జూ', 'U'), ('డ', '|'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('భా', 'U'), ('స్క', '|'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
